--- a/PhoenixCI/Excel_Template/43010.xlsx
+++ b/PhoenixCI/Excel_Template/43010.xlsx
@@ -5,24 +5,27 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Bdc\結算部\風管組\個人資料區\CL.郭劻祥\1.測試\107年測試\107.1盤後子系統樣板升級\Excel_Template\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIN\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18900" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="18900" windowHeight="7944" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="4" r:id="rId1"/>
+    <sheet name="fut_3index" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">fut_3index!$A$1:$AG$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">rpt_future!$A$1:$N$103</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">fut_3index!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>一、</t>
   </si>
@@ -534,18 +537,546 @@
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>結算保證金</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原始保證金</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>商品別</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現行收取結算保證金</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>實際風險價格係數</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>適用風險價格係數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日結算保證金</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>實際風險價格係數</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>適用風險價格係數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日結算保證金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MaxVol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>實際風險價格係數</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MaxVol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>適用風險價格係數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MaxVol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本日結算保證金</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動幅度</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>現行</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMA</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>EWMA</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MaxVol</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動比率</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動比率</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MaxVol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變動比率</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原保占比</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>EWMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原保占比</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>調整後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MaxVol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>原保占比</t>
+    </r>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>近月份契約期貨結算價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>契約規格</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="#,##0_ "/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -739,8 +1270,28 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,8 +1304,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -799,6 +1356,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -807,7 +1388,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,7 +1396,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -853,10 +1434,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,19 +1446,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -953,7 +1534,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -997,7 +1578,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1006,19 +1587,19 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1045,6 +1626,72 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="31" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1056,6 +1703,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1443,33 +2102,33 @@
   </sheetPr>
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="91" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="12" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="91" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="12" customWidth="1"/>
     <col min="10" max="10" width="13" style="12" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="45" customWidth="1"/>
     <col min="13" max="13" width="5" style="45" customWidth="1"/>
-    <col min="14" max="14" width="7.125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="45" customWidth="1"/>
     <col min="15" max="15" width="11" style="45" customWidth="1"/>
-    <col min="16" max="17" width="9.75" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.77734375" style="45" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="45"/>
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="43.9" customHeight="1">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="43.8" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,11 +2142,11 @@
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
       <c r="M1" s="73"/>
       <c r="N1" s="74"/>
       <c r="O1" s="46"/>
@@ -1495,7 +2154,7 @@
       <c r="Q1" s="46"/>
       <c r="R1" s="46"/>
     </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="78">
+    <row r="2" spans="1:19" s="8" customFormat="1" ht="79.2">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>19</v>
@@ -2114,7 +2773,7 @@
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
     </row>
-    <row r="33" spans="1:19" s="14" customFormat="1" ht="18.75">
+    <row r="33" spans="1:19" s="14" customFormat="1" ht="18">
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
       <c r="D33" s="70"/>
@@ -2133,7 +2792,7 @@
       <c r="Q33" s="51"/>
       <c r="R33" s="51"/>
     </row>
-    <row r="34" spans="1:19" s="20" customFormat="1" ht="43.9" customHeight="1">
+    <row r="34" spans="1:19" s="20" customFormat="1" ht="43.8" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2172,7 +2831,7 @@
       <c r="K35" s="19"/>
       <c r="L35" s="54"/>
     </row>
-    <row r="36" spans="1:19" ht="57">
+    <row r="36" spans="1:19" ht="55.8">
       <c r="B36" s="7" t="s">
         <v>19</v>
       </c>
@@ -3078,7 +3737,7 @@
       <c r="L66" s="25"/>
       <c r="S66" s="45"/>
     </row>
-    <row r="67" spans="1:21" s="28" customFormat="1" ht="47.45" customHeight="1">
+    <row r="67" spans="1:21" s="28" customFormat="1" ht="47.4" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>12</v>
       </c>
@@ -3093,8 +3752,8 @@
       <c r="H67" s="12"/>
       <c r="I67" s="26"/>
       <c r="J67" s="12"/>
-      <c r="K67" s="93"/>
-      <c r="L67" s="94"/>
+      <c r="K67" s="115"/>
+      <c r="L67" s="116"/>
       <c r="M67" s="56"/>
       <c r="N67" s="56"/>
       <c r="O67" s="56"/>
@@ -3124,7 +3783,7 @@
       <c r="Q68" s="59"/>
       <c r="R68" s="59"/>
     </row>
-    <row r="69" spans="1:21" s="32" customFormat="1" ht="39">
+    <row r="69" spans="1:21" s="32" customFormat="1" ht="39.6">
       <c r="A69" s="31"/>
       <c r="B69" s="7" t="s">
         <v>19</v>
@@ -4478,7 +5137,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="44"/>
     </row>
-    <row r="101" spans="1:21" ht="23.25" customHeight="1">
+    <row r="101" spans="1:21" ht="23.4" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="36" t="s">
         <v>30</v>
@@ -4504,7 +5163,7 @@
       <c r="I102" s="5"/>
       <c r="K102" s="27"/>
     </row>
-    <row r="103" spans="1:21" ht="37.15" customHeight="1">
+    <row r="103" spans="1:21" ht="37.049999999999997" customHeight="1">
       <c r="B103" s="37" t="s">
         <v>11</v>
       </c>
@@ -4531,7 +5190,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.35433070866141736" header="0.47244094488188981" footer="0"/>
-  <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="23" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;C&amp;"標楷體,粗體"&amp;28股票期貨契約保證金狀況表
 標的證券為受益憑證&amp;R&amp;"標楷體,標準"&amp;16
@@ -4543,4 +5202,1150 @@
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="22" style="93" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="111" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="93" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="93" customWidth="1"/>
+    <col min="5" max="16" width="10.21875" style="93" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" style="109" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11.109375" style="93" customWidth="1"/>
+    <col min="21" max="23" width="11.109375" style="114" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="109" customWidth="1"/>
+    <col min="25" max="27" width="10.44140625" style="93" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="107" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" style="107" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" style="107" customWidth="1"/>
+    <col min="31" max="33" width="8.88671875" style="107"/>
+    <col min="34" max="16384" width="8.88671875" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="39.6" customHeight="1">
+      <c r="B1" s="93"/>
+      <c r="Q1" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="122"/>
+    </row>
+    <row r="2" spans="1:33" ht="79.2">
+      <c r="A2" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="112" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="18" customHeight="1">
+      <c r="A3" s="94"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+    </row>
+    <row r="4" spans="1:33" ht="18" customHeight="1">
+      <c r="A4" s="94"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+    </row>
+    <row r="5" spans="1:33" ht="18" customHeight="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+    </row>
+    <row r="6" spans="1:33" ht="18" customHeight="1">
+      <c r="A6" s="94"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+    </row>
+    <row r="7" spans="1:33" ht="18" customHeight="1">
+      <c r="A7" s="94"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+    </row>
+    <row r="8" spans="1:33" ht="18" customHeight="1">
+      <c r="A8" s="94"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+    </row>
+    <row r="9" spans="1:33" ht="18" customHeight="1">
+      <c r="A9" s="94"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="99"/>
+      <c r="Y9" s="99"/>
+      <c r="Z9" s="99"/>
+      <c r="AA9" s="99"/>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+    </row>
+    <row r="10" spans="1:33" ht="18" customHeight="1">
+      <c r="A10" s="94"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+    </row>
+    <row r="11" spans="1:33" ht="18" customHeight="1">
+      <c r="A11" s="94"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+    </row>
+    <row r="12" spans="1:33" ht="18" customHeight="1">
+      <c r="A12" s="94"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+    </row>
+    <row r="13" spans="1:33" ht="18" customHeight="1">
+      <c r="A13" s="94"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="99"/>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+    </row>
+    <row r="14" spans="1:33" ht="18" customHeight="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="106"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="106"/>
+    </row>
+    <row r="15" spans="1:33" ht="18" customHeight="1">
+      <c r="A15" s="94"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="106"/>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="106"/>
+    </row>
+    <row r="16" spans="1:33" ht="18" customHeight="1">
+      <c r="A16" s="94"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="106"/>
+    </row>
+    <row r="17" spans="1:33" ht="18" customHeight="1">
+      <c r="A17" s="94"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="99"/>
+      <c r="Y17" s="99"/>
+      <c r="Z17" s="99"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="106"/>
+    </row>
+    <row r="18" spans="1:33" ht="18" customHeight="1">
+      <c r="A18" s="94"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="99"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+    </row>
+    <row r="19" spans="1:33" ht="18" customHeight="1">
+      <c r="A19" s="94"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="106"/>
+      <c r="AF19" s="106"/>
+      <c r="AG19" s="106"/>
+    </row>
+    <row r="20" spans="1:33" ht="18" customHeight="1">
+      <c r="A20" s="94"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="99"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="106"/>
+    </row>
+    <row r="21" spans="1:33" ht="18" customHeight="1">
+      <c r="A21" s="94"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
+    </row>
+    <row r="22" spans="1:33" ht="18" customHeight="1">
+      <c r="A22" s="94"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="99"/>
+      <c r="Z22" s="99"/>
+      <c r="AA22" s="99"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="106"/>
+    </row>
+    <row r="23" spans="1:33" ht="18" customHeight="1">
+      <c r="A23" s="94"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="106"/>
+    </row>
+    <row r="24" spans="1:33" ht="18" customHeight="1">
+      <c r="A24" s="94"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="99"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="99"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="113"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+    </row>
+    <row r="25" spans="1:33" ht="18" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+    </row>
+    <row r="26" spans="1:33" ht="18" customHeight="1">
+      <c r="A26" s="94"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="99"/>
+      <c r="AA26" s="99"/>
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+    </row>
+    <row r="27" spans="1:33" ht="18" customHeight="1">
+      <c r="A27" s="94"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="99"/>
+      <c r="AA27" s="99"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
+    </row>
+    <row r="28" spans="1:33" ht="18" customHeight="1">
+      <c r="A28" s="94"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="113"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="113"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="106"/>
+    </row>
+    <row r="29" spans="1:33" ht="18" customHeight="1">
+      <c r="A29" s="94"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
+    </row>
+    <row r="30" spans="1:33" ht="18" customHeight="1">
+      <c r="A30" s="94"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="99"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="X1:AG1"/>
+  </mergeCells>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="29" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>
--- a/PhoenixCI/Excel_Template/43010.xlsx
+++ b/PhoenixCI/Excel_Template/43010.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\需求單\保證金第二階段\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="238" yWindow="50" windowWidth="18895" windowHeight="7939"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18900" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">rpt_future!$A$1:$O$151</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">fut_3index!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -1196,15 +1196,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="181" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="182" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1520,7 +1521,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1871,6 +1872,9 @@
     <xf numFmtId="178" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1879,6 +1883,12 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2320,33 +2330,33 @@
   </sheetPr>
   <dimension ref="A1:XFD151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A155" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A50" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="69" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="69" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="12" customWidth="1"/>
     <col min="10" max="10" width="13" style="12" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="40" customWidth="1"/>
     <col min="13" max="13" width="15" style="40" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="40" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="40" customWidth="1"/>
     <col min="15" max="15" width="11" style="122" customWidth="1"/>
-    <col min="16" max="17" width="9.77734375" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.75" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="40"/>
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="43.85" customHeight="1">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2360,11 +2370,11 @@
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
       <c r="M1" s="58"/>
       <c r="N1" s="59"/>
       <c r="O1" s="118"/>
@@ -2372,7 +2382,7 @@
       <c r="Q1" s="41"/>
       <c r="R1" s="41"/>
     </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="54.5">
+    <row r="2" spans="1:19" s="8" customFormat="1" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>12</v>
@@ -2415,7 +2425,7 @@
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="30.05" customHeight="1">
+    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="67"/>
       <c r="D3" s="61"/>
@@ -2433,7 +2443,7 @@
       <c r="P3" s="45"/>
       <c r="S3" s="40"/>
     </row>
-    <row r="4" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="4" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
       <c r="B4" s="10"/>
       <c r="C4" s="60"/>
@@ -2451,7 +2461,7 @@
       <c r="O4" s="120"/>
       <c r="P4" s="54"/>
     </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="5" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="10"/>
       <c r="C5" s="60"/>
@@ -2472,7 +2482,7 @@
       <c r="R5" s="41"/>
       <c r="S5" s="41"/>
     </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="6" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="10"/>
       <c r="C6" s="60"/>
@@ -2493,7 +2503,7 @@
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="7" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53"/>
       <c r="B7" s="10"/>
       <c r="C7" s="60"/>
@@ -2511,7 +2521,7 @@
       <c r="O7" s="120"/>
       <c r="P7" s="54"/>
     </row>
-    <row r="8" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="8" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
       <c r="B8" s="10"/>
       <c r="C8" s="60"/>
@@ -2529,7 +2539,7 @@
       <c r="O8" s="120"/>
       <c r="P8" s="54"/>
     </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="9" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="10"/>
       <c r="C9" s="60"/>
@@ -2550,7 +2560,7 @@
       <c r="R9" s="41"/>
       <c r="S9" s="41"/>
     </row>
-    <row r="10" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="10" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
       <c r="B10" s="10"/>
       <c r="C10" s="60"/>
@@ -2568,7 +2578,7 @@
       <c r="O10" s="120"/>
       <c r="P10" s="54"/>
     </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="11" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="10"/>
       <c r="C11" s="60"/>
@@ -2589,7 +2599,7 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
     </row>
-    <row r="12" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="12" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="53"/>
       <c r="B12" s="10"/>
       <c r="C12" s="60"/>
@@ -2607,7 +2617,7 @@
       <c r="O12" s="120"/>
       <c r="P12" s="54"/>
     </row>
-    <row r="13" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="13" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="53"/>
       <c r="B13" s="10"/>
       <c r="C13" s="60"/>
@@ -2625,7 +2635,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="54"/>
     </row>
-    <row r="14" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="14" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="10"/>
       <c r="C14" s="60"/>
@@ -2646,7 +2656,7 @@
       <c r="R14" s="41"/>
       <c r="S14" s="41"/>
     </row>
-    <row r="15" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="15" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="53"/>
       <c r="B15" s="10"/>
       <c r="C15" s="60"/>
@@ -2664,7 +2674,7 @@
       <c r="O15" s="120"/>
       <c r="P15" s="54"/>
     </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="16" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="10"/>
       <c r="C16" s="60"/>
@@ -2685,7 +2695,7 @@
       <c r="R16" s="41"/>
       <c r="S16" s="41"/>
     </row>
-    <row r="17" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="17" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="53"/>
       <c r="B17" s="10"/>
       <c r="C17" s="60"/>
@@ -2703,7 +2713,7 @@
       <c r="O17" s="120"/>
       <c r="P17" s="54"/>
     </row>
-    <row r="18" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="18" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53"/>
       <c r="B18" s="10"/>
       <c r="C18" s="60"/>
@@ -2721,7 +2731,7 @@
       <c r="O18" s="120"/>
       <c r="P18" s="54"/>
     </row>
-    <row r="19" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="19" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="10"/>
       <c r="C19" s="60"/>
@@ -2742,7 +2752,7 @@
       <c r="R19" s="41"/>
       <c r="S19" s="41"/>
     </row>
-    <row r="20" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="20" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="53"/>
       <c r="B20" s="10"/>
       <c r="C20" s="60"/>
@@ -2760,7 +2770,7 @@
       <c r="O20" s="120"/>
       <c r="P20" s="54"/>
     </row>
-    <row r="21" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="21" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="10"/>
       <c r="C21" s="60"/>
@@ -2781,7 +2791,7 @@
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
     </row>
-    <row r="22" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="22" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="53"/>
       <c r="B22" s="10"/>
       <c r="C22" s="60"/>
@@ -2799,7 +2809,7 @@
       <c r="O22" s="120"/>
       <c r="P22" s="54"/>
     </row>
-    <row r="23" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="23" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="53"/>
       <c r="B23" s="10"/>
       <c r="C23" s="60"/>
@@ -2817,7 +2827,7 @@
       <c r="O23" s="120"/>
       <c r="P23" s="54"/>
     </row>
-    <row r="24" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="24" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="10"/>
       <c r="C24" s="60"/>
@@ -2838,7 +2848,7 @@
       <c r="R24" s="41"/>
       <c r="S24" s="41"/>
     </row>
-    <row r="25" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="25" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="53"/>
       <c r="B25" s="10"/>
       <c r="C25" s="60"/>
@@ -2856,7 +2866,7 @@
       <c r="O25" s="120"/>
       <c r="P25" s="54"/>
     </row>
-    <row r="26" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="26" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="53"/>
       <c r="B26" s="10"/>
       <c r="C26" s="60"/>
@@ -2874,7 +2884,7 @@
       <c r="O26" s="120"/>
       <c r="P26" s="54"/>
     </row>
-    <row r="27" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="27" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="10"/>
       <c r="C27" s="60"/>
@@ -2895,7 +2905,7 @@
       <c r="R27" s="41"/>
       <c r="S27" s="41"/>
     </row>
-    <row r="28" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="28" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="53"/>
       <c r="B28" s="10"/>
       <c r="C28" s="60"/>
@@ -2913,7 +2923,7 @@
       <c r="O28" s="120"/>
       <c r="P28" s="54"/>
     </row>
-    <row r="29" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="29" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="53"/>
       <c r="B29" s="10"/>
       <c r="C29" s="60"/>
@@ -2931,7 +2941,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="54"/>
     </row>
-    <row r="30" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="30" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="10"/>
       <c r="C30" s="60"/>
@@ -2952,7 +2962,7 @@
       <c r="R30" s="41"/>
       <c r="S30" s="41"/>
     </row>
-    <row r="31" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
+    <row r="31" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="53"/>
       <c r="B31" s="10"/>
       <c r="C31" s="60"/>
@@ -2970,7 +2980,7 @@
       <c r="O31" s="120"/>
       <c r="P31" s="54"/>
     </row>
-    <row r="32" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
+    <row r="32" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="10"/>
       <c r="C32" s="60"/>
@@ -2991,7 +3001,7 @@
       <c r="R32" s="41"/>
       <c r="S32" s="41"/>
     </row>
-    <row r="33" spans="1:16384" s="14" customFormat="1" ht="17.55">
+    <row r="33" spans="1:16384" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -3010,7 +3020,7 @@
       <c r="Q33" s="46"/>
       <c r="R33" s="46"/>
     </row>
-    <row r="34" spans="1:16384" s="14" customFormat="1" ht="17.55">
+    <row r="34" spans="1:16384" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -3029,7 +3039,7 @@
       <c r="Q34" s="46"/>
       <c r="R34" s="46"/>
     </row>
-    <row r="35" spans="1:16384" s="14" customFormat="1" ht="17.55">
+    <row r="35" spans="1:16384" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
@@ -3048,7 +3058,7 @@
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
     </row>
-    <row r="36" spans="1:16384" s="14" customFormat="1" ht="18.2">
+    <row r="36" spans="1:16384" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
@@ -3069,7 +3079,7 @@
       <c r="Q36" s="127"/>
       <c r="R36" s="128"/>
     </row>
-    <row r="37" spans="1:16384" s="20" customFormat="1" ht="43.85" customHeight="1">
+    <row r="37" spans="1:16384" s="20" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -3093,7 +3103,7 @@
       <c r="Q37" s="48"/>
       <c r="R37" s="48"/>
     </row>
-    <row r="38" spans="1:16384" ht="26.3" customHeight="1">
+    <row r="38" spans="1:16384" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="15" t="s">
         <v>55</v>
       </c>
@@ -3108,7 +3118,7 @@
       <c r="K38" s="19"/>
       <c r="L38" s="49"/>
     </row>
-    <row r="39" spans="1:16384" ht="26.3" customHeight="1">
+    <row r="39" spans="1:16384" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="115"/>
       <c r="B39" s="115" t="s">
         <v>56</v>
@@ -19496,7 +19506,7 @@
       <c r="XFC39" s="115"/>
       <c r="XFD39" s="115"/>
     </row>
-    <row r="40" spans="1:16384" ht="53.85">
+    <row r="40" spans="1:16384" ht="57.75" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>12</v>
       </c>
@@ -19541,7 +19551,7 @@
       </c>
       <c r="S40" s="40"/>
     </row>
-    <row r="41" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="41" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="60"/>
       <c r="C41" s="67"/>
       <c r="D41" s="61"/>
@@ -19552,13 +19562,13 @@
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
       <c r="N41" s="24"/>
       <c r="O41" s="117"/>
       <c r="S41" s="40"/>
     </row>
-    <row r="42" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="42" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="60"/>
       <c r="C42" s="67"/>
       <c r="D42" s="61"/>
@@ -19569,13 +19579,13 @@
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="130"/>
       <c r="N42" s="24"/>
       <c r="O42" s="117"/>
       <c r="S42" s="40"/>
     </row>
-    <row r="43" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="43" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="60"/>
       <c r="C43" s="67"/>
       <c r="D43" s="61"/>
@@ -19586,13 +19596,13 @@
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
       <c r="N43" s="24"/>
       <c r="O43" s="117"/>
       <c r="S43" s="40"/>
     </row>
-    <row r="44" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="44" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="60"/>
       <c r="C44" s="67"/>
       <c r="D44" s="61"/>
@@ -19603,13 +19613,13 @@
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="130"/>
       <c r="N44" s="24"/>
       <c r="O44" s="117"/>
       <c r="S44" s="40"/>
     </row>
-    <row r="45" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="45" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="60"/>
       <c r="C45" s="67"/>
       <c r="D45" s="61"/>
@@ -19620,13 +19630,13 @@
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="130"/>
       <c r="N45" s="24"/>
       <c r="O45" s="117"/>
       <c r="S45" s="40"/>
     </row>
-    <row r="46" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="46" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="60"/>
       <c r="C46" s="67"/>
       <c r="D46" s="61"/>
@@ -19637,13 +19647,13 @@
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="130"/>
       <c r="N46" s="24"/>
       <c r="O46" s="117"/>
       <c r="S46" s="40"/>
     </row>
-    <row r="47" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="47" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="60"/>
       <c r="C47" s="67"/>
       <c r="D47" s="61"/>
@@ -19654,13 +19664,13 @@
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="130"/>
       <c r="N47" s="24"/>
       <c r="O47" s="117"/>
       <c r="S47" s="40"/>
     </row>
-    <row r="48" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="48" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="60"/>
       <c r="C48" s="67"/>
       <c r="D48" s="61"/>
@@ -19671,13 +19681,13 @@
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="130"/>
       <c r="N48" s="24"/>
       <c r="O48" s="25"/>
       <c r="S48" s="40"/>
     </row>
-    <row r="49" spans="2:19" ht="32.25" customHeight="1">
+    <row r="49" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="60"/>
       <c r="C49" s="67"/>
       <c r="D49" s="61"/>
@@ -19688,13 +19698,13 @@
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
       <c r="N49" s="24"/>
       <c r="O49" s="25"/>
       <c r="S49" s="40"/>
     </row>
-    <row r="50" spans="2:19" ht="32.25" customHeight="1">
+    <row r="50" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="60"/>
       <c r="C50" s="67"/>
       <c r="D50" s="61"/>
@@ -19705,13 +19715,13 @@
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="130"/>
       <c r="N50" s="24"/>
       <c r="O50" s="25"/>
       <c r="S50" s="40"/>
     </row>
-    <row r="51" spans="2:19" ht="32.25" customHeight="1">
+    <row r="51" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="60"/>
       <c r="C51" s="67"/>
       <c r="D51" s="61"/>
@@ -19722,13 +19732,13 @@
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="130"/>
       <c r="N51" s="24"/>
       <c r="O51" s="25"/>
       <c r="S51" s="40"/>
     </row>
-    <row r="52" spans="2:19" ht="32.25" customHeight="1">
+    <row r="52" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="60"/>
       <c r="C52" s="67"/>
       <c r="D52" s="61"/>
@@ -19739,13 +19749,13 @@
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="130"/>
       <c r="N52" s="24"/>
       <c r="O52" s="25"/>
       <c r="S52" s="40"/>
     </row>
-    <row r="53" spans="2:19" ht="32.25" customHeight="1">
+    <row r="53" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="60"/>
       <c r="C53" s="67"/>
       <c r="D53" s="61"/>
@@ -19756,13 +19766,13 @@
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
       <c r="N53" s="24"/>
       <c r="O53" s="25"/>
       <c r="S53" s="40"/>
     </row>
-    <row r="54" spans="2:19" ht="32.25" customHeight="1">
+    <row r="54" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="60"/>
       <c r="C54" s="67"/>
       <c r="D54" s="61"/>
@@ -19773,13 +19783,13 @@
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="130"/>
       <c r="N54" s="24"/>
       <c r="O54" s="25"/>
       <c r="S54" s="40"/>
     </row>
-    <row r="55" spans="2:19" ht="32.25" customHeight="1">
+    <row r="55" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="60"/>
       <c r="C55" s="67"/>
       <c r="D55" s="61"/>
@@ -19790,13 +19800,13 @@
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="130"/>
       <c r="N55" s="24"/>
       <c r="O55" s="25"/>
       <c r="S55" s="40"/>
     </row>
-    <row r="56" spans="2:19" ht="32.25" customHeight="1">
+    <row r="56" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="60"/>
       <c r="C56" s="67"/>
       <c r="D56" s="61"/>
@@ -19807,13 +19817,13 @@
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
       <c r="N56" s="24"/>
       <c r="O56" s="25"/>
       <c r="S56" s="40"/>
     </row>
-    <row r="57" spans="2:19" ht="32.25" customHeight="1">
+    <row r="57" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="60"/>
       <c r="C57" s="67"/>
       <c r="D57" s="61"/>
@@ -19824,13 +19834,13 @@
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
       <c r="N57" s="24"/>
       <c r="O57" s="25"/>
       <c r="S57" s="40"/>
     </row>
-    <row r="58" spans="2:19" ht="32.25" customHeight="1">
+    <row r="58" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="60"/>
       <c r="C58" s="67"/>
       <c r="D58" s="61"/>
@@ -19841,13 +19851,13 @@
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
+      <c r="L58" s="130"/>
+      <c r="M58" s="130"/>
       <c r="N58" s="24"/>
       <c r="O58" s="25"/>
       <c r="S58" s="40"/>
     </row>
-    <row r="59" spans="2:19" ht="32.25" customHeight="1">
+    <row r="59" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="60"/>
       <c r="C59" s="67"/>
       <c r="D59" s="61"/>
@@ -19858,13 +19868,13 @@
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="130"/>
       <c r="N59" s="24"/>
       <c r="O59" s="25"/>
       <c r="S59" s="40"/>
     </row>
-    <row r="60" spans="2:19" ht="32.25" customHeight="1">
+    <row r="60" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="60"/>
       <c r="C60" s="67"/>
       <c r="D60" s="61"/>
@@ -19875,13 +19885,13 @@
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
+      <c r="L60" s="130"/>
+      <c r="M60" s="130"/>
       <c r="N60" s="24"/>
       <c r="O60" s="25"/>
       <c r="S60" s="40"/>
     </row>
-    <row r="61" spans="2:19" ht="32.25" customHeight="1">
+    <row r="61" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="60"/>
       <c r="C61" s="67"/>
       <c r="D61" s="61"/>
@@ -19892,13 +19902,13 @@
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="130"/>
       <c r="N61" s="24"/>
       <c r="O61" s="25"/>
       <c r="S61" s="40"/>
     </row>
-    <row r="62" spans="2:19" ht="32.25" customHeight="1">
+    <row r="62" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="60"/>
       <c r="C62" s="67"/>
       <c r="D62" s="61"/>
@@ -19909,13 +19919,13 @@
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="130"/>
       <c r="N62" s="24"/>
       <c r="O62" s="25"/>
       <c r="S62" s="40"/>
     </row>
-    <row r="63" spans="2:19" ht="32.25" customHeight="1">
+    <row r="63" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="60"/>
       <c r="C63" s="67"/>
       <c r="D63" s="61"/>
@@ -19926,13 +19936,13 @@
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="130"/>
       <c r="N63" s="24"/>
       <c r="O63" s="25"/>
       <c r="S63" s="40"/>
     </row>
-    <row r="64" spans="2:19" ht="32.25" customHeight="1">
+    <row r="64" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="60"/>
       <c r="C64" s="67"/>
       <c r="D64" s="61"/>
@@ -19943,13 +19953,13 @@
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="130"/>
       <c r="N64" s="24"/>
       <c r="O64" s="25"/>
       <c r="S64" s="40"/>
     </row>
-    <row r="65" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="65" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="60"/>
       <c r="C65" s="67"/>
       <c r="D65" s="61"/>
@@ -19960,13 +19970,13 @@
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
+      <c r="L65" s="130"/>
+      <c r="M65" s="130"/>
       <c r="N65" s="24"/>
       <c r="O65" s="25"/>
       <c r="S65" s="40"/>
     </row>
-    <row r="66" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="66" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="67"/>
       <c r="D66" s="61"/>
@@ -19977,13 +19987,13 @@
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="130"/>
       <c r="N66" s="24"/>
       <c r="O66" s="25"/>
       <c r="S66" s="40"/>
     </row>
-    <row r="67" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="67" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="60"/>
       <c r="C67" s="67"/>
       <c r="D67" s="61"/>
@@ -19994,13 +20004,13 @@
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
+      <c r="L67" s="130"/>
+      <c r="M67" s="130"/>
       <c r="N67" s="24"/>
       <c r="O67" s="25"/>
       <c r="S67" s="40"/>
     </row>
-    <row r="68" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="68" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="60"/>
       <c r="C68" s="67"/>
       <c r="D68" s="61"/>
@@ -20011,13 +20021,13 @@
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
+      <c r="L68" s="130"/>
+      <c r="M68" s="130"/>
       <c r="N68" s="24"/>
       <c r="O68" s="25"/>
       <c r="S68" s="40"/>
     </row>
-    <row r="69" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="69" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="60"/>
       <c r="C69" s="67"/>
       <c r="D69" s="61"/>
@@ -20028,13 +20038,13 @@
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="130"/>
       <c r="N69" s="24"/>
       <c r="O69" s="25"/>
       <c r="S69" s="40"/>
     </row>
-    <row r="70" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="70" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="60"/>
       <c r="C70" s="67"/>
       <c r="D70" s="61"/>
@@ -20045,13 +20055,13 @@
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
+      <c r="L70" s="130"/>
+      <c r="M70" s="130"/>
       <c r="N70" s="24"/>
       <c r="O70" s="25"/>
       <c r="S70" s="40"/>
     </row>
-    <row r="71" spans="1:16384" s="14" customFormat="1" ht="17.55">
+    <row r="71" spans="1:16384" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
       <c r="D71" s="55"/>
@@ -20070,7 +20080,7 @@
       <c r="Q71" s="46"/>
       <c r="R71" s="46"/>
     </row>
-    <row r="72" spans="1:16384" s="14" customFormat="1" ht="17.55">
+    <row r="72" spans="1:16384" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
       <c r="D72" s="55"/>
@@ -20089,7 +20099,7 @@
       <c r="Q72" s="46"/>
       <c r="R72" s="46"/>
     </row>
-    <row r="73" spans="1:16384" s="14" customFormat="1" ht="17.55">
+    <row r="73" spans="1:16384" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
@@ -20108,7 +20118,7 @@
       <c r="Q73" s="46"/>
       <c r="R73" s="46"/>
     </row>
-    <row r="74" spans="1:16384" s="14" customFormat="1" ht="19.45" hidden="1" customHeight="1">
+    <row r="74" spans="1:16384" s="14" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
       <c r="D74" s="55"/>
@@ -20129,7 +20139,7 @@
       <c r="Q74" s="46"/>
       <c r="R74" s="46"/>
     </row>
-    <row r="75" spans="1:16384" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="75" spans="1:16384" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
       <c r="D75" s="55"/>
@@ -20148,7 +20158,7 @@
       <c r="Q75" s="46"/>
       <c r="R75" s="46"/>
     </row>
-    <row r="76" spans="1:16384" ht="32.25" hidden="1" customHeight="1">
+    <row r="76" spans="1:16384" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="102"/>
       <c r="C76" s="103"/>
       <c r="D76" s="104"/>
@@ -20162,7 +20172,7 @@
       <c r="L76" s="18"/>
       <c r="S76" s="40"/>
     </row>
-    <row r="77" spans="1:16384" ht="26.3" hidden="1" customHeight="1">
+    <row r="77" spans="1:16384" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="115"/>
       <c r="B77" s="115" t="s">
         <v>57</v>
@@ -36550,7 +36560,7 @@
       <c r="XFC77" s="115"/>
       <c r="XFD77" s="115"/>
     </row>
-    <row r="78" spans="1:16384" ht="53.85" hidden="1">
+    <row r="78" spans="1:16384" ht="57.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>12</v>
       </c>
@@ -36593,7 +36603,7 @@
       <c r="O78" s="129"/>
       <c r="S78" s="40"/>
     </row>
-    <row r="79" spans="1:16384" ht="32.25" hidden="1" customHeight="1">
+    <row r="79" spans="1:16384" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="60"/>
       <c r="C79" s="67"/>
       <c r="D79" s="61"/>
@@ -36604,13 +36614,13 @@
       <c r="I79" s="24"/>
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
+      <c r="L79" s="130"/>
+      <c r="M79" s="130"/>
       <c r="N79" s="24"/>
       <c r="O79" s="129"/>
       <c r="S79" s="40"/>
     </row>
-    <row r="80" spans="1:16384" ht="32.25" hidden="1" customHeight="1">
+    <row r="80" spans="1:16384" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="60"/>
       <c r="C80" s="67"/>
       <c r="D80" s="61"/>
@@ -36621,13 +36631,13 @@
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
+      <c r="L80" s="130"/>
+      <c r="M80" s="130"/>
       <c r="N80" s="24"/>
       <c r="O80" s="129"/>
       <c r="S80" s="40"/>
     </row>
-    <row r="81" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="81" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="60"/>
       <c r="C81" s="67"/>
       <c r="D81" s="61"/>
@@ -36638,13 +36648,13 @@
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
+      <c r="L81" s="130"/>
+      <c r="M81" s="130"/>
       <c r="N81" s="24"/>
       <c r="O81" s="129"/>
       <c r="S81" s="40"/>
     </row>
-    <row r="82" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="82" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="60"/>
       <c r="C82" s="67"/>
       <c r="D82" s="61"/>
@@ -36655,13 +36665,13 @@
       <c r="I82" s="24"/>
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
+      <c r="L82" s="130"/>
+      <c r="M82" s="130"/>
       <c r="N82" s="24"/>
       <c r="O82" s="129"/>
       <c r="S82" s="40"/>
     </row>
-    <row r="83" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="83" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="60"/>
       <c r="C83" s="67"/>
       <c r="D83" s="61"/>
@@ -36672,13 +36682,13 @@
       <c r="I83" s="24"/>
       <c r="J83" s="24"/>
       <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
+      <c r="L83" s="130"/>
+      <c r="M83" s="130"/>
       <c r="N83" s="24"/>
       <c r="O83" s="129"/>
       <c r="S83" s="40"/>
     </row>
-    <row r="84" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="84" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="60"/>
       <c r="C84" s="67"/>
       <c r="D84" s="61"/>
@@ -36689,13 +36699,13 @@
       <c r="I84" s="24"/>
       <c r="J84" s="24"/>
       <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
+      <c r="L84" s="130"/>
+      <c r="M84" s="130"/>
       <c r="N84" s="24"/>
       <c r="O84" s="129"/>
       <c r="S84" s="40"/>
     </row>
-    <row r="85" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="85" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="60"/>
       <c r="C85" s="67"/>
       <c r="D85" s="61"/>
@@ -36706,13 +36716,13 @@
       <c r="I85" s="24"/>
       <c r="J85" s="24"/>
       <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
+      <c r="L85" s="130"/>
+      <c r="M85" s="130"/>
       <c r="N85" s="24"/>
       <c r="O85" s="129"/>
       <c r="S85" s="40"/>
     </row>
-    <row r="86" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="86" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="60"/>
       <c r="C86" s="67"/>
       <c r="D86" s="61"/>
@@ -36723,13 +36733,13 @@
       <c r="I86" s="24"/>
       <c r="J86" s="24"/>
       <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
+      <c r="L86" s="130"/>
+      <c r="M86" s="130"/>
       <c r="N86" s="24"/>
       <c r="O86" s="129"/>
       <c r="S86" s="40"/>
     </row>
-    <row r="87" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="87" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="60"/>
       <c r="C87" s="67"/>
       <c r="D87" s="61"/>
@@ -36740,13 +36750,13 @@
       <c r="I87" s="24"/>
       <c r="J87" s="24"/>
       <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
+      <c r="L87" s="130"/>
+      <c r="M87" s="130"/>
       <c r="N87" s="24"/>
       <c r="O87" s="129"/>
       <c r="S87" s="40"/>
     </row>
-    <row r="88" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="88" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="60"/>
       <c r="C88" s="67"/>
       <c r="D88" s="61"/>
@@ -36757,13 +36767,13 @@
       <c r="I88" s="24"/>
       <c r="J88" s="24"/>
       <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
+      <c r="L88" s="130"/>
+      <c r="M88" s="130"/>
       <c r="N88" s="24"/>
       <c r="O88" s="129"/>
       <c r="S88" s="40"/>
     </row>
-    <row r="89" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="89" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="60"/>
       <c r="C89" s="67"/>
       <c r="D89" s="61"/>
@@ -36774,13 +36784,13 @@
       <c r="I89" s="24"/>
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
+      <c r="L89" s="130"/>
+      <c r="M89" s="130"/>
       <c r="N89" s="24"/>
       <c r="O89" s="129"/>
       <c r="S89" s="40"/>
     </row>
-    <row r="90" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="90" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="60"/>
       <c r="C90" s="67"/>
       <c r="D90" s="61"/>
@@ -36791,13 +36801,13 @@
       <c r="I90" s="24"/>
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
+      <c r="L90" s="130"/>
+      <c r="M90" s="130"/>
       <c r="N90" s="24"/>
       <c r="O90" s="129"/>
       <c r="S90" s="40"/>
     </row>
-    <row r="91" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="91" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="60"/>
       <c r="C91" s="67"/>
       <c r="D91" s="61"/>
@@ -36808,13 +36818,13 @@
       <c r="I91" s="24"/>
       <c r="J91" s="24"/>
       <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
+      <c r="L91" s="130"/>
+      <c r="M91" s="130"/>
       <c r="N91" s="24"/>
       <c r="O91" s="129"/>
       <c r="S91" s="40"/>
     </row>
-    <row r="92" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="92" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="60"/>
       <c r="C92" s="67"/>
       <c r="D92" s="61"/>
@@ -36825,13 +36835,13 @@
       <c r="I92" s="24"/>
       <c r="J92" s="24"/>
       <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
+      <c r="L92" s="130"/>
+      <c r="M92" s="130"/>
       <c r="N92" s="24"/>
       <c r="O92" s="129"/>
       <c r="S92" s="40"/>
     </row>
-    <row r="93" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="93" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="60"/>
       <c r="C93" s="67"/>
       <c r="D93" s="61"/>
@@ -36842,13 +36852,13 @@
       <c r="I93" s="24"/>
       <c r="J93" s="24"/>
       <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
+      <c r="L93" s="130"/>
+      <c r="M93" s="130"/>
       <c r="N93" s="24"/>
       <c r="O93" s="129"/>
       <c r="S93" s="40"/>
     </row>
-    <row r="94" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="94" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="60"/>
       <c r="C94" s="67"/>
       <c r="D94" s="61"/>
@@ -36859,13 +36869,13 @@
       <c r="I94" s="24"/>
       <c r="J94" s="24"/>
       <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
+      <c r="L94" s="130"/>
+      <c r="M94" s="130"/>
       <c r="N94" s="24"/>
       <c r="O94" s="129"/>
       <c r="S94" s="40"/>
     </row>
-    <row r="95" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="95" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="60"/>
       <c r="C95" s="67"/>
       <c r="D95" s="61"/>
@@ -36876,13 +36886,13 @@
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
       <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
+      <c r="L95" s="130"/>
+      <c r="M95" s="130"/>
       <c r="N95" s="24"/>
       <c r="O95" s="129"/>
       <c r="S95" s="40"/>
     </row>
-    <row r="96" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="96" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="60"/>
       <c r="C96" s="67"/>
       <c r="D96" s="61"/>
@@ -36893,13 +36903,13 @@
       <c r="I96" s="24"/>
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
+      <c r="L96" s="130"/>
+      <c r="M96" s="130"/>
       <c r="N96" s="24"/>
       <c r="O96" s="129"/>
       <c r="S96" s="40"/>
     </row>
-    <row r="97" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="97" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="60"/>
       <c r="C97" s="67"/>
       <c r="D97" s="61"/>
@@ -36910,13 +36920,13 @@
       <c r="I97" s="24"/>
       <c r="J97" s="24"/>
       <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
+      <c r="L97" s="130"/>
+      <c r="M97" s="130"/>
       <c r="N97" s="24"/>
       <c r="O97" s="129"/>
       <c r="S97" s="40"/>
     </row>
-    <row r="98" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="98" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="60"/>
       <c r="C98" s="67"/>
       <c r="D98" s="61"/>
@@ -36927,13 +36937,13 @@
       <c r="I98" s="24"/>
       <c r="J98" s="24"/>
       <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
+      <c r="L98" s="130"/>
+      <c r="M98" s="130"/>
       <c r="N98" s="24"/>
       <c r="O98" s="129"/>
       <c r="S98" s="40"/>
     </row>
-    <row r="99" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="99" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="60"/>
       <c r="C99" s="67"/>
       <c r="D99" s="61"/>
@@ -36944,13 +36954,13 @@
       <c r="I99" s="24"/>
       <c r="J99" s="24"/>
       <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
+      <c r="L99" s="130"/>
+      <c r="M99" s="130"/>
       <c r="N99" s="24"/>
       <c r="O99" s="129"/>
       <c r="S99" s="40"/>
     </row>
-    <row r="100" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="100" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="60"/>
       <c r="C100" s="67"/>
       <c r="D100" s="61"/>
@@ -36961,13 +36971,13 @@
       <c r="I100" s="24"/>
       <c r="J100" s="24"/>
       <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
+      <c r="L100" s="130"/>
+      <c r="M100" s="130"/>
       <c r="N100" s="24"/>
       <c r="O100" s="129"/>
       <c r="S100" s="40"/>
     </row>
-    <row r="101" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="101" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="60"/>
       <c r="C101" s="67"/>
       <c r="D101" s="61"/>
@@ -36978,13 +36988,13 @@
       <c r="I101" s="24"/>
       <c r="J101" s="24"/>
       <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
+      <c r="L101" s="130"/>
+      <c r="M101" s="130"/>
       <c r="N101" s="24"/>
       <c r="O101" s="129"/>
       <c r="S101" s="40"/>
     </row>
-    <row r="102" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="102" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="60"/>
       <c r="C102" s="67"/>
       <c r="D102" s="61"/>
@@ -36995,13 +37005,13 @@
       <c r="I102" s="24"/>
       <c r="J102" s="24"/>
       <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
+      <c r="L102" s="130"/>
+      <c r="M102" s="130"/>
       <c r="N102" s="24"/>
       <c r="O102" s="129"/>
       <c r="S102" s="40"/>
     </row>
-    <row r="103" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="103" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="60"/>
       <c r="C103" s="67"/>
       <c r="D103" s="61"/>
@@ -37012,13 +37022,13 @@
       <c r="I103" s="24"/>
       <c r="J103" s="24"/>
       <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
+      <c r="L103" s="130"/>
+      <c r="M103" s="130"/>
       <c r="N103" s="24"/>
       <c r="O103" s="129"/>
       <c r="S103" s="40"/>
     </row>
-    <row r="104" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="104" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="60"/>
       <c r="C104" s="67"/>
       <c r="D104" s="61"/>
@@ -37029,13 +37039,13 @@
       <c r="I104" s="24"/>
       <c r="J104" s="24"/>
       <c r="K104" s="24"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="24"/>
+      <c r="L104" s="130"/>
+      <c r="M104" s="130"/>
       <c r="N104" s="24"/>
       <c r="O104" s="129"/>
       <c r="S104" s="40"/>
     </row>
-    <row r="105" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="105" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="60"/>
       <c r="C105" s="67"/>
       <c r="D105" s="61"/>
@@ -37046,13 +37056,13 @@
       <c r="I105" s="24"/>
       <c r="J105" s="24"/>
       <c r="K105" s="24"/>
-      <c r="L105" s="24"/>
-      <c r="M105" s="24"/>
+      <c r="L105" s="130"/>
+      <c r="M105" s="130"/>
       <c r="N105" s="24"/>
       <c r="O105" s="129"/>
       <c r="S105" s="40"/>
     </row>
-    <row r="106" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="106" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="60"/>
       <c r="C106" s="67"/>
       <c r="D106" s="61"/>
@@ -37063,13 +37073,13 @@
       <c r="I106" s="24"/>
       <c r="J106" s="24"/>
       <c r="K106" s="24"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="24"/>
+      <c r="L106" s="130"/>
+      <c r="M106" s="130"/>
       <c r="N106" s="24"/>
       <c r="O106" s="129"/>
       <c r="S106" s="40"/>
     </row>
-    <row r="107" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="107" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="60"/>
       <c r="C107" s="67"/>
       <c r="D107" s="61"/>
@@ -37080,13 +37090,13 @@
       <c r="I107" s="24"/>
       <c r="J107" s="24"/>
       <c r="K107" s="24"/>
-      <c r="L107" s="24"/>
-      <c r="M107" s="24"/>
+      <c r="L107" s="130"/>
+      <c r="M107" s="130"/>
       <c r="N107" s="24"/>
       <c r="O107" s="129"/>
       <c r="S107" s="40"/>
     </row>
-    <row r="108" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="108" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="60"/>
       <c r="C108" s="67"/>
       <c r="D108" s="61"/>
@@ -37097,13 +37107,13 @@
       <c r="I108" s="24"/>
       <c r="J108" s="24"/>
       <c r="K108" s="24"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="24"/>
+      <c r="L108" s="130"/>
+      <c r="M108" s="130"/>
       <c r="N108" s="24"/>
       <c r="O108" s="129"/>
       <c r="S108" s="40"/>
     </row>
-    <row r="109" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="109" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="102"/>
       <c r="C109" s="103"/>
       <c r="D109" s="104"/>
@@ -37118,7 +37128,7 @@
       <c r="O109" s="129"/>
       <c r="S109" s="40"/>
     </row>
-    <row r="110" spans="2:19" ht="32.25" customHeight="1">
+    <row r="110" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="102"/>
       <c r="C110" s="103"/>
       <c r="D110" s="104"/>
@@ -37132,7 +37142,7 @@
       <c r="L110" s="18"/>
       <c r="S110" s="40"/>
     </row>
-    <row r="111" spans="2:19" ht="32.25" customHeight="1">
+    <row r="111" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="102"/>
       <c r="C111" s="103"/>
       <c r="D111" s="104"/>
@@ -37149,7 +37159,7 @@
       </c>
       <c r="S111" s="40"/>
     </row>
-    <row r="112" spans="2:19" ht="32.25" customHeight="1">
+    <row r="112" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="102"/>
       <c r="C112" s="103"/>
       <c r="D112" s="104"/>
@@ -37164,7 +37174,7 @@
       <c r="O112" s="121"/>
       <c r="S112" s="40"/>
     </row>
-    <row r="113" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="113" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="102"/>
       <c r="C113" s="103"/>
       <c r="D113" s="104"/>
@@ -37178,7 +37188,7 @@
       <c r="L113" s="18"/>
       <c r="S113" s="40"/>
     </row>
-    <row r="114" spans="1:16384" ht="26.3" customHeight="1">
+    <row r="114" spans="1:16384" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="115"/>
       <c r="B114" s="115" t="s">
         <v>65</v>
@@ -53566,7 +53576,7 @@
       <c r="XFC114" s="115"/>
       <c r="XFD114" s="115"/>
     </row>
-    <row r="115" spans="1:16384" ht="53.85">
+    <row r="115" spans="1:16384" ht="57.75" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>12</v>
       </c>
@@ -53611,7 +53621,7 @@
       </c>
       <c r="S115" s="40"/>
     </row>
-    <row r="116" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="116" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="60"/>
       <c r="C116" s="67"/>
       <c r="D116" s="61"/>
@@ -53622,13 +53632,13 @@
       <c r="I116" s="24"/>
       <c r="J116" s="24"/>
       <c r="K116" s="24"/>
-      <c r="L116" s="24"/>
-      <c r="M116" s="24"/>
+      <c r="L116" s="130"/>
+      <c r="M116" s="130"/>
       <c r="N116" s="24"/>
       <c r="O116" s="117"/>
       <c r="S116" s="40"/>
     </row>
-    <row r="117" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="117" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="60"/>
       <c r="C117" s="67"/>
       <c r="D117" s="61"/>
@@ -53639,13 +53649,13 @@
       <c r="I117" s="24"/>
       <c r="J117" s="24"/>
       <c r="K117" s="24"/>
-      <c r="L117" s="24"/>
-      <c r="M117" s="24"/>
+      <c r="L117" s="130"/>
+      <c r="M117" s="130"/>
       <c r="N117" s="24"/>
       <c r="O117" s="117"/>
       <c r="S117" s="40"/>
     </row>
-    <row r="118" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="118" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="60"/>
       <c r="C118" s="67"/>
       <c r="D118" s="61"/>
@@ -53656,13 +53666,13 @@
       <c r="I118" s="24"/>
       <c r="J118" s="24"/>
       <c r="K118" s="24"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="24"/>
+      <c r="L118" s="130"/>
+      <c r="M118" s="130"/>
       <c r="N118" s="24"/>
       <c r="O118" s="117"/>
       <c r="S118" s="40"/>
     </row>
-    <row r="119" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="119" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="60"/>
       <c r="C119" s="67"/>
       <c r="D119" s="61"/>
@@ -53673,13 +53683,13 @@
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
       <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
-      <c r="M119" s="24"/>
+      <c r="L119" s="130"/>
+      <c r="M119" s="130"/>
       <c r="N119" s="24"/>
       <c r="O119" s="117"/>
       <c r="S119" s="40"/>
     </row>
-    <row r="120" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="120" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="60"/>
       <c r="C120" s="67"/>
       <c r="D120" s="61"/>
@@ -53690,13 +53700,13 @@
       <c r="I120" s="24"/>
       <c r="J120" s="24"/>
       <c r="K120" s="24"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="24"/>
+      <c r="L120" s="130"/>
+      <c r="M120" s="130"/>
       <c r="N120" s="24"/>
       <c r="O120" s="117"/>
       <c r="S120" s="40"/>
     </row>
-    <row r="121" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="121" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="60"/>
       <c r="C121" s="67"/>
       <c r="D121" s="61"/>
@@ -53707,13 +53717,13 @@
       <c r="I121" s="24"/>
       <c r="J121" s="24"/>
       <c r="K121" s="24"/>
-      <c r="L121" s="24"/>
-      <c r="M121" s="24"/>
+      <c r="L121" s="130"/>
+      <c r="M121" s="130"/>
       <c r="N121" s="24"/>
       <c r="O121" s="117"/>
       <c r="S121" s="40"/>
     </row>
-    <row r="122" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="122" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="60"/>
       <c r="C122" s="67"/>
       <c r="D122" s="61"/>
@@ -53724,13 +53734,13 @@
       <c r="I122" s="24"/>
       <c r="J122" s="24"/>
       <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
+      <c r="L122" s="130"/>
+      <c r="M122" s="130"/>
       <c r="N122" s="24"/>
       <c r="O122" s="117"/>
       <c r="S122" s="40"/>
     </row>
-    <row r="123" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="123" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="60"/>
       <c r="C123" s="67"/>
       <c r="D123" s="61"/>
@@ -53741,13 +53751,13 @@
       <c r="I123" s="24"/>
       <c r="J123" s="24"/>
       <c r="K123" s="24"/>
-      <c r="L123" s="24"/>
-      <c r="M123" s="24"/>
+      <c r="L123" s="130"/>
+      <c r="M123" s="130"/>
       <c r="N123" s="24"/>
       <c r="O123" s="25"/>
       <c r="S123" s="40"/>
     </row>
-    <row r="124" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="124" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="60"/>
       <c r="C124" s="67"/>
       <c r="D124" s="61"/>
@@ -53758,13 +53768,13 @@
       <c r="I124" s="24"/>
       <c r="J124" s="24"/>
       <c r="K124" s="24"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="24"/>
+      <c r="L124" s="130"/>
+      <c r="M124" s="130"/>
       <c r="N124" s="24"/>
       <c r="O124" s="25"/>
       <c r="S124" s="40"/>
     </row>
-    <row r="125" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="125" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="60"/>
       <c r="C125" s="67"/>
       <c r="D125" s="61"/>
@@ -53775,13 +53785,13 @@
       <c r="I125" s="24"/>
       <c r="J125" s="24"/>
       <c r="K125" s="24"/>
-      <c r="L125" s="24"/>
-      <c r="M125" s="24"/>
+      <c r="L125" s="130"/>
+      <c r="M125" s="130"/>
       <c r="N125" s="24"/>
       <c r="O125" s="25"/>
       <c r="S125" s="40"/>
     </row>
-    <row r="126" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="126" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="60"/>
       <c r="C126" s="67"/>
       <c r="D126" s="61"/>
@@ -53792,13 +53802,13 @@
       <c r="I126" s="24"/>
       <c r="J126" s="24"/>
       <c r="K126" s="24"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="24"/>
+      <c r="L126" s="130"/>
+      <c r="M126" s="130"/>
       <c r="N126" s="24"/>
       <c r="O126" s="25"/>
       <c r="S126" s="40"/>
     </row>
-    <row r="127" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="127" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="60"/>
       <c r="C127" s="67"/>
       <c r="D127" s="61"/>
@@ -53809,13 +53819,13 @@
       <c r="I127" s="24"/>
       <c r="J127" s="24"/>
       <c r="K127" s="24"/>
-      <c r="L127" s="24"/>
-      <c r="M127" s="24"/>
+      <c r="L127" s="130"/>
+      <c r="M127" s="130"/>
       <c r="N127" s="24"/>
       <c r="O127" s="25"/>
       <c r="S127" s="40"/>
     </row>
-    <row r="128" spans="1:16384" ht="32.25" customHeight="1">
+    <row r="128" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="60"/>
       <c r="C128" s="67"/>
       <c r="D128" s="61"/>
@@ -53826,13 +53836,13 @@
       <c r="I128" s="24"/>
       <c r="J128" s="24"/>
       <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
+      <c r="L128" s="130"/>
+      <c r="M128" s="130"/>
       <c r="N128" s="24"/>
       <c r="O128" s="25"/>
       <c r="S128" s="40"/>
     </row>
-    <row r="129" spans="2:19" ht="32.25" customHeight="1">
+    <row r="129" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="60"/>
       <c r="C129" s="67"/>
       <c r="D129" s="61"/>
@@ -53843,13 +53853,13 @@
       <c r="I129" s="24"/>
       <c r="J129" s="24"/>
       <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
+      <c r="L129" s="130"/>
+      <c r="M129" s="130"/>
       <c r="N129" s="24"/>
       <c r="O129" s="25"/>
       <c r="S129" s="40"/>
     </row>
-    <row r="130" spans="2:19" ht="32.25" customHeight="1">
+    <row r="130" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="60"/>
       <c r="C130" s="67"/>
       <c r="D130" s="61"/>
@@ -53860,13 +53870,13 @@
       <c r="I130" s="24"/>
       <c r="J130" s="24"/>
       <c r="K130" s="24"/>
-      <c r="L130" s="24"/>
-      <c r="M130" s="24"/>
+      <c r="L130" s="130"/>
+      <c r="M130" s="130"/>
       <c r="N130" s="24"/>
       <c r="O130" s="25"/>
       <c r="S130" s="40"/>
     </row>
-    <row r="131" spans="2:19" ht="32.25" customHeight="1">
+    <row r="131" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="60"/>
       <c r="C131" s="67"/>
       <c r="D131" s="61"/>
@@ -53877,13 +53887,13 @@
       <c r="I131" s="24"/>
       <c r="J131" s="24"/>
       <c r="K131" s="24"/>
-      <c r="L131" s="24"/>
-      <c r="M131" s="24"/>
+      <c r="L131" s="130"/>
+      <c r="M131" s="130"/>
       <c r="N131" s="24"/>
       <c r="O131" s="25"/>
       <c r="S131" s="40"/>
     </row>
-    <row r="132" spans="2:19" ht="32.25" customHeight="1">
+    <row r="132" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="60"/>
       <c r="C132" s="67"/>
       <c r="D132" s="61"/>
@@ -53894,13 +53904,13 @@
       <c r="I132" s="24"/>
       <c r="J132" s="24"/>
       <c r="K132" s="24"/>
-      <c r="L132" s="24"/>
-      <c r="M132" s="24"/>
+      <c r="L132" s="130"/>
+      <c r="M132" s="130"/>
       <c r="N132" s="24"/>
       <c r="O132" s="25"/>
       <c r="S132" s="40"/>
     </row>
-    <row r="133" spans="2:19" ht="32.25" customHeight="1">
+    <row r="133" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="60"/>
       <c r="C133" s="67"/>
       <c r="D133" s="61"/>
@@ -53911,13 +53921,13 @@
       <c r="I133" s="24"/>
       <c r="J133" s="24"/>
       <c r="K133" s="24"/>
-      <c r="L133" s="24"/>
-      <c r="M133" s="24"/>
+      <c r="L133" s="130"/>
+      <c r="M133" s="130"/>
       <c r="N133" s="24"/>
       <c r="O133" s="25"/>
       <c r="S133" s="40"/>
     </row>
-    <row r="134" spans="2:19" ht="32.25" customHeight="1">
+    <row r="134" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="60"/>
       <c r="C134" s="67"/>
       <c r="D134" s="61"/>
@@ -53928,13 +53938,13 @@
       <c r="I134" s="24"/>
       <c r="J134" s="24"/>
       <c r="K134" s="24"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="24"/>
+      <c r="L134" s="130"/>
+      <c r="M134" s="130"/>
       <c r="N134" s="24"/>
       <c r="O134" s="25"/>
       <c r="S134" s="40"/>
     </row>
-    <row r="135" spans="2:19" ht="32.25" customHeight="1">
+    <row r="135" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="60"/>
       <c r="C135" s="67"/>
       <c r="D135" s="61"/>
@@ -53945,13 +53955,13 @@
       <c r="I135" s="24"/>
       <c r="J135" s="24"/>
       <c r="K135" s="24"/>
-      <c r="L135" s="24"/>
-      <c r="M135" s="24"/>
+      <c r="L135" s="130"/>
+      <c r="M135" s="130"/>
       <c r="N135" s="24"/>
       <c r="O135" s="25"/>
       <c r="S135" s="40"/>
     </row>
-    <row r="136" spans="2:19" ht="32.25" customHeight="1">
+    <row r="136" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="60"/>
       <c r="C136" s="67"/>
       <c r="D136" s="61"/>
@@ -53962,13 +53972,13 @@
       <c r="I136" s="24"/>
       <c r="J136" s="24"/>
       <c r="K136" s="24"/>
-      <c r="L136" s="24"/>
-      <c r="M136" s="24"/>
+      <c r="L136" s="130"/>
+      <c r="M136" s="130"/>
       <c r="N136" s="24"/>
       <c r="O136" s="25"/>
       <c r="S136" s="40"/>
     </row>
-    <row r="137" spans="2:19" ht="32.25" customHeight="1">
+    <row r="137" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="60"/>
       <c r="C137" s="67"/>
       <c r="D137" s="61"/>
@@ -53979,13 +53989,13 @@
       <c r="I137" s="24"/>
       <c r="J137" s="24"/>
       <c r="K137" s="24"/>
-      <c r="L137" s="24"/>
-      <c r="M137" s="24"/>
+      <c r="L137" s="130"/>
+      <c r="M137" s="130"/>
       <c r="N137" s="24"/>
       <c r="O137" s="25"/>
       <c r="S137" s="40"/>
     </row>
-    <row r="138" spans="2:19" ht="32.25" customHeight="1">
+    <row r="138" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="60"/>
       <c r="C138" s="67"/>
       <c r="D138" s="61"/>
@@ -53996,13 +54006,13 @@
       <c r="I138" s="24"/>
       <c r="J138" s="24"/>
       <c r="K138" s="24"/>
-      <c r="L138" s="24"/>
-      <c r="M138" s="24"/>
+      <c r="L138" s="130"/>
+      <c r="M138" s="130"/>
       <c r="N138" s="24"/>
       <c r="O138" s="25"/>
       <c r="S138" s="40"/>
     </row>
-    <row r="139" spans="2:19" ht="32.25" customHeight="1">
+    <row r="139" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="60"/>
       <c r="C139" s="67"/>
       <c r="D139" s="61"/>
@@ -54013,13 +54023,13 @@
       <c r="I139" s="24"/>
       <c r="J139" s="24"/>
       <c r="K139" s="24"/>
-      <c r="L139" s="24"/>
-      <c r="M139" s="24"/>
+      <c r="L139" s="130"/>
+      <c r="M139" s="130"/>
       <c r="N139" s="24"/>
       <c r="O139" s="25"/>
       <c r="S139" s="40"/>
     </row>
-    <row r="140" spans="2:19" ht="32.25" customHeight="1">
+    <row r="140" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="60"/>
       <c r="C140" s="67"/>
       <c r="D140" s="61"/>
@@ -54030,13 +54040,13 @@
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
       <c r="K140" s="24"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="24"/>
+      <c r="L140" s="130"/>
+      <c r="M140" s="130"/>
       <c r="N140" s="24"/>
       <c r="O140" s="25"/>
       <c r="S140" s="40"/>
     </row>
-    <row r="141" spans="2:19" ht="32.25" customHeight="1">
+    <row r="141" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="60"/>
       <c r="C141" s="67"/>
       <c r="D141" s="61"/>
@@ -54047,13 +54057,13 @@
       <c r="I141" s="24"/>
       <c r="J141" s="24"/>
       <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
-      <c r="M141" s="24"/>
+      <c r="L141" s="130"/>
+      <c r="M141" s="130"/>
       <c r="N141" s="24"/>
       <c r="O141" s="25"/>
       <c r="S141" s="40"/>
     </row>
-    <row r="142" spans="2:19" ht="32.25" customHeight="1">
+    <row r="142" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="60"/>
       <c r="C142" s="67"/>
       <c r="D142" s="61"/>
@@ -54064,13 +54074,13 @@
       <c r="I142" s="24"/>
       <c r="J142" s="24"/>
       <c r="K142" s="24"/>
-      <c r="L142" s="24"/>
-      <c r="M142" s="24"/>
+      <c r="L142" s="130"/>
+      <c r="M142" s="130"/>
       <c r="N142" s="24"/>
       <c r="O142" s="25"/>
       <c r="S142" s="40"/>
     </row>
-    <row r="143" spans="2:19" ht="32.25" customHeight="1">
+    <row r="143" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="60"/>
       <c r="C143" s="67"/>
       <c r="D143" s="61"/>
@@ -54081,13 +54091,13 @@
       <c r="I143" s="24"/>
       <c r="J143" s="24"/>
       <c r="K143" s="24"/>
-      <c r="L143" s="24"/>
-      <c r="M143" s="24"/>
+      <c r="L143" s="130"/>
+      <c r="M143" s="130"/>
       <c r="N143" s="24"/>
       <c r="O143" s="25"/>
       <c r="S143" s="40"/>
     </row>
-    <row r="144" spans="2:19" ht="32.25" customHeight="1">
+    <row r="144" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="60"/>
       <c r="C144" s="67"/>
       <c r="D144" s="61"/>
@@ -54098,13 +54108,13 @@
       <c r="I144" s="24"/>
       <c r="J144" s="24"/>
       <c r="K144" s="24"/>
-      <c r="L144" s="24"/>
-      <c r="M144" s="24"/>
+      <c r="L144" s="130"/>
+      <c r="M144" s="130"/>
       <c r="N144" s="24"/>
       <c r="O144" s="25"/>
       <c r="S144" s="40"/>
     </row>
-    <row r="145" spans="1:21" ht="32.25" customHeight="1">
+    <row r="145" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="60"/>
       <c r="C145" s="67"/>
       <c r="D145" s="61"/>
@@ -54115,13 +54125,13 @@
       <c r="I145" s="24"/>
       <c r="J145" s="24"/>
       <c r="K145" s="24"/>
-      <c r="L145" s="24"/>
-      <c r="M145" s="24"/>
+      <c r="L145" s="130"/>
+      <c r="M145" s="130"/>
       <c r="N145" s="24"/>
       <c r="O145" s="25"/>
       <c r="S145" s="40"/>
     </row>
-    <row r="146" spans="1:21" ht="32.25" customHeight="1">
+    <row r="146" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="102"/>
       <c r="C146" s="103"/>
       <c r="D146" s="104"/>
@@ -54135,7 +54145,7 @@
       <c r="L146" s="18"/>
       <c r="S146" s="40"/>
     </row>
-    <row r="147" spans="1:21" s="114" customFormat="1" ht="32.25" customHeight="1">
+    <row r="147" spans="1:21" s="114" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="107"/>
       <c r="B147" s="108"/>
       <c r="C147" s="109"/>
@@ -54156,7 +54166,7 @@
       <c r="R147" s="113"/>
       <c r="S147" s="113"/>
     </row>
-    <row r="148" spans="1:21" s="27" customFormat="1" ht="30.05" customHeight="1">
+    <row r="148" spans="1:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28"/>
       <c r="B148" s="29" t="s">
         <v>60</v>
@@ -54180,7 +54190,7 @@
       <c r="T148" s="39"/>
       <c r="U148" s="39"/>
     </row>
-    <row r="149" spans="1:21" ht="23.5" customHeight="1">
+    <row r="149" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="31" t="s">
         <v>61</v>
@@ -54196,7 +54206,7 @@
       <c r="K149" s="18"/>
       <c r="L149" s="51"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
@@ -54206,7 +54216,7 @@
       <c r="I150" s="5"/>
       <c r="K150" s="26"/>
     </row>
-    <row r="151" spans="1:21" ht="37.1" customHeight="1">
+    <row r="151" spans="1:21" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="32" t="s">
         <v>9</v>
       </c>
@@ -54242,59 +54252,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="71" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="71" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="71" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="71" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="71" customWidth="1"/>
-    <col min="6" max="17" width="10.21875" style="71" customWidth="1"/>
-    <col min="18" max="19" width="11.88671875" style="71" customWidth="1"/>
-    <col min="20" max="20" width="10.21875" style="71" customWidth="1"/>
-    <col min="21" max="23" width="10.44140625" style="99" customWidth="1"/>
-    <col min="24" max="24" width="11.109375" style="99" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="71" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="71" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="71" customWidth="1"/>
+    <col min="6" max="17" width="10.25" style="71" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="83" customWidth="1"/>
+    <col min="20" max="20" width="10.25" style="71" customWidth="1"/>
+    <col min="21" max="23" width="10.5" style="99" customWidth="1"/>
+    <col min="24" max="24" width="11.125" style="99" customWidth="1"/>
     <col min="25" max="27" width="11" style="101" customWidth="1"/>
-    <col min="28" max="31" width="11.109375" style="99" customWidth="1"/>
-    <col min="32" max="33" width="9.33203125" style="86" customWidth="1"/>
-    <col min="34" max="34" width="11.109375" style="86" customWidth="1"/>
-    <col min="35" max="37" width="11.109375" style="83" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="71"/>
+    <col min="28" max="31" width="11.125" style="99" customWidth="1"/>
+    <col min="32" max="33" width="9.375" style="86" customWidth="1"/>
+    <col min="34" max="34" width="11.125" style="86" customWidth="1"/>
+    <col min="35" max="37" width="11.125" style="83" customWidth="1"/>
+    <col min="38" max="16384" width="8.875" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75" customHeight="1">
+    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="87"/>
       <c r="B1" s="87"/>
-      <c r="U1" s="132" t="s">
+      <c r="U1" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132" t="s">
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="132"/>
-      <c r="AJ1" s="132"/>
-      <c r="AK1" s="132"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="133"/>
+      <c r="AH1" s="133"/>
+      <c r="AI1" s="133"/>
+      <c r="AJ1" s="133"/>
+      <c r="AK1" s="133"/>
     </row>
-    <row r="2" spans="1:37" ht="73.25">
+    <row r="2" spans="1:37" ht="78" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>21</v>
       </c>
@@ -54349,7 +54360,7 @@
       <c r="R2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="89" t="s">
+      <c r="S2" s="134" t="s">
         <v>38</v>
       </c>
       <c r="T2" s="90" t="s">
@@ -54407,7 +54418,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1">
+    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
       <c r="B3" s="72"/>
       <c r="C3" s="95"/>
@@ -54426,7 +54437,7 @@
       <c r="P3" s="78"/>
       <c r="Q3" s="78"/>
       <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
+      <c r="S3" s="135"/>
       <c r="T3" s="79"/>
       <c r="U3" s="96"/>
       <c r="V3" s="97"/>
@@ -54446,7 +54457,7 @@
       <c r="AJ3" s="82"/>
       <c r="AK3" s="82"/>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1">
+    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="72"/>
       <c r="C4" s="95"/>
@@ -54465,7 +54476,7 @@
       <c r="P4" s="78"/>
       <c r="Q4" s="78"/>
       <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
+      <c r="S4" s="135"/>
       <c r="T4" s="79"/>
       <c r="U4" s="96"/>
       <c r="V4" s="97"/>
@@ -54485,7 +54496,7 @@
       <c r="AJ4" s="82"/>
       <c r="AK4" s="82"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="72"/>
       <c r="C5" s="95"/>
@@ -54504,7 +54515,7 @@
       <c r="P5" s="78"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
+      <c r="S5" s="135"/>
       <c r="T5" s="79"/>
       <c r="U5" s="96"/>
       <c r="V5" s="97"/>
@@ -54524,7 +54535,7 @@
       <c r="AJ5" s="82"/>
       <c r="AK5" s="82"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1">
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="72"/>
       <c r="C6" s="95"/>
@@ -54543,7 +54554,7 @@
       <c r="P6" s="78"/>
       <c r="Q6" s="78"/>
       <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
+      <c r="S6" s="135"/>
       <c r="T6" s="79"/>
       <c r="U6" s="96"/>
       <c r="V6" s="97"/>
@@ -54563,7 +54574,7 @@
       <c r="AJ6" s="82"/>
       <c r="AK6" s="82"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1">
+    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="72"/>
       <c r="C7" s="95"/>
@@ -54582,7 +54593,7 @@
       <c r="P7" s="78"/>
       <c r="Q7" s="78"/>
       <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
+      <c r="S7" s="135"/>
       <c r="T7" s="79"/>
       <c r="U7" s="96"/>
       <c r="V7" s="97"/>
@@ -54602,7 +54613,7 @@
       <c r="AJ7" s="82"/>
       <c r="AK7" s="82"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
       <c r="C8" s="95"/>
@@ -54621,7 +54632,7 @@
       <c r="P8" s="78"/>
       <c r="Q8" s="78"/>
       <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
+      <c r="S8" s="135"/>
       <c r="T8" s="79"/>
       <c r="U8" s="96"/>
       <c r="V8" s="97"/>
@@ -54641,7 +54652,7 @@
       <c r="AJ8" s="82"/>
       <c r="AK8" s="82"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="72"/>
       <c r="C9" s="95"/>
@@ -54660,7 +54671,7 @@
       <c r="P9" s="78"/>
       <c r="Q9" s="78"/>
       <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
+      <c r="S9" s="135"/>
       <c r="T9" s="79"/>
       <c r="U9" s="96"/>
       <c r="V9" s="97"/>
@@ -54680,7 +54691,7 @@
       <c r="AJ9" s="82"/>
       <c r="AK9" s="82"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1">
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="72"/>
       <c r="C10" s="95"/>
@@ -54699,7 +54710,7 @@
       <c r="P10" s="78"/>
       <c r="Q10" s="78"/>
       <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
+      <c r="S10" s="135"/>
       <c r="T10" s="79"/>
       <c r="U10" s="96"/>
       <c r="V10" s="97"/>
@@ -54719,7 +54730,7 @@
       <c r="AJ10" s="82"/>
       <c r="AK10" s="82"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="72"/>
       <c r="C11" s="95"/>
@@ -54738,7 +54749,7 @@
       <c r="P11" s="78"/>
       <c r="Q11" s="78"/>
       <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
+      <c r="S11" s="135"/>
       <c r="T11" s="79"/>
       <c r="U11" s="96"/>
       <c r="V11" s="97"/>
@@ -54758,7 +54769,7 @@
       <c r="AJ11" s="82"/>
       <c r="AK11" s="82"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1">
+    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
       <c r="B12" s="72"/>
       <c r="C12" s="95"/>
@@ -54777,7 +54788,7 @@
       <c r="P12" s="78"/>
       <c r="Q12" s="78"/>
       <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
+      <c r="S12" s="135"/>
       <c r="T12" s="79"/>
       <c r="U12" s="96"/>
       <c r="V12" s="97"/>
@@ -54797,7 +54808,7 @@
       <c r="AJ12" s="82"/>
       <c r="AK12" s="82"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="72"/>
       <c r="C13" s="95"/>
@@ -54816,7 +54827,7 @@
       <c r="P13" s="78"/>
       <c r="Q13" s="78"/>
       <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
+      <c r="S13" s="135"/>
       <c r="T13" s="79"/>
       <c r="U13" s="96"/>
       <c r="V13" s="97"/>
@@ -54836,7 +54847,7 @@
       <c r="AJ13" s="82"/>
       <c r="AK13" s="82"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
       <c r="B14" s="72"/>
       <c r="C14" s="95"/>
@@ -54855,7 +54866,7 @@
       <c r="P14" s="78"/>
       <c r="Q14" s="78"/>
       <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
+      <c r="S14" s="135"/>
       <c r="T14" s="79"/>
       <c r="U14" s="96"/>
       <c r="V14" s="97"/>
@@ -54875,7 +54886,7 @@
       <c r="AJ14" s="82"/>
       <c r="AK14" s="82"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="72"/>
       <c r="C15" s="95"/>
@@ -54894,7 +54905,7 @@
       <c r="P15" s="78"/>
       <c r="Q15" s="78"/>
       <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
+      <c r="S15" s="135"/>
       <c r="T15" s="79"/>
       <c r="U15" s="96"/>
       <c r="V15" s="97"/>
@@ -54914,7 +54925,7 @@
       <c r="AJ15" s="82"/>
       <c r="AK15" s="82"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="72"/>
       <c r="C16" s="95"/>
@@ -54933,7 +54944,7 @@
       <c r="P16" s="78"/>
       <c r="Q16" s="78"/>
       <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
+      <c r="S16" s="135"/>
       <c r="T16" s="79"/>
       <c r="U16" s="96"/>
       <c r="V16" s="97"/>
@@ -54953,7 +54964,7 @@
       <c r="AJ16" s="82"/>
       <c r="AK16" s="82"/>
     </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1">
+    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
       <c r="B17" s="72"/>
       <c r="C17" s="95"/>
@@ -54972,7 +54983,7 @@
       <c r="P17" s="78"/>
       <c r="Q17" s="78"/>
       <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
+      <c r="S17" s="135"/>
       <c r="T17" s="79"/>
       <c r="U17" s="96"/>
       <c r="V17" s="97"/>
@@ -54992,7 +55003,7 @@
       <c r="AJ17" s="82"/>
       <c r="AK17" s="82"/>
     </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1">
+    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="72"/>
       <c r="B18" s="72"/>
       <c r="C18" s="95"/>
@@ -55011,7 +55022,7 @@
       <c r="P18" s="78"/>
       <c r="Q18" s="78"/>
       <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+      <c r="S18" s="135"/>
       <c r="T18" s="79"/>
       <c r="U18" s="96"/>
       <c r="V18" s="97"/>
@@ -55031,7 +55042,7 @@
       <c r="AJ18" s="82"/>
       <c r="AK18" s="82"/>
     </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1">
+    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
       <c r="B19" s="72"/>
       <c r="C19" s="95"/>
@@ -55050,7 +55061,7 @@
       <c r="P19" s="78"/>
       <c r="Q19" s="78"/>
       <c r="R19" s="75"/>
-      <c r="S19" s="75"/>
+      <c r="S19" s="135"/>
       <c r="T19" s="79"/>
       <c r="U19" s="96"/>
       <c r="V19" s="97"/>
@@ -55070,7 +55081,7 @@
       <c r="AJ19" s="82"/>
       <c r="AK19" s="82"/>
     </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1">
+    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
       <c r="B20" s="72"/>
       <c r="C20" s="95"/>
@@ -55089,7 +55100,7 @@
       <c r="P20" s="78"/>
       <c r="Q20" s="78"/>
       <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
+      <c r="S20" s="135"/>
       <c r="T20" s="79"/>
       <c r="U20" s="96"/>
       <c r="V20" s="97"/>
@@ -55109,7 +55120,7 @@
       <c r="AJ20" s="82"/>
       <c r="AK20" s="82"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1">
+    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
       <c r="C21" s="95"/>
@@ -55128,7 +55139,7 @@
       <c r="P21" s="78"/>
       <c r="Q21" s="78"/>
       <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
+      <c r="S21" s="135"/>
       <c r="T21" s="79"/>
       <c r="U21" s="96"/>
       <c r="V21" s="97"/>
@@ -55148,7 +55159,7 @@
       <c r="AJ21" s="82"/>
       <c r="AK21" s="82"/>
     </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1">
+    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
       <c r="C22" s="95"/>
@@ -55167,7 +55178,7 @@
       <c r="P22" s="78"/>
       <c r="Q22" s="78"/>
       <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
+      <c r="S22" s="135"/>
       <c r="T22" s="79"/>
       <c r="U22" s="96"/>
       <c r="V22" s="97"/>
@@ -55187,7 +55198,7 @@
       <c r="AJ22" s="82"/>
       <c r="AK22" s="82"/>
     </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1">
+    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
       <c r="C23" s="95"/>
@@ -55206,7 +55217,7 @@
       <c r="P23" s="78"/>
       <c r="Q23" s="78"/>
       <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
+      <c r="S23" s="135"/>
       <c r="T23" s="79"/>
       <c r="U23" s="96"/>
       <c r="V23" s="97"/>
@@ -55226,7 +55237,7 @@
       <c r="AJ23" s="82"/>
       <c r="AK23" s="82"/>
     </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1">
+    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="72"/>
       <c r="B24" s="72"/>
       <c r="C24" s="95"/>
@@ -55245,7 +55256,7 @@
       <c r="P24" s="78"/>
       <c r="Q24" s="78"/>
       <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
+      <c r="S24" s="135"/>
       <c r="T24" s="79"/>
       <c r="U24" s="96"/>
       <c r="V24" s="97"/>
@@ -55265,7 +55276,7 @@
       <c r="AJ24" s="82"/>
       <c r="AK24" s="82"/>
     </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1">
+    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="72"/>
       <c r="B25" s="72"/>
       <c r="C25" s="95"/>
@@ -55284,7 +55295,7 @@
       <c r="P25" s="78"/>
       <c r="Q25" s="78"/>
       <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
+      <c r="S25" s="135"/>
       <c r="T25" s="79"/>
       <c r="U25" s="96"/>
       <c r="V25" s="97"/>
@@ -55304,7 +55315,7 @@
       <c r="AJ25" s="82"/>
       <c r="AK25" s="82"/>
     </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1">
+    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="72"/>
       <c r="B26" s="72"/>
       <c r="C26" s="95"/>
@@ -55323,7 +55334,7 @@
       <c r="P26" s="78"/>
       <c r="Q26" s="78"/>
       <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
+      <c r="S26" s="135"/>
       <c r="T26" s="79"/>
       <c r="U26" s="96"/>
       <c r="V26" s="97"/>
@@ -55343,7 +55354,7 @@
       <c r="AJ26" s="82"/>
       <c r="AK26" s="82"/>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1">
+    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="95"/>
@@ -55362,7 +55373,7 @@
       <c r="P27" s="78"/>
       <c r="Q27" s="78"/>
       <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
+      <c r="S27" s="135"/>
       <c r="T27" s="79"/>
       <c r="U27" s="96"/>
       <c r="V27" s="97"/>
@@ -55382,7 +55393,7 @@
       <c r="AJ27" s="82"/>
       <c r="AK27" s="82"/>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1">
+    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
       <c r="B28" s="72"/>
       <c r="C28" s="95"/>
@@ -55401,7 +55412,7 @@
       <c r="P28" s="78"/>
       <c r="Q28" s="78"/>
       <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
+      <c r="S28" s="135"/>
       <c r="T28" s="79"/>
       <c r="U28" s="96"/>
       <c r="V28" s="97"/>
@@ -55421,7 +55432,7 @@
       <c r="AJ28" s="82"/>
       <c r="AK28" s="82"/>
     </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1">
+    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="72"/>
       <c r="B29" s="72"/>
       <c r="C29" s="95"/>
@@ -55440,7 +55451,7 @@
       <c r="P29" s="78"/>
       <c r="Q29" s="78"/>
       <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
+      <c r="S29" s="135"/>
       <c r="T29" s="79"/>
       <c r="U29" s="96"/>
       <c r="V29" s="97"/>
@@ -55460,7 +55471,7 @@
       <c r="AJ29" s="82"/>
       <c r="AK29" s="82"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1">
+    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="72"/>
       <c r="B30" s="72"/>
       <c r="C30" s="95"/>
@@ -55479,7 +55490,7 @@
       <c r="P30" s="78"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
+      <c r="S30" s="135"/>
       <c r="T30" s="79"/>
       <c r="U30" s="96"/>
       <c r="V30" s="97"/>
@@ -55499,10 +55510,10 @@
       <c r="AJ30" s="82"/>
       <c r="AK30" s="82"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="98"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" ht="19.5" x14ac:dyDescent="0.25">
       <c r="U34" s="100" t="s">
         <v>52</v>
       </c>

--- a/PhoenixCI/Excel_Template/43010.xlsx
+++ b/PhoenixCI/Excel_Template/43010.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\需求單\保證金第二階段\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIN\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18900" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="238" yWindow="50" windowWidth="18895" windowHeight="7939"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_future" sheetId="4" r:id="rId1"/>
@@ -1205,7 +1205,7 @@
     <numFmt numFmtId="181" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="182" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1521,7 +1521,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1875,6 +1875,15 @@
     <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1884,10 +1893,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2330,33 +2336,33 @@
   </sheetPr>
   <dimension ref="A1:XFD151"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A50" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD109"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A137" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41:N51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="69" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="12" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="69" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="12" customWidth="1"/>
     <col min="10" max="10" width="13" style="12" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="40" customWidth="1"/>
     <col min="13" max="13" width="15" style="40" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="40" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="40" customWidth="1"/>
     <col min="15" max="15" width="11" style="122" customWidth="1"/>
-    <col min="16" max="17" width="9.75" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.77734375" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="40"/>
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="43.85" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2370,11 +2376,11 @@
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="131" t="s">
+      <c r="J1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
       <c r="M1" s="58"/>
       <c r="N1" s="59"/>
       <c r="O1" s="118"/>
@@ -2382,7 +2388,7 @@
       <c r="Q1" s="41"/>
       <c r="R1" s="41"/>
     </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="58.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="8" customFormat="1" ht="54.5">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>12</v>
@@ -2425,7 +2431,7 @@
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="30.05" customHeight="1">
       <c r="B3" s="10"/>
       <c r="C3" s="67"/>
       <c r="D3" s="61"/>
@@ -2443,7 +2449,7 @@
       <c r="P3" s="45"/>
       <c r="S3" s="40"/>
     </row>
-    <row r="4" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A4" s="53"/>
       <c r="B4" s="10"/>
       <c r="C4" s="60"/>
@@ -2461,7 +2467,7 @@
       <c r="O4" s="120"/>
       <c r="P4" s="54"/>
     </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="10"/>
       <c r="C5" s="60"/>
@@ -2482,7 +2488,7 @@
       <c r="R5" s="41"/>
       <c r="S5" s="41"/>
     </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="10"/>
       <c r="C6" s="60"/>
@@ -2503,7 +2509,7 @@
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A7" s="53"/>
       <c r="B7" s="10"/>
       <c r="C7" s="60"/>
@@ -2521,7 +2527,7 @@
       <c r="O7" s="120"/>
       <c r="P7" s="54"/>
     </row>
-    <row r="8" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A8" s="53"/>
       <c r="B8" s="10"/>
       <c r="C8" s="60"/>
@@ -2539,7 +2545,7 @@
       <c r="O8" s="120"/>
       <c r="P8" s="54"/>
     </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="10"/>
       <c r="C9" s="60"/>
@@ -2560,7 +2566,7 @@
       <c r="R9" s="41"/>
       <c r="S9" s="41"/>
     </row>
-    <row r="10" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A10" s="53"/>
       <c r="B10" s="10"/>
       <c r="C10" s="60"/>
@@ -2578,7 +2584,7 @@
       <c r="O10" s="120"/>
       <c r="P10" s="54"/>
     </row>
-    <row r="11" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="10"/>
       <c r="C11" s="60"/>
@@ -2599,7 +2605,7 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
     </row>
-    <row r="12" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A12" s="53"/>
       <c r="B12" s="10"/>
       <c r="C12" s="60"/>
@@ -2617,7 +2623,7 @@
       <c r="O12" s="120"/>
       <c r="P12" s="54"/>
     </row>
-    <row r="13" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A13" s="53"/>
       <c r="B13" s="10"/>
       <c r="C13" s="60"/>
@@ -2635,7 +2641,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="54"/>
     </row>
-    <row r="14" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="10"/>
       <c r="C14" s="60"/>
@@ -2656,7 +2662,7 @@
       <c r="R14" s="41"/>
       <c r="S14" s="41"/>
     </row>
-    <row r="15" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A15" s="53"/>
       <c r="B15" s="10"/>
       <c r="C15" s="60"/>
@@ -2674,7 +2680,7 @@
       <c r="O15" s="120"/>
       <c r="P15" s="54"/>
     </row>
-    <row r="16" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="10"/>
       <c r="C16" s="60"/>
@@ -2695,7 +2701,7 @@
       <c r="R16" s="41"/>
       <c r="S16" s="41"/>
     </row>
-    <row r="17" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A17" s="53"/>
       <c r="B17" s="10"/>
       <c r="C17" s="60"/>
@@ -2713,7 +2719,7 @@
       <c r="O17" s="120"/>
       <c r="P17" s="54"/>
     </row>
-    <row r="18" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A18" s="53"/>
       <c r="B18" s="10"/>
       <c r="C18" s="60"/>
@@ -2731,7 +2737,7 @@
       <c r="O18" s="120"/>
       <c r="P18" s="54"/>
     </row>
-    <row r="19" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="10"/>
       <c r="C19" s="60"/>
@@ -2752,7 +2758,7 @@
       <c r="R19" s="41"/>
       <c r="S19" s="41"/>
     </row>
-    <row r="20" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A20" s="53"/>
       <c r="B20" s="10"/>
       <c r="C20" s="60"/>
@@ -2770,7 +2776,7 @@
       <c r="O20" s="120"/>
       <c r="P20" s="54"/>
     </row>
-    <row r="21" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="10"/>
       <c r="C21" s="60"/>
@@ -2791,7 +2797,7 @@
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
     </row>
-    <row r="22" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A22" s="53"/>
       <c r="B22" s="10"/>
       <c r="C22" s="60"/>
@@ -2809,7 +2815,7 @@
       <c r="O22" s="120"/>
       <c r="P22" s="54"/>
     </row>
-    <row r="23" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A23" s="53"/>
       <c r="B23" s="10"/>
       <c r="C23" s="60"/>
@@ -2827,7 +2833,7 @@
       <c r="O23" s="120"/>
       <c r="P23" s="54"/>
     </row>
-    <row r="24" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="10"/>
       <c r="C24" s="60"/>
@@ -2848,7 +2854,7 @@
       <c r="R24" s="41"/>
       <c r="S24" s="41"/>
     </row>
-    <row r="25" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A25" s="53"/>
       <c r="B25" s="10"/>
       <c r="C25" s="60"/>
@@ -2866,7 +2872,7 @@
       <c r="O25" s="120"/>
       <c r="P25" s="54"/>
     </row>
-    <row r="26" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A26" s="53"/>
       <c r="B26" s="10"/>
       <c r="C26" s="60"/>
@@ -2884,7 +2890,7 @@
       <c r="O26" s="120"/>
       <c r="P26" s="54"/>
     </row>
-    <row r="27" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="10"/>
       <c r="C27" s="60"/>
@@ -2905,7 +2911,7 @@
       <c r="R27" s="41"/>
       <c r="S27" s="41"/>
     </row>
-    <row r="28" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A28" s="53"/>
       <c r="B28" s="10"/>
       <c r="C28" s="60"/>
@@ -2923,7 +2929,7 @@
       <c r="O28" s="120"/>
       <c r="P28" s="54"/>
     </row>
-    <row r="29" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A29" s="53"/>
       <c r="B29" s="10"/>
       <c r="C29" s="60"/>
@@ -2941,7 +2947,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="54"/>
     </row>
-    <row r="30" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="10"/>
       <c r="C30" s="60"/>
@@ -2962,7 +2968,7 @@
       <c r="R30" s="41"/>
       <c r="S30" s="41"/>
     </row>
-    <row r="31" spans="1:19" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" s="36" customFormat="1" ht="30.05" customHeight="1">
       <c r="A31" s="53"/>
       <c r="B31" s="10"/>
       <c r="C31" s="60"/>
@@ -2980,7 +2986,7 @@
       <c r="O31" s="120"/>
       <c r="P31" s="54"/>
     </row>
-    <row r="32" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="5" customFormat="1" ht="30.05" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="10"/>
       <c r="C32" s="60"/>
@@ -3001,7 +3007,7 @@
       <c r="R32" s="41"/>
       <c r="S32" s="41"/>
     </row>
-    <row r="33" spans="1:16384" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16384" s="14" customFormat="1" ht="17.55">
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -3020,7 +3026,7 @@
       <c r="Q33" s="46"/>
       <c r="R33" s="46"/>
     </row>
-    <row r="34" spans="1:16384" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16384" s="14" customFormat="1" ht="17.55">
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -3039,7 +3045,7 @@
       <c r="Q34" s="46"/>
       <c r="R34" s="46"/>
     </row>
-    <row r="35" spans="1:16384" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16384" s="14" customFormat="1" ht="17.55">
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
@@ -3058,7 +3064,7 @@
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
     </row>
-    <row r="36" spans="1:16384" s="14" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16384" s="14" customFormat="1" ht="18.2">
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
@@ -3079,7 +3085,7 @@
       <c r="Q36" s="127"/>
       <c r="R36" s="128"/>
     </row>
-    <row r="37" spans="1:16384" s="20" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16384" s="20" customFormat="1" ht="43.85" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -3103,7 +3109,7 @@
       <c r="Q37" s="48"/>
       <c r="R37" s="48"/>
     </row>
-    <row r="38" spans="1:16384" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16384" ht="26.3" customHeight="1">
       <c r="B38" s="15" t="s">
         <v>55</v>
       </c>
@@ -3118,7 +3124,7 @@
       <c r="K38" s="19"/>
       <c r="L38" s="49"/>
     </row>
-    <row r="39" spans="1:16384" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16384" ht="26.3" customHeight="1">
       <c r="A39" s="115"/>
       <c r="B39" s="115" t="s">
         <v>56</v>
@@ -19506,7 +19512,7 @@
       <c r="XFC39" s="115"/>
       <c r="XFD39" s="115"/>
     </row>
-    <row r="40" spans="1:16384" ht="57.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16384" ht="53.85">
       <c r="B40" s="7" t="s">
         <v>12</v>
       </c>
@@ -19551,7 +19557,7 @@
       </c>
       <c r="S40" s="40"/>
     </row>
-    <row r="41" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B41" s="60"/>
       <c r="C41" s="67"/>
       <c r="D41" s="61"/>
@@ -19562,13 +19568,13 @@
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="24"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133"/>
+      <c r="N41" s="137"/>
       <c r="O41" s="117"/>
       <c r="S41" s="40"/>
     </row>
-    <row r="42" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B42" s="60"/>
       <c r="C42" s="67"/>
       <c r="D42" s="61"/>
@@ -19579,13 +19585,13 @@
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="24"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="137"/>
       <c r="O42" s="117"/>
       <c r="S42" s="40"/>
     </row>
-    <row r="43" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B43" s="60"/>
       <c r="C43" s="67"/>
       <c r="D43" s="61"/>
@@ -19596,13 +19602,13 @@
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="24"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="137"/>
       <c r="O43" s="117"/>
       <c r="S43" s="40"/>
     </row>
-    <row r="44" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B44" s="60"/>
       <c r="C44" s="67"/>
       <c r="D44" s="61"/>
@@ -19613,13 +19619,13 @@
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="24"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
+      <c r="N44" s="137"/>
       <c r="O44" s="117"/>
       <c r="S44" s="40"/>
     </row>
-    <row r="45" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B45" s="60"/>
       <c r="C45" s="67"/>
       <c r="D45" s="61"/>
@@ -19630,13 +19636,13 @@
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="130"/>
-      <c r="N45" s="24"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="137"/>
       <c r="O45" s="117"/>
       <c r="S45" s="40"/>
     </row>
-    <row r="46" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B46" s="60"/>
       <c r="C46" s="67"/>
       <c r="D46" s="61"/>
@@ -19647,13 +19653,13 @@
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="24"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="137"/>
       <c r="O46" s="117"/>
       <c r="S46" s="40"/>
     </row>
-    <row r="47" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B47" s="60"/>
       <c r="C47" s="67"/>
       <c r="D47" s="61"/>
@@ -19664,13 +19670,13 @@
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="24"/>
+      <c r="L47" s="133"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="137"/>
       <c r="O47" s="117"/>
       <c r="S47" s="40"/>
     </row>
-    <row r="48" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B48" s="60"/>
       <c r="C48" s="67"/>
       <c r="D48" s="61"/>
@@ -19681,13 +19687,13 @@
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="24"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
+      <c r="N48" s="137"/>
       <c r="O48" s="25"/>
       <c r="S48" s="40"/>
     </row>
-    <row r="49" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19" ht="32.25" customHeight="1">
       <c r="B49" s="60"/>
       <c r="C49" s="67"/>
       <c r="D49" s="61"/>
@@ -19698,13 +19704,13 @@
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="24"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="137"/>
       <c r="O49" s="25"/>
       <c r="S49" s="40"/>
     </row>
-    <row r="50" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19" ht="32.25" customHeight="1">
       <c r="B50" s="60"/>
       <c r="C50" s="67"/>
       <c r="D50" s="61"/>
@@ -19715,13 +19721,13 @@
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="24"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="137"/>
       <c r="O50" s="25"/>
       <c r="S50" s="40"/>
     </row>
-    <row r="51" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19" ht="32.25" customHeight="1">
       <c r="B51" s="60"/>
       <c r="C51" s="67"/>
       <c r="D51" s="61"/>
@@ -19732,13 +19738,13 @@
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
-      <c r="L51" s="130"/>
-      <c r="M51" s="130"/>
-      <c r="N51" s="24"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
+      <c r="N51" s="137"/>
       <c r="O51" s="25"/>
       <c r="S51" s="40"/>
     </row>
-    <row r="52" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:19" ht="32.25" customHeight="1">
       <c r="B52" s="60"/>
       <c r="C52" s="67"/>
       <c r="D52" s="61"/>
@@ -19749,13 +19755,13 @@
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="24"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
+      <c r="N52" s="137"/>
       <c r="O52" s="25"/>
       <c r="S52" s="40"/>
     </row>
-    <row r="53" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" ht="32.25" customHeight="1">
       <c r="B53" s="60"/>
       <c r="C53" s="67"/>
       <c r="D53" s="61"/>
@@ -19766,13 +19772,13 @@
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="24"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="133"/>
+      <c r="N53" s="137"/>
       <c r="O53" s="25"/>
       <c r="S53" s="40"/>
     </row>
-    <row r="54" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19" ht="32.25" customHeight="1">
       <c r="B54" s="60"/>
       <c r="C54" s="67"/>
       <c r="D54" s="61"/>
@@ -19783,13 +19789,13 @@
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
-      <c r="L54" s="130"/>
-      <c r="M54" s="130"/>
-      <c r="N54" s="24"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="133"/>
+      <c r="N54" s="137"/>
       <c r="O54" s="25"/>
       <c r="S54" s="40"/>
     </row>
-    <row r="55" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19" ht="32.25" customHeight="1">
       <c r="B55" s="60"/>
       <c r="C55" s="67"/>
       <c r="D55" s="61"/>
@@ -19800,13 +19806,13 @@
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
-      <c r="L55" s="130"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="24"/>
+      <c r="L55" s="133"/>
+      <c r="M55" s="133"/>
+      <c r="N55" s="137"/>
       <c r="O55" s="25"/>
       <c r="S55" s="40"/>
     </row>
-    <row r="56" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:19" ht="32.25" customHeight="1">
       <c r="B56" s="60"/>
       <c r="C56" s="67"/>
       <c r="D56" s="61"/>
@@ -19817,13 +19823,13 @@
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
-      <c r="L56" s="130"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="24"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="133"/>
+      <c r="N56" s="137"/>
       <c r="O56" s="25"/>
       <c r="S56" s="40"/>
     </row>
-    <row r="57" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19" ht="32.25" customHeight="1">
       <c r="B57" s="60"/>
       <c r="C57" s="67"/>
       <c r="D57" s="61"/>
@@ -19834,13 +19840,13 @@
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
-      <c r="L57" s="130"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="24"/>
+      <c r="L57" s="133"/>
+      <c r="M57" s="133"/>
+      <c r="N57" s="137"/>
       <c r="O57" s="25"/>
       <c r="S57" s="40"/>
     </row>
-    <row r="58" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19" ht="32.25" customHeight="1">
       <c r="B58" s="60"/>
       <c r="C58" s="67"/>
       <c r="D58" s="61"/>
@@ -19851,13 +19857,13 @@
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
-      <c r="L58" s="130"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="24"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="137"/>
       <c r="O58" s="25"/>
       <c r="S58" s="40"/>
     </row>
-    <row r="59" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19" ht="32.25" customHeight="1">
       <c r="B59" s="60"/>
       <c r="C59" s="67"/>
       <c r="D59" s="61"/>
@@ -19868,13 +19874,13 @@
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
-      <c r="L59" s="130"/>
-      <c r="M59" s="130"/>
-      <c r="N59" s="24"/>
+      <c r="L59" s="133"/>
+      <c r="M59" s="133"/>
+      <c r="N59" s="137"/>
       <c r="O59" s="25"/>
       <c r="S59" s="40"/>
     </row>
-    <row r="60" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19" ht="32.25" customHeight="1">
       <c r="B60" s="60"/>
       <c r="C60" s="67"/>
       <c r="D60" s="61"/>
@@ -19885,13 +19891,13 @@
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
-      <c r="L60" s="130"/>
-      <c r="M60" s="130"/>
-      <c r="N60" s="24"/>
+      <c r="L60" s="133"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="137"/>
       <c r="O60" s="25"/>
       <c r="S60" s="40"/>
     </row>
-    <row r="61" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19" ht="32.25" customHeight="1">
       <c r="B61" s="60"/>
       <c r="C61" s="67"/>
       <c r="D61" s="61"/>
@@ -19902,13 +19908,13 @@
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
-      <c r="L61" s="130"/>
-      <c r="M61" s="130"/>
-      <c r="N61" s="24"/>
+      <c r="L61" s="133"/>
+      <c r="M61" s="133"/>
+      <c r="N61" s="137"/>
       <c r="O61" s="25"/>
       <c r="S61" s="40"/>
     </row>
-    <row r="62" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19" ht="32.25" customHeight="1">
       <c r="B62" s="60"/>
       <c r="C62" s="67"/>
       <c r="D62" s="61"/>
@@ -19919,13 +19925,13 @@
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
-      <c r="L62" s="130"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="24"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
+      <c r="N62" s="137"/>
       <c r="O62" s="25"/>
       <c r="S62" s="40"/>
     </row>
-    <row r="63" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19" ht="32.25" customHeight="1">
       <c r="B63" s="60"/>
       <c r="C63" s="67"/>
       <c r="D63" s="61"/>
@@ -19936,13 +19942,13 @@
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
-      <c r="L63" s="130"/>
-      <c r="M63" s="130"/>
-      <c r="N63" s="24"/>
+      <c r="L63" s="133"/>
+      <c r="M63" s="133"/>
+      <c r="N63" s="137"/>
       <c r="O63" s="25"/>
       <c r="S63" s="40"/>
     </row>
-    <row r="64" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19" ht="32.25" customHeight="1">
       <c r="B64" s="60"/>
       <c r="C64" s="67"/>
       <c r="D64" s="61"/>
@@ -19953,13 +19959,13 @@
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
-      <c r="L64" s="130"/>
-      <c r="M64" s="130"/>
-      <c r="N64" s="24"/>
+      <c r="L64" s="133"/>
+      <c r="M64" s="133"/>
+      <c r="N64" s="137"/>
       <c r="O64" s="25"/>
       <c r="S64" s="40"/>
     </row>
-    <row r="65" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B65" s="60"/>
       <c r="C65" s="67"/>
       <c r="D65" s="61"/>
@@ -19970,13 +19976,13 @@
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
-      <c r="L65" s="130"/>
-      <c r="M65" s="130"/>
-      <c r="N65" s="24"/>
+      <c r="L65" s="133"/>
+      <c r="M65" s="133"/>
+      <c r="N65" s="137"/>
       <c r="O65" s="25"/>
       <c r="S65" s="40"/>
     </row>
-    <row r="66" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B66" s="60"/>
       <c r="C66" s="67"/>
       <c r="D66" s="61"/>
@@ -19987,13 +19993,13 @@
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
-      <c r="L66" s="130"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="24"/>
+      <c r="L66" s="133"/>
+      <c r="M66" s="133"/>
+      <c r="N66" s="137"/>
       <c r="O66" s="25"/>
       <c r="S66" s="40"/>
     </row>
-    <row r="67" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B67" s="60"/>
       <c r="C67" s="67"/>
       <c r="D67" s="61"/>
@@ -20004,13 +20010,13 @@
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
-      <c r="L67" s="130"/>
-      <c r="M67" s="130"/>
-      <c r="N67" s="24"/>
+      <c r="L67" s="133"/>
+      <c r="M67" s="133"/>
+      <c r="N67" s="137"/>
       <c r="O67" s="25"/>
       <c r="S67" s="40"/>
     </row>
-    <row r="68" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B68" s="60"/>
       <c r="C68" s="67"/>
       <c r="D68" s="61"/>
@@ -20021,13 +20027,13 @@
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
-      <c r="L68" s="130"/>
-      <c r="M68" s="130"/>
-      <c r="N68" s="24"/>
+      <c r="L68" s="133"/>
+      <c r="M68" s="133"/>
+      <c r="N68" s="137"/>
       <c r="O68" s="25"/>
       <c r="S68" s="40"/>
     </row>
-    <row r="69" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B69" s="60"/>
       <c r="C69" s="67"/>
       <c r="D69" s="61"/>
@@ -20038,13 +20044,13 @@
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
-      <c r="L69" s="130"/>
-      <c r="M69" s="130"/>
-      <c r="N69" s="24"/>
+      <c r="L69" s="133"/>
+      <c r="M69" s="133"/>
+      <c r="N69" s="137"/>
       <c r="O69" s="25"/>
       <c r="S69" s="40"/>
     </row>
-    <row r="70" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B70" s="60"/>
       <c r="C70" s="67"/>
       <c r="D70" s="61"/>
@@ -20055,13 +20061,13 @@
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
-      <c r="L70" s="130"/>
-      <c r="M70" s="130"/>
-      <c r="N70" s="24"/>
+      <c r="L70" s="133"/>
+      <c r="M70" s="133"/>
+      <c r="N70" s="137"/>
       <c r="O70" s="25"/>
       <c r="S70" s="40"/>
     </row>
-    <row r="71" spans="1:16384" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16384" s="14" customFormat="1" ht="17.55">
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
       <c r="D71" s="55"/>
@@ -20080,7 +20086,7 @@
       <c r="Q71" s="46"/>
       <c r="R71" s="46"/>
     </row>
-    <row r="72" spans="1:16384" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16384" s="14" customFormat="1" ht="17.55">
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
       <c r="D72" s="55"/>
@@ -20099,7 +20105,7 @@
       <c r="Q72" s="46"/>
       <c r="R72" s="46"/>
     </row>
-    <row r="73" spans="1:16384" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16384" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
@@ -20118,7 +20124,7 @@
       <c r="Q73" s="46"/>
       <c r="R73" s="46"/>
     </row>
-    <row r="74" spans="1:16384" s="14" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16384" s="14" customFormat="1" ht="19.600000000000001" hidden="1" customHeight="1">
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
       <c r="D74" s="55"/>
@@ -20139,7 +20145,7 @@
       <c r="Q74" s="46"/>
       <c r="R74" s="46"/>
     </row>
-    <row r="75" spans="1:16384" s="14" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16384" s="14" customFormat="1" ht="17.55" hidden="1">
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
       <c r="D75" s="55"/>
@@ -20158,7 +20164,7 @@
       <c r="Q75" s="46"/>
       <c r="R75" s="46"/>
     </row>
-    <row r="76" spans="1:16384" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16384" ht="32.25" hidden="1" customHeight="1">
       <c r="B76" s="102"/>
       <c r="C76" s="103"/>
       <c r="D76" s="104"/>
@@ -20172,7 +20178,7 @@
       <c r="L76" s="18"/>
       <c r="S76" s="40"/>
     </row>
-    <row r="77" spans="1:16384" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16384" ht="26.3" hidden="1" customHeight="1">
       <c r="A77" s="115"/>
       <c r="B77" s="115" t="s">
         <v>57</v>
@@ -36560,7 +36566,7 @@
       <c r="XFC77" s="115"/>
       <c r="XFD77" s="115"/>
     </row>
-    <row r="78" spans="1:16384" ht="57.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16384" ht="53.85" hidden="1">
       <c r="B78" s="7" t="s">
         <v>12</v>
       </c>
@@ -36603,7 +36609,7 @@
       <c r="O78" s="129"/>
       <c r="S78" s="40"/>
     </row>
-    <row r="79" spans="1:16384" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16384" ht="32.25" hidden="1" customHeight="1">
       <c r="B79" s="60"/>
       <c r="C79" s="67"/>
       <c r="D79" s="61"/>
@@ -36620,7 +36626,7 @@
       <c r="O79" s="129"/>
       <c r="S79" s="40"/>
     </row>
-    <row r="80" spans="1:16384" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16384" ht="32.25" hidden="1" customHeight="1">
       <c r="B80" s="60"/>
       <c r="C80" s="67"/>
       <c r="D80" s="61"/>
@@ -36637,7 +36643,7 @@
       <c r="O80" s="129"/>
       <c r="S80" s="40"/>
     </row>
-    <row r="81" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B81" s="60"/>
       <c r="C81" s="67"/>
       <c r="D81" s="61"/>
@@ -36654,7 +36660,7 @@
       <c r="O81" s="129"/>
       <c r="S81" s="40"/>
     </row>
-    <row r="82" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B82" s="60"/>
       <c r="C82" s="67"/>
       <c r="D82" s="61"/>
@@ -36671,7 +36677,7 @@
       <c r="O82" s="129"/>
       <c r="S82" s="40"/>
     </row>
-    <row r="83" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B83" s="60"/>
       <c r="C83" s="67"/>
       <c r="D83" s="61"/>
@@ -36688,7 +36694,7 @@
       <c r="O83" s="129"/>
       <c r="S83" s="40"/>
     </row>
-    <row r="84" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B84" s="60"/>
       <c r="C84" s="67"/>
       <c r="D84" s="61"/>
@@ -36705,7 +36711,7 @@
       <c r="O84" s="129"/>
       <c r="S84" s="40"/>
     </row>
-    <row r="85" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B85" s="60"/>
       <c r="C85" s="67"/>
       <c r="D85" s="61"/>
@@ -36722,7 +36728,7 @@
       <c r="O85" s="129"/>
       <c r="S85" s="40"/>
     </row>
-    <row r="86" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B86" s="60"/>
       <c r="C86" s="67"/>
       <c r="D86" s="61"/>
@@ -36739,7 +36745,7 @@
       <c r="O86" s="129"/>
       <c r="S86" s="40"/>
     </row>
-    <row r="87" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B87" s="60"/>
       <c r="C87" s="67"/>
       <c r="D87" s="61"/>
@@ -36756,7 +36762,7 @@
       <c r="O87" s="129"/>
       <c r="S87" s="40"/>
     </row>
-    <row r="88" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B88" s="60"/>
       <c r="C88" s="67"/>
       <c r="D88" s="61"/>
@@ -36773,7 +36779,7 @@
       <c r="O88" s="129"/>
       <c r="S88" s="40"/>
     </row>
-    <row r="89" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B89" s="60"/>
       <c r="C89" s="67"/>
       <c r="D89" s="61"/>
@@ -36790,7 +36796,7 @@
       <c r="O89" s="129"/>
       <c r="S89" s="40"/>
     </row>
-    <row r="90" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B90" s="60"/>
       <c r="C90" s="67"/>
       <c r="D90" s="61"/>
@@ -36807,7 +36813,7 @@
       <c r="O90" s="129"/>
       <c r="S90" s="40"/>
     </row>
-    <row r="91" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B91" s="60"/>
       <c r="C91" s="67"/>
       <c r="D91" s="61"/>
@@ -36824,7 +36830,7 @@
       <c r="O91" s="129"/>
       <c r="S91" s="40"/>
     </row>
-    <row r="92" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B92" s="60"/>
       <c r="C92" s="67"/>
       <c r="D92" s="61"/>
@@ -36841,7 +36847,7 @@
       <c r="O92" s="129"/>
       <c r="S92" s="40"/>
     </row>
-    <row r="93" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B93" s="60"/>
       <c r="C93" s="67"/>
       <c r="D93" s="61"/>
@@ -36858,7 +36864,7 @@
       <c r="O93" s="129"/>
       <c r="S93" s="40"/>
     </row>
-    <row r="94" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B94" s="60"/>
       <c r="C94" s="67"/>
       <c r="D94" s="61"/>
@@ -36875,7 +36881,7 @@
       <c r="O94" s="129"/>
       <c r="S94" s="40"/>
     </row>
-    <row r="95" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B95" s="60"/>
       <c r="C95" s="67"/>
       <c r="D95" s="61"/>
@@ -36892,7 +36898,7 @@
       <c r="O95" s="129"/>
       <c r="S95" s="40"/>
     </row>
-    <row r="96" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B96" s="60"/>
       <c r="C96" s="67"/>
       <c r="D96" s="61"/>
@@ -36909,7 +36915,7 @@
       <c r="O96" s="129"/>
       <c r="S96" s="40"/>
     </row>
-    <row r="97" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B97" s="60"/>
       <c r="C97" s="67"/>
       <c r="D97" s="61"/>
@@ -36926,7 +36932,7 @@
       <c r="O97" s="129"/>
       <c r="S97" s="40"/>
     </row>
-    <row r="98" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B98" s="60"/>
       <c r="C98" s="67"/>
       <c r="D98" s="61"/>
@@ -36943,7 +36949,7 @@
       <c r="O98" s="129"/>
       <c r="S98" s="40"/>
     </row>
-    <row r="99" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B99" s="60"/>
       <c r="C99" s="67"/>
       <c r="D99" s="61"/>
@@ -36960,7 +36966,7 @@
       <c r="O99" s="129"/>
       <c r="S99" s="40"/>
     </row>
-    <row r="100" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B100" s="60"/>
       <c r="C100" s="67"/>
       <c r="D100" s="61"/>
@@ -36977,7 +36983,7 @@
       <c r="O100" s="129"/>
       <c r="S100" s="40"/>
     </row>
-    <row r="101" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B101" s="60"/>
       <c r="C101" s="67"/>
       <c r="D101" s="61"/>
@@ -36994,7 +37000,7 @@
       <c r="O101" s="129"/>
       <c r="S101" s="40"/>
     </row>
-    <row r="102" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B102" s="60"/>
       <c r="C102" s="67"/>
       <c r="D102" s="61"/>
@@ -37011,7 +37017,7 @@
       <c r="O102" s="129"/>
       <c r="S102" s="40"/>
     </row>
-    <row r="103" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B103" s="60"/>
       <c r="C103" s="67"/>
       <c r="D103" s="61"/>
@@ -37028,7 +37034,7 @@
       <c r="O103" s="129"/>
       <c r="S103" s="40"/>
     </row>
-    <row r="104" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B104" s="60"/>
       <c r="C104" s="67"/>
       <c r="D104" s="61"/>
@@ -37045,7 +37051,7 @@
       <c r="O104" s="129"/>
       <c r="S104" s="40"/>
     </row>
-    <row r="105" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B105" s="60"/>
       <c r="C105" s="67"/>
       <c r="D105" s="61"/>
@@ -37062,7 +37068,7 @@
       <c r="O105" s="129"/>
       <c r="S105" s="40"/>
     </row>
-    <row r="106" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B106" s="60"/>
       <c r="C106" s="67"/>
       <c r="D106" s="61"/>
@@ -37079,7 +37085,7 @@
       <c r="O106" s="129"/>
       <c r="S106" s="40"/>
     </row>
-    <row r="107" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B107" s="60"/>
       <c r="C107" s="67"/>
       <c r="D107" s="61"/>
@@ -37096,7 +37102,7 @@
       <c r="O107" s="129"/>
       <c r="S107" s="40"/>
     </row>
-    <row r="108" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B108" s="60"/>
       <c r="C108" s="67"/>
       <c r="D108" s="61"/>
@@ -37113,7 +37119,7 @@
       <c r="O108" s="129"/>
       <c r="S108" s="40"/>
     </row>
-    <row r="109" spans="2:19" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:19" ht="32.25" hidden="1" customHeight="1">
       <c r="B109" s="102"/>
       <c r="C109" s="103"/>
       <c r="D109" s="104"/>
@@ -37128,7 +37134,7 @@
       <c r="O109" s="129"/>
       <c r="S109" s="40"/>
     </row>
-    <row r="110" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:19" ht="32.25" customHeight="1">
       <c r="B110" s="102"/>
       <c r="C110" s="103"/>
       <c r="D110" s="104"/>
@@ -37142,7 +37148,7 @@
       <c r="L110" s="18"/>
       <c r="S110" s="40"/>
     </row>
-    <row r="111" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:19" ht="32.25" customHeight="1">
       <c r="B111" s="102"/>
       <c r="C111" s="103"/>
       <c r="D111" s="104"/>
@@ -37159,7 +37165,7 @@
       </c>
       <c r="S111" s="40"/>
     </row>
-    <row r="112" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:19" ht="32.25" customHeight="1">
       <c r="B112" s="102"/>
       <c r="C112" s="103"/>
       <c r="D112" s="104"/>
@@ -37174,7 +37180,7 @@
       <c r="O112" s="121"/>
       <c r="S112" s="40"/>
     </row>
-    <row r="113" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B113" s="102"/>
       <c r="C113" s="103"/>
       <c r="D113" s="104"/>
@@ -37188,7 +37194,7 @@
       <c r="L113" s="18"/>
       <c r="S113" s="40"/>
     </row>
-    <row r="114" spans="1:16384" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16384" ht="26.3" customHeight="1">
       <c r="A114" s="115"/>
       <c r="B114" s="115" t="s">
         <v>65</v>
@@ -53576,7 +53582,7 @@
       <c r="XFC114" s="115"/>
       <c r="XFD114" s="115"/>
     </row>
-    <row r="115" spans="1:16384" ht="57.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16384" ht="53.85">
       <c r="B115" s="7" t="s">
         <v>12</v>
       </c>
@@ -53621,7 +53627,7 @@
       </c>
       <c r="S115" s="40"/>
     </row>
-    <row r="116" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B116" s="60"/>
       <c r="C116" s="67"/>
       <c r="D116" s="61"/>
@@ -53632,13 +53638,13 @@
       <c r="I116" s="24"/>
       <c r="J116" s="24"/>
       <c r="K116" s="24"/>
-      <c r="L116" s="130"/>
-      <c r="M116" s="130"/>
-      <c r="N116" s="24"/>
+      <c r="L116" s="133"/>
+      <c r="M116" s="133"/>
+      <c r="N116" s="137"/>
       <c r="O116" s="117"/>
       <c r="S116" s="40"/>
     </row>
-    <row r="117" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B117" s="60"/>
       <c r="C117" s="67"/>
       <c r="D117" s="61"/>
@@ -53649,13 +53655,13 @@
       <c r="I117" s="24"/>
       <c r="J117" s="24"/>
       <c r="K117" s="24"/>
-      <c r="L117" s="130"/>
-      <c r="M117" s="130"/>
-      <c r="N117" s="24"/>
+      <c r="L117" s="133"/>
+      <c r="M117" s="133"/>
+      <c r="N117" s="137"/>
       <c r="O117" s="117"/>
       <c r="S117" s="40"/>
     </row>
-    <row r="118" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B118" s="60"/>
       <c r="C118" s="67"/>
       <c r="D118" s="61"/>
@@ -53666,13 +53672,13 @@
       <c r="I118" s="24"/>
       <c r="J118" s="24"/>
       <c r="K118" s="24"/>
-      <c r="L118" s="130"/>
-      <c r="M118" s="130"/>
-      <c r="N118" s="24"/>
+      <c r="L118" s="133"/>
+      <c r="M118" s="133"/>
+      <c r="N118" s="137"/>
       <c r="O118" s="117"/>
       <c r="S118" s="40"/>
     </row>
-    <row r="119" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B119" s="60"/>
       <c r="C119" s="67"/>
       <c r="D119" s="61"/>
@@ -53683,13 +53689,13 @@
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
       <c r="K119" s="24"/>
-      <c r="L119" s="130"/>
-      <c r="M119" s="130"/>
-      <c r="N119" s="24"/>
+      <c r="L119" s="133"/>
+      <c r="M119" s="133"/>
+      <c r="N119" s="137"/>
       <c r="O119" s="117"/>
       <c r="S119" s="40"/>
     </row>
-    <row r="120" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B120" s="60"/>
       <c r="C120" s="67"/>
       <c r="D120" s="61"/>
@@ -53700,13 +53706,13 @@
       <c r="I120" s="24"/>
       <c r="J120" s="24"/>
       <c r="K120" s="24"/>
-      <c r="L120" s="130"/>
-      <c r="M120" s="130"/>
-      <c r="N120" s="24"/>
+      <c r="L120" s="133"/>
+      <c r="M120" s="133"/>
+      <c r="N120" s="137"/>
       <c r="O120" s="117"/>
       <c r="S120" s="40"/>
     </row>
-    <row r="121" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B121" s="60"/>
       <c r="C121" s="67"/>
       <c r="D121" s="61"/>
@@ -53717,13 +53723,13 @@
       <c r="I121" s="24"/>
       <c r="J121" s="24"/>
       <c r="K121" s="24"/>
-      <c r="L121" s="130"/>
-      <c r="M121" s="130"/>
-      <c r="N121" s="24"/>
+      <c r="L121" s="133"/>
+      <c r="M121" s="133"/>
+      <c r="N121" s="137"/>
       <c r="O121" s="117"/>
       <c r="S121" s="40"/>
     </row>
-    <row r="122" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B122" s="60"/>
       <c r="C122" s="67"/>
       <c r="D122" s="61"/>
@@ -53734,13 +53740,13 @@
       <c r="I122" s="24"/>
       <c r="J122" s="24"/>
       <c r="K122" s="24"/>
-      <c r="L122" s="130"/>
-      <c r="M122" s="130"/>
-      <c r="N122" s="24"/>
+      <c r="L122" s="133"/>
+      <c r="M122" s="133"/>
+      <c r="N122" s="137"/>
       <c r="O122" s="117"/>
       <c r="S122" s="40"/>
     </row>
-    <row r="123" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B123" s="60"/>
       <c r="C123" s="67"/>
       <c r="D123" s="61"/>
@@ -53751,13 +53757,13 @@
       <c r="I123" s="24"/>
       <c r="J123" s="24"/>
       <c r="K123" s="24"/>
-      <c r="L123" s="130"/>
-      <c r="M123" s="130"/>
-      <c r="N123" s="24"/>
+      <c r="L123" s="133"/>
+      <c r="M123" s="133"/>
+      <c r="N123" s="137"/>
       <c r="O123" s="25"/>
       <c r="S123" s="40"/>
     </row>
-    <row r="124" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B124" s="60"/>
       <c r="C124" s="67"/>
       <c r="D124" s="61"/>
@@ -53768,13 +53774,13 @@
       <c r="I124" s="24"/>
       <c r="J124" s="24"/>
       <c r="K124" s="24"/>
-      <c r="L124" s="130"/>
-      <c r="M124" s="130"/>
-      <c r="N124" s="24"/>
+      <c r="L124" s="133"/>
+      <c r="M124" s="133"/>
+      <c r="N124" s="137"/>
       <c r="O124" s="25"/>
       <c r="S124" s="40"/>
     </row>
-    <row r="125" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B125" s="60"/>
       <c r="C125" s="67"/>
       <c r="D125" s="61"/>
@@ -53785,13 +53791,13 @@
       <c r="I125" s="24"/>
       <c r="J125" s="24"/>
       <c r="K125" s="24"/>
-      <c r="L125" s="130"/>
-      <c r="M125" s="130"/>
-      <c r="N125" s="24"/>
+      <c r="L125" s="133"/>
+      <c r="M125" s="133"/>
+      <c r="N125" s="137"/>
       <c r="O125" s="25"/>
       <c r="S125" s="40"/>
     </row>
-    <row r="126" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B126" s="60"/>
       <c r="C126" s="67"/>
       <c r="D126" s="61"/>
@@ -53802,13 +53808,13 @@
       <c r="I126" s="24"/>
       <c r="J126" s="24"/>
       <c r="K126" s="24"/>
-      <c r="L126" s="130"/>
-      <c r="M126" s="130"/>
-      <c r="N126" s="24"/>
+      <c r="L126" s="133"/>
+      <c r="M126" s="133"/>
+      <c r="N126" s="137"/>
       <c r="O126" s="25"/>
       <c r="S126" s="40"/>
     </row>
-    <row r="127" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B127" s="60"/>
       <c r="C127" s="67"/>
       <c r="D127" s="61"/>
@@ -53819,13 +53825,13 @@
       <c r="I127" s="24"/>
       <c r="J127" s="24"/>
       <c r="K127" s="24"/>
-      <c r="L127" s="130"/>
-      <c r="M127" s="130"/>
-      <c r="N127" s="24"/>
+      <c r="L127" s="133"/>
+      <c r="M127" s="133"/>
+      <c r="N127" s="137"/>
       <c r="O127" s="25"/>
       <c r="S127" s="40"/>
     </row>
-    <row r="128" spans="1:16384" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B128" s="60"/>
       <c r="C128" s="67"/>
       <c r="D128" s="61"/>
@@ -53836,13 +53842,13 @@
       <c r="I128" s="24"/>
       <c r="J128" s="24"/>
       <c r="K128" s="24"/>
-      <c r="L128" s="130"/>
-      <c r="M128" s="130"/>
-      <c r="N128" s="24"/>
+      <c r="L128" s="133"/>
+      <c r="M128" s="133"/>
+      <c r="N128" s="137"/>
       <c r="O128" s="25"/>
       <c r="S128" s="40"/>
     </row>
-    <row r="129" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:19" ht="32.25" customHeight="1">
       <c r="B129" s="60"/>
       <c r="C129" s="67"/>
       <c r="D129" s="61"/>
@@ -53853,13 +53859,13 @@
       <c r="I129" s="24"/>
       <c r="J129" s="24"/>
       <c r="K129" s="24"/>
-      <c r="L129" s="130"/>
-      <c r="M129" s="130"/>
-      <c r="N129" s="24"/>
+      <c r="L129" s="133"/>
+      <c r="M129" s="133"/>
+      <c r="N129" s="137"/>
       <c r="O129" s="25"/>
       <c r="S129" s="40"/>
     </row>
-    <row r="130" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:19" ht="32.25" customHeight="1">
       <c r="B130" s="60"/>
       <c r="C130" s="67"/>
       <c r="D130" s="61"/>
@@ -53870,13 +53876,13 @@
       <c r="I130" s="24"/>
       <c r="J130" s="24"/>
       <c r="K130" s="24"/>
-      <c r="L130" s="130"/>
-      <c r="M130" s="130"/>
-      <c r="N130" s="24"/>
+      <c r="L130" s="133"/>
+      <c r="M130" s="133"/>
+      <c r="N130" s="137"/>
       <c r="O130" s="25"/>
       <c r="S130" s="40"/>
     </row>
-    <row r="131" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:19" ht="32.25" customHeight="1">
       <c r="B131" s="60"/>
       <c r="C131" s="67"/>
       <c r="D131" s="61"/>
@@ -53887,13 +53893,13 @@
       <c r="I131" s="24"/>
       <c r="J131" s="24"/>
       <c r="K131" s="24"/>
-      <c r="L131" s="130"/>
-      <c r="M131" s="130"/>
-      <c r="N131" s="24"/>
+      <c r="L131" s="133"/>
+      <c r="M131" s="133"/>
+      <c r="N131" s="137"/>
       <c r="O131" s="25"/>
       <c r="S131" s="40"/>
     </row>
-    <row r="132" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:19" ht="32.25" customHeight="1">
       <c r="B132" s="60"/>
       <c r="C132" s="67"/>
       <c r="D132" s="61"/>
@@ -53904,13 +53910,13 @@
       <c r="I132" s="24"/>
       <c r="J132" s="24"/>
       <c r="K132" s="24"/>
-      <c r="L132" s="130"/>
-      <c r="M132" s="130"/>
-      <c r="N132" s="24"/>
+      <c r="L132" s="133"/>
+      <c r="M132" s="133"/>
+      <c r="N132" s="137"/>
       <c r="O132" s="25"/>
       <c r="S132" s="40"/>
     </row>
-    <row r="133" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:19" ht="32.25" customHeight="1">
       <c r="B133" s="60"/>
       <c r="C133" s="67"/>
       <c r="D133" s="61"/>
@@ -53921,13 +53927,13 @@
       <c r="I133" s="24"/>
       <c r="J133" s="24"/>
       <c r="K133" s="24"/>
-      <c r="L133" s="130"/>
-      <c r="M133" s="130"/>
-      <c r="N133" s="24"/>
+      <c r="L133" s="133"/>
+      <c r="M133" s="133"/>
+      <c r="N133" s="137"/>
       <c r="O133" s="25"/>
       <c r="S133" s="40"/>
     </row>
-    <row r="134" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:19" ht="32.25" customHeight="1">
       <c r="B134" s="60"/>
       <c r="C134" s="67"/>
       <c r="D134" s="61"/>
@@ -53938,13 +53944,13 @@
       <c r="I134" s="24"/>
       <c r="J134" s="24"/>
       <c r="K134" s="24"/>
-      <c r="L134" s="130"/>
-      <c r="M134" s="130"/>
-      <c r="N134" s="24"/>
+      <c r="L134" s="133"/>
+      <c r="M134" s="133"/>
+      <c r="N134" s="137"/>
       <c r="O134" s="25"/>
       <c r="S134" s="40"/>
     </row>
-    <row r="135" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:19" ht="32.25" customHeight="1">
       <c r="B135" s="60"/>
       <c r="C135" s="67"/>
       <c r="D135" s="61"/>
@@ -53955,13 +53961,13 @@
       <c r="I135" s="24"/>
       <c r="J135" s="24"/>
       <c r="K135" s="24"/>
-      <c r="L135" s="130"/>
-      <c r="M135" s="130"/>
-      <c r="N135" s="24"/>
+      <c r="L135" s="133"/>
+      <c r="M135" s="133"/>
+      <c r="N135" s="137"/>
       <c r="O135" s="25"/>
       <c r="S135" s="40"/>
     </row>
-    <row r="136" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:19" ht="32.25" customHeight="1">
       <c r="B136" s="60"/>
       <c r="C136" s="67"/>
       <c r="D136" s="61"/>
@@ -53972,13 +53978,13 @@
       <c r="I136" s="24"/>
       <c r="J136" s="24"/>
       <c r="K136" s="24"/>
-      <c r="L136" s="130"/>
-      <c r="M136" s="130"/>
-      <c r="N136" s="24"/>
+      <c r="L136" s="133"/>
+      <c r="M136" s="133"/>
+      <c r="N136" s="137"/>
       <c r="O136" s="25"/>
       <c r="S136" s="40"/>
     </row>
-    <row r="137" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:19" ht="32.25" customHeight="1">
       <c r="B137" s="60"/>
       <c r="C137" s="67"/>
       <c r="D137" s="61"/>
@@ -53989,13 +53995,13 @@
       <c r="I137" s="24"/>
       <c r="J137" s="24"/>
       <c r="K137" s="24"/>
-      <c r="L137" s="130"/>
-      <c r="M137" s="130"/>
-      <c r="N137" s="24"/>
+      <c r="L137" s="133"/>
+      <c r="M137" s="133"/>
+      <c r="N137" s="137"/>
       <c r="O137" s="25"/>
       <c r="S137" s="40"/>
     </row>
-    <row r="138" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:19" ht="32.25" customHeight="1">
       <c r="B138" s="60"/>
       <c r="C138" s="67"/>
       <c r="D138" s="61"/>
@@ -54006,13 +54012,13 @@
       <c r="I138" s="24"/>
       <c r="J138" s="24"/>
       <c r="K138" s="24"/>
-      <c r="L138" s="130"/>
-      <c r="M138" s="130"/>
-      <c r="N138" s="24"/>
+      <c r="L138" s="133"/>
+      <c r="M138" s="133"/>
+      <c r="N138" s="137"/>
       <c r="O138" s="25"/>
       <c r="S138" s="40"/>
     </row>
-    <row r="139" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:19" ht="32.25" customHeight="1">
       <c r="B139" s="60"/>
       <c r="C139" s="67"/>
       <c r="D139" s="61"/>
@@ -54023,13 +54029,13 @@
       <c r="I139" s="24"/>
       <c r="J139" s="24"/>
       <c r="K139" s="24"/>
-      <c r="L139" s="130"/>
-      <c r="M139" s="130"/>
-      <c r="N139" s="24"/>
+      <c r="L139" s="133"/>
+      <c r="M139" s="133"/>
+      <c r="N139" s="137"/>
       <c r="O139" s="25"/>
       <c r="S139" s="40"/>
     </row>
-    <row r="140" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:19" ht="32.25" customHeight="1">
       <c r="B140" s="60"/>
       <c r="C140" s="67"/>
       <c r="D140" s="61"/>
@@ -54040,13 +54046,13 @@
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
       <c r="K140" s="24"/>
-      <c r="L140" s="130"/>
-      <c r="M140" s="130"/>
-      <c r="N140" s="24"/>
+      <c r="L140" s="133"/>
+      <c r="M140" s="133"/>
+      <c r="N140" s="137"/>
       <c r="O140" s="25"/>
       <c r="S140" s="40"/>
     </row>
-    <row r="141" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:19" ht="32.25" customHeight="1">
       <c r="B141" s="60"/>
       <c r="C141" s="67"/>
       <c r="D141" s="61"/>
@@ -54057,13 +54063,13 @@
       <c r="I141" s="24"/>
       <c r="J141" s="24"/>
       <c r="K141" s="24"/>
-      <c r="L141" s="130"/>
-      <c r="M141" s="130"/>
-      <c r="N141" s="24"/>
+      <c r="L141" s="133"/>
+      <c r="M141" s="133"/>
+      <c r="N141" s="137"/>
       <c r="O141" s="25"/>
       <c r="S141" s="40"/>
     </row>
-    <row r="142" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:19" ht="32.25" customHeight="1">
       <c r="B142" s="60"/>
       <c r="C142" s="67"/>
       <c r="D142" s="61"/>
@@ -54074,13 +54080,13 @@
       <c r="I142" s="24"/>
       <c r="J142" s="24"/>
       <c r="K142" s="24"/>
-      <c r="L142" s="130"/>
-      <c r="M142" s="130"/>
-      <c r="N142" s="24"/>
+      <c r="L142" s="133"/>
+      <c r="M142" s="133"/>
+      <c r="N142" s="137"/>
       <c r="O142" s="25"/>
       <c r="S142" s="40"/>
     </row>
-    <row r="143" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:19" ht="32.25" customHeight="1">
       <c r="B143" s="60"/>
       <c r="C143" s="67"/>
       <c r="D143" s="61"/>
@@ -54091,13 +54097,13 @@
       <c r="I143" s="24"/>
       <c r="J143" s="24"/>
       <c r="K143" s="24"/>
-      <c r="L143" s="130"/>
-      <c r="M143" s="130"/>
-      <c r="N143" s="24"/>
+      <c r="L143" s="133"/>
+      <c r="M143" s="133"/>
+      <c r="N143" s="137"/>
       <c r="O143" s="25"/>
       <c r="S143" s="40"/>
     </row>
-    <row r="144" spans="2:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:19" ht="32.25" customHeight="1">
       <c r="B144" s="60"/>
       <c r="C144" s="67"/>
       <c r="D144" s="61"/>
@@ -54108,13 +54114,13 @@
       <c r="I144" s="24"/>
       <c r="J144" s="24"/>
       <c r="K144" s="24"/>
-      <c r="L144" s="130"/>
-      <c r="M144" s="130"/>
-      <c r="N144" s="24"/>
+      <c r="L144" s="133"/>
+      <c r="M144" s="133"/>
+      <c r="N144" s="137"/>
       <c r="O144" s="25"/>
       <c r="S144" s="40"/>
     </row>
-    <row r="145" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" ht="32.25" customHeight="1">
       <c r="B145" s="60"/>
       <c r="C145" s="67"/>
       <c r="D145" s="61"/>
@@ -54125,13 +54131,13 @@
       <c r="I145" s="24"/>
       <c r="J145" s="24"/>
       <c r="K145" s="24"/>
-      <c r="L145" s="130"/>
-      <c r="M145" s="130"/>
-      <c r="N145" s="24"/>
+      <c r="L145" s="133"/>
+      <c r="M145" s="133"/>
+      <c r="N145" s="137"/>
       <c r="O145" s="25"/>
       <c r="S145" s="40"/>
     </row>
-    <row r="146" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" ht="32.25" customHeight="1">
       <c r="B146" s="102"/>
       <c r="C146" s="103"/>
       <c r="D146" s="104"/>
@@ -54145,7 +54151,7 @@
       <c r="L146" s="18"/>
       <c r="S146" s="40"/>
     </row>
-    <row r="147" spans="1:21" s="114" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" s="114" customFormat="1" ht="32.25" customHeight="1">
       <c r="A147" s="107"/>
       <c r="B147" s="108"/>
       <c r="C147" s="109"/>
@@ -54166,7 +54172,7 @@
       <c r="R147" s="113"/>
       <c r="S147" s="113"/>
     </row>
-    <row r="148" spans="1:21" s="27" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" s="27" customFormat="1" ht="30.05" customHeight="1">
       <c r="A148" s="28"/>
       <c r="B148" s="29" t="s">
         <v>60</v>
@@ -54190,7 +54196,7 @@
       <c r="T148" s="39"/>
       <c r="U148" s="39"/>
     </row>
-    <row r="149" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" ht="23.5" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="31" t="s">
         <v>61</v>
@@ -54206,7 +54212,7 @@
       <c r="K149" s="18"/>
       <c r="L149" s="51"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21">
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
@@ -54216,7 +54222,7 @@
       <c r="I150" s="5"/>
       <c r="K150" s="26"/>
     </row>
-    <row r="151" spans="1:21" ht="37.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" ht="37.1" customHeight="1">
       <c r="B151" s="32" t="s">
         <v>9</v>
       </c>
@@ -54252,60 +54258,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.2"/>
   <cols>
     <col min="1" max="1" width="11" style="71" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="71" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="71" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="71" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="71" customWidth="1"/>
-    <col min="6" max="17" width="10.25" style="71" customWidth="1"/>
-    <col min="18" max="18" width="11.875" style="71" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="83" customWidth="1"/>
-    <col min="20" max="20" width="10.25" style="71" customWidth="1"/>
-    <col min="21" max="23" width="10.5" style="99" customWidth="1"/>
-    <col min="24" max="24" width="11.125" style="99" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="71" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="71" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="71" customWidth="1"/>
+    <col min="6" max="17" width="10.21875" style="71" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" style="83" customWidth="1"/>
+    <col min="20" max="20" width="10.21875" style="71" customWidth="1"/>
+    <col min="21" max="23" width="10.44140625" style="99" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" style="99" customWidth="1"/>
     <col min="25" max="27" width="11" style="101" customWidth="1"/>
-    <col min="28" max="31" width="11.125" style="99" customWidth="1"/>
-    <col min="32" max="33" width="9.375" style="86" customWidth="1"/>
-    <col min="34" max="34" width="11.125" style="86" customWidth="1"/>
-    <col min="35" max="37" width="11.125" style="83" customWidth="1"/>
-    <col min="38" max="16384" width="8.875" style="71"/>
+    <col min="28" max="31" width="11.109375" style="99" customWidth="1"/>
+    <col min="32" max="33" width="9.33203125" style="86" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" style="86" customWidth="1"/>
+    <col min="35" max="37" width="11.109375" style="83" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="42.75" customHeight="1">
       <c r="A1" s="87"/>
       <c r="B1" s="87"/>
-      <c r="U1" s="133" t="s">
+      <c r="U1" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133" t="s">
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="133"/>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="133"/>
-      <c r="AH1" s="133"/>
-      <c r="AI1" s="133"/>
-      <c r="AJ1" s="133"/>
-      <c r="AK1" s="133"/>
+      <c r="AC1" s="136"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="136"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="136"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="136"/>
+      <c r="AK1" s="136"/>
     </row>
-    <row r="2" spans="1:37" ht="78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="73.25">
       <c r="A2" s="88" t="s">
         <v>21</v>
       </c>
@@ -54360,7 +54366,7 @@
       <c r="R2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="134" t="s">
+      <c r="S2" s="131" t="s">
         <v>38</v>
       </c>
       <c r="T2" s="90" t="s">
@@ -54418,7 +54424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="18" customHeight="1">
       <c r="A3" s="72"/>
       <c r="B3" s="72"/>
       <c r="C3" s="95"/>
@@ -54437,7 +54443,7 @@
       <c r="P3" s="78"/>
       <c r="Q3" s="78"/>
       <c r="R3" s="75"/>
-      <c r="S3" s="135"/>
+      <c r="S3" s="132"/>
       <c r="T3" s="79"/>
       <c r="U3" s="96"/>
       <c r="V3" s="97"/>
@@ -54457,7 +54463,7 @@
       <c r="AJ3" s="82"/>
       <c r="AK3" s="82"/>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="18" customHeight="1">
       <c r="A4" s="72"/>
       <c r="B4" s="72"/>
       <c r="C4" s="95"/>
@@ -54476,7 +54482,7 @@
       <c r="P4" s="78"/>
       <c r="Q4" s="78"/>
       <c r="R4" s="75"/>
-      <c r="S4" s="135"/>
+      <c r="S4" s="132"/>
       <c r="T4" s="79"/>
       <c r="U4" s="96"/>
       <c r="V4" s="97"/>
@@ -54496,7 +54502,7 @@
       <c r="AJ4" s="82"/>
       <c r="AK4" s="82"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="18" customHeight="1">
       <c r="A5" s="72"/>
       <c r="B5" s="72"/>
       <c r="C5" s="95"/>
@@ -54515,7 +54521,7 @@
       <c r="P5" s="78"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="75"/>
-      <c r="S5" s="135"/>
+      <c r="S5" s="132"/>
       <c r="T5" s="79"/>
       <c r="U5" s="96"/>
       <c r="V5" s="97"/>
@@ -54535,7 +54541,7 @@
       <c r="AJ5" s="82"/>
       <c r="AK5" s="82"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="18" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="72"/>
       <c r="C6" s="95"/>
@@ -54554,7 +54560,7 @@
       <c r="P6" s="78"/>
       <c r="Q6" s="78"/>
       <c r="R6" s="75"/>
-      <c r="S6" s="135"/>
+      <c r="S6" s="132"/>
       <c r="T6" s="79"/>
       <c r="U6" s="96"/>
       <c r="V6" s="97"/>
@@ -54574,7 +54580,7 @@
       <c r="AJ6" s="82"/>
       <c r="AK6" s="82"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="18" customHeight="1">
       <c r="A7" s="72"/>
       <c r="B7" s="72"/>
       <c r="C7" s="95"/>
@@ -54593,7 +54599,7 @@
       <c r="P7" s="78"/>
       <c r="Q7" s="78"/>
       <c r="R7" s="75"/>
-      <c r="S7" s="135"/>
+      <c r="S7" s="132"/>
       <c r="T7" s="79"/>
       <c r="U7" s="96"/>
       <c r="V7" s="97"/>
@@ -54613,7 +54619,7 @@
       <c r="AJ7" s="82"/>
       <c r="AK7" s="82"/>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="18" customHeight="1">
       <c r="A8" s="72"/>
       <c r="B8" s="72"/>
       <c r="C8" s="95"/>
@@ -54632,7 +54638,7 @@
       <c r="P8" s="78"/>
       <c r="Q8" s="78"/>
       <c r="R8" s="75"/>
-      <c r="S8" s="135"/>
+      <c r="S8" s="132"/>
       <c r="T8" s="79"/>
       <c r="U8" s="96"/>
       <c r="V8" s="97"/>
@@ -54652,7 +54658,7 @@
       <c r="AJ8" s="82"/>
       <c r="AK8" s="82"/>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="18" customHeight="1">
       <c r="A9" s="72"/>
       <c r="B9" s="72"/>
       <c r="C9" s="95"/>
@@ -54671,7 +54677,7 @@
       <c r="P9" s="78"/>
       <c r="Q9" s="78"/>
       <c r="R9" s="75"/>
-      <c r="S9" s="135"/>
+      <c r="S9" s="132"/>
       <c r="T9" s="79"/>
       <c r="U9" s="96"/>
       <c r="V9" s="97"/>
@@ -54691,7 +54697,7 @@
       <c r="AJ9" s="82"/>
       <c r="AK9" s="82"/>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="18" customHeight="1">
       <c r="A10" s="72"/>
       <c r="B10" s="72"/>
       <c r="C10" s="95"/>
@@ -54710,7 +54716,7 @@
       <c r="P10" s="78"/>
       <c r="Q10" s="78"/>
       <c r="R10" s="75"/>
-      <c r="S10" s="135"/>
+      <c r="S10" s="132"/>
       <c r="T10" s="79"/>
       <c r="U10" s="96"/>
       <c r="V10" s="97"/>
@@ -54730,7 +54736,7 @@
       <c r="AJ10" s="82"/>
       <c r="AK10" s="82"/>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="18" customHeight="1">
       <c r="A11" s="72"/>
       <c r="B11" s="72"/>
       <c r="C11" s="95"/>
@@ -54749,7 +54755,7 @@
       <c r="P11" s="78"/>
       <c r="Q11" s="78"/>
       <c r="R11" s="75"/>
-      <c r="S11" s="135"/>
+      <c r="S11" s="132"/>
       <c r="T11" s="79"/>
       <c r="U11" s="96"/>
       <c r="V11" s="97"/>
@@ -54769,7 +54775,7 @@
       <c r="AJ11" s="82"/>
       <c r="AK11" s="82"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="18" customHeight="1">
       <c r="A12" s="72"/>
       <c r="B12" s="72"/>
       <c r="C12" s="95"/>
@@ -54788,7 +54794,7 @@
       <c r="P12" s="78"/>
       <c r="Q12" s="78"/>
       <c r="R12" s="75"/>
-      <c r="S12" s="135"/>
+      <c r="S12" s="132"/>
       <c r="T12" s="79"/>
       <c r="U12" s="96"/>
       <c r="V12" s="97"/>
@@ -54808,7 +54814,7 @@
       <c r="AJ12" s="82"/>
       <c r="AK12" s="82"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="18" customHeight="1">
       <c r="A13" s="72"/>
       <c r="B13" s="72"/>
       <c r="C13" s="95"/>
@@ -54827,7 +54833,7 @@
       <c r="P13" s="78"/>
       <c r="Q13" s="78"/>
       <c r="R13" s="75"/>
-      <c r="S13" s="135"/>
+      <c r="S13" s="132"/>
       <c r="T13" s="79"/>
       <c r="U13" s="96"/>
       <c r="V13" s="97"/>
@@ -54847,7 +54853,7 @@
       <c r="AJ13" s="82"/>
       <c r="AK13" s="82"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="18" customHeight="1">
       <c r="A14" s="72"/>
       <c r="B14" s="72"/>
       <c r="C14" s="95"/>
@@ -54866,7 +54872,7 @@
       <c r="P14" s="78"/>
       <c r="Q14" s="78"/>
       <c r="R14" s="75"/>
-      <c r="S14" s="135"/>
+      <c r="S14" s="132"/>
       <c r="T14" s="79"/>
       <c r="U14" s="96"/>
       <c r="V14" s="97"/>
@@ -54886,7 +54892,7 @@
       <c r="AJ14" s="82"/>
       <c r="AK14" s="82"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="18" customHeight="1">
       <c r="A15" s="72"/>
       <c r="B15" s="72"/>
       <c r="C15" s="95"/>
@@ -54905,7 +54911,7 @@
       <c r="P15" s="78"/>
       <c r="Q15" s="78"/>
       <c r="R15" s="75"/>
-      <c r="S15" s="135"/>
+      <c r="S15" s="132"/>
       <c r="T15" s="79"/>
       <c r="U15" s="96"/>
       <c r="V15" s="97"/>
@@ -54925,7 +54931,7 @@
       <c r="AJ15" s="82"/>
       <c r="AK15" s="82"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="18" customHeight="1">
       <c r="A16" s="72"/>
       <c r="B16" s="72"/>
       <c r="C16" s="95"/>
@@ -54944,7 +54950,7 @@
       <c r="P16" s="78"/>
       <c r="Q16" s="78"/>
       <c r="R16" s="75"/>
-      <c r="S16" s="135"/>
+      <c r="S16" s="132"/>
       <c r="T16" s="79"/>
       <c r="U16" s="96"/>
       <c r="V16" s="97"/>
@@ -54964,7 +54970,7 @@
       <c r="AJ16" s="82"/>
       <c r="AK16" s="82"/>
     </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="18" customHeight="1">
       <c r="A17" s="72"/>
       <c r="B17" s="72"/>
       <c r="C17" s="95"/>
@@ -54983,7 +54989,7 @@
       <c r="P17" s="78"/>
       <c r="Q17" s="78"/>
       <c r="R17" s="75"/>
-      <c r="S17" s="135"/>
+      <c r="S17" s="132"/>
       <c r="T17" s="79"/>
       <c r="U17" s="96"/>
       <c r="V17" s="97"/>
@@ -55003,7 +55009,7 @@
       <c r="AJ17" s="82"/>
       <c r="AK17" s="82"/>
     </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="18" customHeight="1">
       <c r="A18" s="72"/>
       <c r="B18" s="72"/>
       <c r="C18" s="95"/>
@@ -55022,7 +55028,7 @@
       <c r="P18" s="78"/>
       <c r="Q18" s="78"/>
       <c r="R18" s="75"/>
-      <c r="S18" s="135"/>
+      <c r="S18" s="132"/>
       <c r="T18" s="79"/>
       <c r="U18" s="96"/>
       <c r="V18" s="97"/>
@@ -55042,7 +55048,7 @@
       <c r="AJ18" s="82"/>
       <c r="AK18" s="82"/>
     </row>
-    <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="18" customHeight="1">
       <c r="A19" s="72"/>
       <c r="B19" s="72"/>
       <c r="C19" s="95"/>
@@ -55061,7 +55067,7 @@
       <c r="P19" s="78"/>
       <c r="Q19" s="78"/>
       <c r="R19" s="75"/>
-      <c r="S19" s="135"/>
+      <c r="S19" s="132"/>
       <c r="T19" s="79"/>
       <c r="U19" s="96"/>
       <c r="V19" s="97"/>
@@ -55081,7 +55087,7 @@
       <c r="AJ19" s="82"/>
       <c r="AK19" s="82"/>
     </row>
-    <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="18" customHeight="1">
       <c r="A20" s="72"/>
       <c r="B20" s="72"/>
       <c r="C20" s="95"/>
@@ -55100,7 +55106,7 @@
       <c r="P20" s="78"/>
       <c r="Q20" s="78"/>
       <c r="R20" s="75"/>
-      <c r="S20" s="135"/>
+      <c r="S20" s="132"/>
       <c r="T20" s="79"/>
       <c r="U20" s="96"/>
       <c r="V20" s="97"/>
@@ -55120,7 +55126,7 @@
       <c r="AJ20" s="82"/>
       <c r="AK20" s="82"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="18" customHeight="1">
       <c r="A21" s="72"/>
       <c r="B21" s="72"/>
       <c r="C21" s="95"/>
@@ -55139,7 +55145,7 @@
       <c r="P21" s="78"/>
       <c r="Q21" s="78"/>
       <c r="R21" s="75"/>
-      <c r="S21" s="135"/>
+      <c r="S21" s="132"/>
       <c r="T21" s="79"/>
       <c r="U21" s="96"/>
       <c r="V21" s="97"/>
@@ -55159,7 +55165,7 @@
       <c r="AJ21" s="82"/>
       <c r="AK21" s="82"/>
     </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="18" customHeight="1">
       <c r="A22" s="72"/>
       <c r="B22" s="72"/>
       <c r="C22" s="95"/>
@@ -55178,7 +55184,7 @@
       <c r="P22" s="78"/>
       <c r="Q22" s="78"/>
       <c r="R22" s="75"/>
-      <c r="S22" s="135"/>
+      <c r="S22" s="132"/>
       <c r="T22" s="79"/>
       <c r="U22" s="96"/>
       <c r="V22" s="97"/>
@@ -55198,7 +55204,7 @@
       <c r="AJ22" s="82"/>
       <c r="AK22" s="82"/>
     </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="18" customHeight="1">
       <c r="A23" s="72"/>
       <c r="B23" s="72"/>
       <c r="C23" s="95"/>
@@ -55217,7 +55223,7 @@
       <c r="P23" s="78"/>
       <c r="Q23" s="78"/>
       <c r="R23" s="75"/>
-      <c r="S23" s="135"/>
+      <c r="S23" s="132"/>
       <c r="T23" s="79"/>
       <c r="U23" s="96"/>
       <c r="V23" s="97"/>
@@ -55237,7 +55243,7 @@
       <c r="AJ23" s="82"/>
       <c r="AK23" s="82"/>
     </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="18" customHeight="1">
       <c r="A24" s="72"/>
       <c r="B24" s="72"/>
       <c r="C24" s="95"/>
@@ -55256,7 +55262,7 @@
       <c r="P24" s="78"/>
       <c r="Q24" s="78"/>
       <c r="R24" s="75"/>
-      <c r="S24" s="135"/>
+      <c r="S24" s="132"/>
       <c r="T24" s="79"/>
       <c r="U24" s="96"/>
       <c r="V24" s="97"/>
@@ -55276,7 +55282,7 @@
       <c r="AJ24" s="82"/>
       <c r="AK24" s="82"/>
     </row>
-    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="18" customHeight="1">
       <c r="A25" s="72"/>
       <c r="B25" s="72"/>
       <c r="C25" s="95"/>
@@ -55295,7 +55301,7 @@
       <c r="P25" s="78"/>
       <c r="Q25" s="78"/>
       <c r="R25" s="75"/>
-      <c r="S25" s="135"/>
+      <c r="S25" s="132"/>
       <c r="T25" s="79"/>
       <c r="U25" s="96"/>
       <c r="V25" s="97"/>
@@ -55315,7 +55321,7 @@
       <c r="AJ25" s="82"/>
       <c r="AK25" s="82"/>
     </row>
-    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="18" customHeight="1">
       <c r="A26" s="72"/>
       <c r="B26" s="72"/>
       <c r="C26" s="95"/>
@@ -55334,7 +55340,7 @@
       <c r="P26" s="78"/>
       <c r="Q26" s="78"/>
       <c r="R26" s="75"/>
-      <c r="S26" s="135"/>
+      <c r="S26" s="132"/>
       <c r="T26" s="79"/>
       <c r="U26" s="96"/>
       <c r="V26" s="97"/>
@@ -55354,7 +55360,7 @@
       <c r="AJ26" s="82"/>
       <c r="AK26" s="82"/>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="18" customHeight="1">
       <c r="A27" s="72"/>
       <c r="B27" s="72"/>
       <c r="C27" s="95"/>
@@ -55373,7 +55379,7 @@
       <c r="P27" s="78"/>
       <c r="Q27" s="78"/>
       <c r="R27" s="75"/>
-      <c r="S27" s="135"/>
+      <c r="S27" s="132"/>
       <c r="T27" s="79"/>
       <c r="U27" s="96"/>
       <c r="V27" s="97"/>
@@ -55393,7 +55399,7 @@
       <c r="AJ27" s="82"/>
       <c r="AK27" s="82"/>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="18" customHeight="1">
       <c r="A28" s="72"/>
       <c r="B28" s="72"/>
       <c r="C28" s="95"/>
@@ -55412,7 +55418,7 @@
       <c r="P28" s="78"/>
       <c r="Q28" s="78"/>
       <c r="R28" s="75"/>
-      <c r="S28" s="135"/>
+      <c r="S28" s="132"/>
       <c r="T28" s="79"/>
       <c r="U28" s="96"/>
       <c r="V28" s="97"/>
@@ -55432,7 +55438,7 @@
       <c r="AJ28" s="82"/>
       <c r="AK28" s="82"/>
     </row>
-    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="18" customHeight="1">
       <c r="A29" s="72"/>
       <c r="B29" s="72"/>
       <c r="C29" s="95"/>
@@ -55451,7 +55457,7 @@
       <c r="P29" s="78"/>
       <c r="Q29" s="78"/>
       <c r="R29" s="75"/>
-      <c r="S29" s="135"/>
+      <c r="S29" s="132"/>
       <c r="T29" s="79"/>
       <c r="U29" s="96"/>
       <c r="V29" s="97"/>
@@ -55471,7 +55477,7 @@
       <c r="AJ29" s="82"/>
       <c r="AK29" s="82"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="18" customHeight="1">
       <c r="A30" s="72"/>
       <c r="B30" s="72"/>
       <c r="C30" s="95"/>
@@ -55490,7 +55496,7 @@
       <c r="P30" s="78"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="135"/>
+      <c r="S30" s="132"/>
       <c r="T30" s="79"/>
       <c r="U30" s="96"/>
       <c r="V30" s="97"/>
@@ -55510,10 +55516,10 @@
       <c r="AJ30" s="82"/>
       <c r="AK30" s="82"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21">
       <c r="B33" s="98"/>
     </row>
-    <row r="34" spans="2:21" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21">
       <c r="U34" s="100" t="s">
         <v>52</v>
       </c>

--- a/PhoenixCI/Excel_Template/43010.xlsx
+++ b/PhoenixCI/Excel_Template/43010.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIN\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. 風管組業務\B. 資訊需求單\20190502 盤後系統需求\3. 調整template\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1188,7 +1188,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.簡單移動平均法-日內變動(MAX)</t>
+    <t>3.簡單移動平均法-日內變動(MAX)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,14 +1196,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="181" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="182" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1521,7 +1520,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1872,9 +1871,6 @@
     <xf numFmtId="178" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="30" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1882,6 +1878,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1892,9 +1891,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2336,8 +2332,8 @@
   </sheetPr>
   <dimension ref="A1:XFD151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A137" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41:N51"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A99" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7"/>
@@ -19568,9 +19564,9 @@
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
-      <c r="N41" s="137"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="133"/>
       <c r="O41" s="117"/>
       <c r="S41" s="40"/>
     </row>
@@ -19585,9 +19581,9 @@
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="137"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="133"/>
       <c r="O42" s="117"/>
       <c r="S42" s="40"/>
     </row>
@@ -19602,9 +19598,9 @@
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="133"/>
-      <c r="N43" s="137"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="133"/>
       <c r="O43" s="117"/>
       <c r="S43" s="40"/>
     </row>
@@ -19619,9 +19615,9 @@
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="137"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
+      <c r="N44" s="133"/>
       <c r="O44" s="117"/>
       <c r="S44" s="40"/>
     </row>
@@ -19636,9 +19632,9 @@
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="137"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="133"/>
       <c r="O45" s="117"/>
       <c r="S45" s="40"/>
     </row>
@@ -19653,9 +19649,9 @@
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="133"/>
-      <c r="N46" s="137"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="133"/>
       <c r="O46" s="117"/>
       <c r="S46" s="40"/>
     </row>
@@ -19670,9 +19666,9 @@
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
-      <c r="L47" s="133"/>
-      <c r="M47" s="133"/>
-      <c r="N47" s="137"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="133"/>
       <c r="O47" s="117"/>
       <c r="S47" s="40"/>
     </row>
@@ -19687,9 +19683,9 @@
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
-      <c r="L48" s="133"/>
-      <c r="M48" s="133"/>
-      <c r="N48" s="137"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
+      <c r="N48" s="133"/>
       <c r="O48" s="25"/>
       <c r="S48" s="40"/>
     </row>
@@ -19704,9 +19700,9 @@
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
-      <c r="L49" s="133"/>
-      <c r="M49" s="133"/>
-      <c r="N49" s="137"/>
+      <c r="L49" s="132"/>
+      <c r="M49" s="132"/>
+      <c r="N49" s="133"/>
       <c r="O49" s="25"/>
       <c r="S49" s="40"/>
     </row>
@@ -19721,9 +19717,9 @@
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
-      <c r="N50" s="137"/>
+      <c r="L50" s="132"/>
+      <c r="M50" s="132"/>
+      <c r="N50" s="133"/>
       <c r="O50" s="25"/>
       <c r="S50" s="40"/>
     </row>
@@ -19738,9 +19734,9 @@
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="133"/>
-      <c r="N51" s="137"/>
+      <c r="L51" s="132"/>
+      <c r="M51" s="132"/>
+      <c r="N51" s="133"/>
       <c r="O51" s="25"/>
       <c r="S51" s="40"/>
     </row>
@@ -19755,9 +19751,9 @@
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="137"/>
+      <c r="L52" s="132"/>
+      <c r="M52" s="132"/>
+      <c r="N52" s="133"/>
       <c r="O52" s="25"/>
       <c r="S52" s="40"/>
     </row>
@@ -19772,9 +19768,9 @@
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
-      <c r="L53" s="133"/>
-      <c r="M53" s="133"/>
-      <c r="N53" s="137"/>
+      <c r="L53" s="132"/>
+      <c r="M53" s="132"/>
+      <c r="N53" s="133"/>
       <c r="O53" s="25"/>
       <c r="S53" s="40"/>
     </row>
@@ -19789,9 +19785,9 @@
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
-      <c r="L54" s="133"/>
-      <c r="M54" s="133"/>
-      <c r="N54" s="137"/>
+      <c r="L54" s="132"/>
+      <c r="M54" s="132"/>
+      <c r="N54" s="133"/>
       <c r="O54" s="25"/>
       <c r="S54" s="40"/>
     </row>
@@ -19806,9 +19802,9 @@
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
-      <c r="L55" s="133"/>
-      <c r="M55" s="133"/>
-      <c r="N55" s="137"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="132"/>
+      <c r="N55" s="133"/>
       <c r="O55" s="25"/>
       <c r="S55" s="40"/>
     </row>
@@ -19823,9 +19819,9 @@
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
-      <c r="L56" s="133"/>
-      <c r="M56" s="133"/>
-      <c r="N56" s="137"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="133"/>
       <c r="O56" s="25"/>
       <c r="S56" s="40"/>
     </row>
@@ -19840,9 +19836,9 @@
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
-      <c r="L57" s="133"/>
-      <c r="M57" s="133"/>
-      <c r="N57" s="137"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="132"/>
+      <c r="N57" s="133"/>
       <c r="O57" s="25"/>
       <c r="S57" s="40"/>
     </row>
@@ -19857,9 +19853,9 @@
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
-      <c r="L58" s="133"/>
-      <c r="M58" s="133"/>
-      <c r="N58" s="137"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="133"/>
       <c r="O58" s="25"/>
       <c r="S58" s="40"/>
     </row>
@@ -19874,9 +19870,9 @@
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
-      <c r="L59" s="133"/>
-      <c r="M59" s="133"/>
-      <c r="N59" s="137"/>
+      <c r="L59" s="132"/>
+      <c r="M59" s="132"/>
+      <c r="N59" s="133"/>
       <c r="O59" s="25"/>
       <c r="S59" s="40"/>
     </row>
@@ -19891,9 +19887,9 @@
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
-      <c r="L60" s="133"/>
-      <c r="M60" s="133"/>
-      <c r="N60" s="137"/>
+      <c r="L60" s="132"/>
+      <c r="M60" s="132"/>
+      <c r="N60" s="133"/>
       <c r="O60" s="25"/>
       <c r="S60" s="40"/>
     </row>
@@ -19908,9 +19904,9 @@
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
-      <c r="L61" s="133"/>
-      <c r="M61" s="133"/>
-      <c r="N61" s="137"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="132"/>
+      <c r="N61" s="133"/>
       <c r="O61" s="25"/>
       <c r="S61" s="40"/>
     </row>
@@ -19925,9 +19921,9 @@
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="133"/>
-      <c r="N62" s="137"/>
+      <c r="L62" s="132"/>
+      <c r="M62" s="132"/>
+      <c r="N62" s="133"/>
       <c r="O62" s="25"/>
       <c r="S62" s="40"/>
     </row>
@@ -19942,9 +19938,9 @@
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
-      <c r="L63" s="133"/>
-      <c r="M63" s="133"/>
-      <c r="N63" s="137"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="132"/>
+      <c r="N63" s="133"/>
       <c r="O63" s="25"/>
       <c r="S63" s="40"/>
     </row>
@@ -19959,9 +19955,9 @@
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
-      <c r="L64" s="133"/>
-      <c r="M64" s="133"/>
-      <c r="N64" s="137"/>
+      <c r="L64" s="132"/>
+      <c r="M64" s="132"/>
+      <c r="N64" s="133"/>
       <c r="O64" s="25"/>
       <c r="S64" s="40"/>
     </row>
@@ -19976,9 +19972,9 @@
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="133"/>
-      <c r="N65" s="137"/>
+      <c r="L65" s="132"/>
+      <c r="M65" s="132"/>
+      <c r="N65" s="133"/>
       <c r="O65" s="25"/>
       <c r="S65" s="40"/>
     </row>
@@ -19993,9 +19989,9 @@
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
-      <c r="L66" s="133"/>
-      <c r="M66" s="133"/>
-      <c r="N66" s="137"/>
+      <c r="L66" s="132"/>
+      <c r="M66" s="132"/>
+      <c r="N66" s="133"/>
       <c r="O66" s="25"/>
       <c r="S66" s="40"/>
     </row>
@@ -20010,9 +20006,9 @@
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
-      <c r="L67" s="133"/>
-      <c r="M67" s="133"/>
-      <c r="N67" s="137"/>
+      <c r="L67" s="132"/>
+      <c r="M67" s="132"/>
+      <c r="N67" s="133"/>
       <c r="O67" s="25"/>
       <c r="S67" s="40"/>
     </row>
@@ -20027,9 +20023,9 @@
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
-      <c r="L68" s="133"/>
-      <c r="M68" s="133"/>
-      <c r="N68" s="137"/>
+      <c r="L68" s="132"/>
+      <c r="M68" s="132"/>
+      <c r="N68" s="133"/>
       <c r="O68" s="25"/>
       <c r="S68" s="40"/>
     </row>
@@ -20044,9 +20040,9 @@
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
-      <c r="L69" s="133"/>
-      <c r="M69" s="133"/>
-      <c r="N69" s="137"/>
+      <c r="L69" s="132"/>
+      <c r="M69" s="132"/>
+      <c r="N69" s="133"/>
       <c r="O69" s="25"/>
       <c r="S69" s="40"/>
     </row>
@@ -20061,9 +20057,9 @@
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
-      <c r="L70" s="133"/>
-      <c r="M70" s="133"/>
-      <c r="N70" s="137"/>
+      <c r="L70" s="132"/>
+      <c r="M70" s="132"/>
+      <c r="N70" s="133"/>
       <c r="O70" s="25"/>
       <c r="S70" s="40"/>
     </row>
@@ -20105,7 +20101,7 @@
       <c r="Q72" s="46"/>
       <c r="R72" s="46"/>
     </row>
-    <row r="73" spans="1:16384" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="73" spans="1:16384" s="14" customFormat="1" ht="17.55">
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
       <c r="D73" s="55"/>
@@ -20124,7 +20120,7 @@
       <c r="Q73" s="46"/>
       <c r="R73" s="46"/>
     </row>
-    <row r="74" spans="1:16384" s="14" customFormat="1" ht="19.600000000000001" hidden="1" customHeight="1">
+    <row r="74" spans="1:16384" s="14" customFormat="1" ht="19.600000000000001" customHeight="1">
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
       <c r="D74" s="55"/>
@@ -20145,7 +20141,7 @@
       <c r="Q74" s="46"/>
       <c r="R74" s="46"/>
     </row>
-    <row r="75" spans="1:16384" s="14" customFormat="1" ht="17.55" hidden="1">
+    <row r="75" spans="1:16384" s="14" customFormat="1" ht="17.55">
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
       <c r="D75" s="55"/>
@@ -20164,7 +20160,7 @@
       <c r="Q75" s="46"/>
       <c r="R75" s="46"/>
     </row>
-    <row r="76" spans="1:16384" ht="32.25" hidden="1" customHeight="1">
+    <row r="76" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B76" s="102"/>
       <c r="C76" s="103"/>
       <c r="D76" s="104"/>
@@ -20178,7 +20174,7 @@
       <c r="L76" s="18"/>
       <c r="S76" s="40"/>
     </row>
-    <row r="77" spans="1:16384" ht="26.3" hidden="1" customHeight="1">
+    <row r="77" spans="1:16384" ht="26.3" customHeight="1">
       <c r="A77" s="115"/>
       <c r="B77" s="115" t="s">
         <v>57</v>
@@ -36566,7 +36562,7 @@
       <c r="XFC77" s="115"/>
       <c r="XFD77" s="115"/>
     </row>
-    <row r="78" spans="1:16384" ht="53.85" hidden="1">
+    <row r="78" spans="1:16384" ht="53.85">
       <c r="B78" s="7" t="s">
         <v>12</v>
       </c>
@@ -36609,7 +36605,7 @@
       <c r="O78" s="129"/>
       <c r="S78" s="40"/>
     </row>
-    <row r="79" spans="1:16384" ht="32.25" hidden="1" customHeight="1">
+    <row r="79" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B79" s="60"/>
       <c r="C79" s="67"/>
       <c r="D79" s="61"/>
@@ -36620,13 +36616,13 @@
       <c r="I79" s="24"/>
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
-      <c r="L79" s="130"/>
-      <c r="M79" s="130"/>
-      <c r="N79" s="24"/>
+      <c r="L79" s="132"/>
+      <c r="M79" s="132"/>
+      <c r="N79" s="133"/>
       <c r="O79" s="129"/>
       <c r="S79" s="40"/>
     </row>
-    <row r="80" spans="1:16384" ht="32.25" hidden="1" customHeight="1">
+    <row r="80" spans="1:16384" ht="32.25" customHeight="1">
       <c r="B80" s="60"/>
       <c r="C80" s="67"/>
       <c r="D80" s="61"/>
@@ -36637,13 +36633,13 @@
       <c r="I80" s="24"/>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
-      <c r="L80" s="130"/>
-      <c r="M80" s="130"/>
-      <c r="N80" s="24"/>
+      <c r="L80" s="132"/>
+      <c r="M80" s="132"/>
+      <c r="N80" s="133"/>
       <c r="O80" s="129"/>
       <c r="S80" s="40"/>
     </row>
-    <row r="81" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="81" spans="2:19" ht="32.25" customHeight="1">
       <c r="B81" s="60"/>
       <c r="C81" s="67"/>
       <c r="D81" s="61"/>
@@ -36654,13 +36650,13 @@
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
-      <c r="L81" s="130"/>
-      <c r="M81" s="130"/>
-      <c r="N81" s="24"/>
+      <c r="L81" s="132"/>
+      <c r="M81" s="132"/>
+      <c r="N81" s="133"/>
       <c r="O81" s="129"/>
       <c r="S81" s="40"/>
     </row>
-    <row r="82" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="82" spans="2:19" ht="32.25" customHeight="1">
       <c r="B82" s="60"/>
       <c r="C82" s="67"/>
       <c r="D82" s="61"/>
@@ -36671,13 +36667,13 @@
       <c r="I82" s="24"/>
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
-      <c r="L82" s="130"/>
-      <c r="M82" s="130"/>
-      <c r="N82" s="24"/>
+      <c r="L82" s="132"/>
+      <c r="M82" s="132"/>
+      <c r="N82" s="133"/>
       <c r="O82" s="129"/>
       <c r="S82" s="40"/>
     </row>
-    <row r="83" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="83" spans="2:19" ht="32.25" customHeight="1">
       <c r="B83" s="60"/>
       <c r="C83" s="67"/>
       <c r="D83" s="61"/>
@@ -36688,13 +36684,13 @@
       <c r="I83" s="24"/>
       <c r="J83" s="24"/>
       <c r="K83" s="24"/>
-      <c r="L83" s="130"/>
-      <c r="M83" s="130"/>
-      <c r="N83" s="24"/>
+      <c r="L83" s="132"/>
+      <c r="M83" s="132"/>
+      <c r="N83" s="133"/>
       <c r="O83" s="129"/>
       <c r="S83" s="40"/>
     </row>
-    <row r="84" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="84" spans="2:19" ht="32.25" customHeight="1">
       <c r="B84" s="60"/>
       <c r="C84" s="67"/>
       <c r="D84" s="61"/>
@@ -36705,13 +36701,13 @@
       <c r="I84" s="24"/>
       <c r="J84" s="24"/>
       <c r="K84" s="24"/>
-      <c r="L84" s="130"/>
-      <c r="M84" s="130"/>
-      <c r="N84" s="24"/>
+      <c r="L84" s="132"/>
+      <c r="M84" s="132"/>
+      <c r="N84" s="133"/>
       <c r="O84" s="129"/>
       <c r="S84" s="40"/>
     </row>
-    <row r="85" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="85" spans="2:19" ht="32.25" customHeight="1">
       <c r="B85" s="60"/>
       <c r="C85" s="67"/>
       <c r="D85" s="61"/>
@@ -36722,13 +36718,13 @@
       <c r="I85" s="24"/>
       <c r="J85" s="24"/>
       <c r="K85" s="24"/>
-      <c r="L85" s="130"/>
-      <c r="M85" s="130"/>
-      <c r="N85" s="24"/>
+      <c r="L85" s="132"/>
+      <c r="M85" s="132"/>
+      <c r="N85" s="133"/>
       <c r="O85" s="129"/>
       <c r="S85" s="40"/>
     </row>
-    <row r="86" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="86" spans="2:19" ht="32.25" customHeight="1">
       <c r="B86" s="60"/>
       <c r="C86" s="67"/>
       <c r="D86" s="61"/>
@@ -36739,13 +36735,13 @@
       <c r="I86" s="24"/>
       <c r="J86" s="24"/>
       <c r="K86" s="24"/>
-      <c r="L86" s="130"/>
-      <c r="M86" s="130"/>
-      <c r="N86" s="24"/>
+      <c r="L86" s="132"/>
+      <c r="M86" s="132"/>
+      <c r="N86" s="133"/>
       <c r="O86" s="129"/>
       <c r="S86" s="40"/>
     </row>
-    <row r="87" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="87" spans="2:19" ht="32.25" customHeight="1">
       <c r="B87" s="60"/>
       <c r="C87" s="67"/>
       <c r="D87" s="61"/>
@@ -36756,13 +36752,13 @@
       <c r="I87" s="24"/>
       <c r="J87" s="24"/>
       <c r="K87" s="24"/>
-      <c r="L87" s="130"/>
-      <c r="M87" s="130"/>
-      <c r="N87" s="24"/>
+      <c r="L87" s="132"/>
+      <c r="M87" s="132"/>
+      <c r="N87" s="133"/>
       <c r="O87" s="129"/>
       <c r="S87" s="40"/>
     </row>
-    <row r="88" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="88" spans="2:19" ht="32.25" customHeight="1">
       <c r="B88" s="60"/>
       <c r="C88" s="67"/>
       <c r="D88" s="61"/>
@@ -36773,13 +36769,13 @@
       <c r="I88" s="24"/>
       <c r="J88" s="24"/>
       <c r="K88" s="24"/>
-      <c r="L88" s="130"/>
-      <c r="M88" s="130"/>
-      <c r="N88" s="24"/>
+      <c r="L88" s="132"/>
+      <c r="M88" s="132"/>
+      <c r="N88" s="133"/>
       <c r="O88" s="129"/>
       <c r="S88" s="40"/>
     </row>
-    <row r="89" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="89" spans="2:19" ht="32.25" customHeight="1">
       <c r="B89" s="60"/>
       <c r="C89" s="67"/>
       <c r="D89" s="61"/>
@@ -36790,13 +36786,13 @@
       <c r="I89" s="24"/>
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
-      <c r="L89" s="130"/>
-      <c r="M89" s="130"/>
-      <c r="N89" s="24"/>
+      <c r="L89" s="132"/>
+      <c r="M89" s="132"/>
+      <c r="N89" s="133"/>
       <c r="O89" s="129"/>
       <c r="S89" s="40"/>
     </row>
-    <row r="90" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="90" spans="2:19" ht="32.25" customHeight="1">
       <c r="B90" s="60"/>
       <c r="C90" s="67"/>
       <c r="D90" s="61"/>
@@ -36807,13 +36803,13 @@
       <c r="I90" s="24"/>
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
-      <c r="L90" s="130"/>
-      <c r="M90" s="130"/>
-      <c r="N90" s="24"/>
+      <c r="L90" s="132"/>
+      <c r="M90" s="132"/>
+      <c r="N90" s="133"/>
       <c r="O90" s="129"/>
       <c r="S90" s="40"/>
     </row>
-    <row r="91" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="91" spans="2:19" ht="32.25" customHeight="1">
       <c r="B91" s="60"/>
       <c r="C91" s="67"/>
       <c r="D91" s="61"/>
@@ -36824,13 +36820,13 @@
       <c r="I91" s="24"/>
       <c r="J91" s="24"/>
       <c r="K91" s="24"/>
-      <c r="L91" s="130"/>
-      <c r="M91" s="130"/>
-      <c r="N91" s="24"/>
+      <c r="L91" s="132"/>
+      <c r="M91" s="132"/>
+      <c r="N91" s="133"/>
       <c r="O91" s="129"/>
       <c r="S91" s="40"/>
     </row>
-    <row r="92" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="92" spans="2:19" ht="32.25" customHeight="1">
       <c r="B92" s="60"/>
       <c r="C92" s="67"/>
       <c r="D92" s="61"/>
@@ -36841,13 +36837,13 @@
       <c r="I92" s="24"/>
       <c r="J92" s="24"/>
       <c r="K92" s="24"/>
-      <c r="L92" s="130"/>
-      <c r="M92" s="130"/>
-      <c r="N92" s="24"/>
+      <c r="L92" s="132"/>
+      <c r="M92" s="132"/>
+      <c r="N92" s="133"/>
       <c r="O92" s="129"/>
       <c r="S92" s="40"/>
     </row>
-    <row r="93" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="93" spans="2:19" ht="32.25" customHeight="1">
       <c r="B93" s="60"/>
       <c r="C93" s="67"/>
       <c r="D93" s="61"/>
@@ -36858,13 +36854,13 @@
       <c r="I93" s="24"/>
       <c r="J93" s="24"/>
       <c r="K93" s="24"/>
-      <c r="L93" s="130"/>
-      <c r="M93" s="130"/>
-      <c r="N93" s="24"/>
+      <c r="L93" s="132"/>
+      <c r="M93" s="132"/>
+      <c r="N93" s="133"/>
       <c r="O93" s="129"/>
       <c r="S93" s="40"/>
     </row>
-    <row r="94" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="94" spans="2:19" ht="32.25" customHeight="1">
       <c r="B94" s="60"/>
       <c r="C94" s="67"/>
       <c r="D94" s="61"/>
@@ -36875,13 +36871,13 @@
       <c r="I94" s="24"/>
       <c r="J94" s="24"/>
       <c r="K94" s="24"/>
-      <c r="L94" s="130"/>
-      <c r="M94" s="130"/>
-      <c r="N94" s="24"/>
+      <c r="L94" s="132"/>
+      <c r="M94" s="132"/>
+      <c r="N94" s="133"/>
       <c r="O94" s="129"/>
       <c r="S94" s="40"/>
     </row>
-    <row r="95" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="95" spans="2:19" ht="32.25" customHeight="1">
       <c r="B95" s="60"/>
       <c r="C95" s="67"/>
       <c r="D95" s="61"/>
@@ -36892,13 +36888,13 @@
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
       <c r="K95" s="24"/>
-      <c r="L95" s="130"/>
-      <c r="M95" s="130"/>
-      <c r="N95" s="24"/>
+      <c r="L95" s="132"/>
+      <c r="M95" s="132"/>
+      <c r="N95" s="133"/>
       <c r="O95" s="129"/>
       <c r="S95" s="40"/>
     </row>
-    <row r="96" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="96" spans="2:19" ht="32.25" customHeight="1">
       <c r="B96" s="60"/>
       <c r="C96" s="67"/>
       <c r="D96" s="61"/>
@@ -36909,13 +36905,13 @@
       <c r="I96" s="24"/>
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
-      <c r="L96" s="130"/>
-      <c r="M96" s="130"/>
-      <c r="N96" s="24"/>
+      <c r="L96" s="132"/>
+      <c r="M96" s="132"/>
+      <c r="N96" s="133"/>
       <c r="O96" s="129"/>
       <c r="S96" s="40"/>
     </row>
-    <row r="97" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="97" spans="2:19" ht="32.25" customHeight="1">
       <c r="B97" s="60"/>
       <c r="C97" s="67"/>
       <c r="D97" s="61"/>
@@ -36926,13 +36922,13 @@
       <c r="I97" s="24"/>
       <c r="J97" s="24"/>
       <c r="K97" s="24"/>
-      <c r="L97" s="130"/>
-      <c r="M97" s="130"/>
-      <c r="N97" s="24"/>
+      <c r="L97" s="132"/>
+      <c r="M97" s="132"/>
+      <c r="N97" s="133"/>
       <c r="O97" s="129"/>
       <c r="S97" s="40"/>
     </row>
-    <row r="98" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="98" spans="2:19" ht="32.25" customHeight="1">
       <c r="B98" s="60"/>
       <c r="C98" s="67"/>
       <c r="D98" s="61"/>
@@ -36943,13 +36939,13 @@
       <c r="I98" s="24"/>
       <c r="J98" s="24"/>
       <c r="K98" s="24"/>
-      <c r="L98" s="130"/>
-      <c r="M98" s="130"/>
-      <c r="N98" s="24"/>
+      <c r="L98" s="132"/>
+      <c r="M98" s="132"/>
+      <c r="N98" s="133"/>
       <c r="O98" s="129"/>
       <c r="S98" s="40"/>
     </row>
-    <row r="99" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="99" spans="2:19" ht="32.25" customHeight="1">
       <c r="B99" s="60"/>
       <c r="C99" s="67"/>
       <c r="D99" s="61"/>
@@ -36960,13 +36956,13 @@
       <c r="I99" s="24"/>
       <c r="J99" s="24"/>
       <c r="K99" s="24"/>
-      <c r="L99" s="130"/>
-      <c r="M99" s="130"/>
-      <c r="N99" s="24"/>
+      <c r="L99" s="132"/>
+      <c r="M99" s="132"/>
+      <c r="N99" s="133"/>
       <c r="O99" s="129"/>
       <c r="S99" s="40"/>
     </row>
-    <row r="100" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="100" spans="2:19" ht="32.25" customHeight="1">
       <c r="B100" s="60"/>
       <c r="C100" s="67"/>
       <c r="D100" s="61"/>
@@ -36977,13 +36973,13 @@
       <c r="I100" s="24"/>
       <c r="J100" s="24"/>
       <c r="K100" s="24"/>
-      <c r="L100" s="130"/>
-      <c r="M100" s="130"/>
-      <c r="N100" s="24"/>
+      <c r="L100" s="132"/>
+      <c r="M100" s="132"/>
+      <c r="N100" s="133"/>
       <c r="O100" s="129"/>
       <c r="S100" s="40"/>
     </row>
-    <row r="101" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="101" spans="2:19" ht="32.25" customHeight="1">
       <c r="B101" s="60"/>
       <c r="C101" s="67"/>
       <c r="D101" s="61"/>
@@ -36994,13 +36990,13 @@
       <c r="I101" s="24"/>
       <c r="J101" s="24"/>
       <c r="K101" s="24"/>
-      <c r="L101" s="130"/>
-      <c r="M101" s="130"/>
-      <c r="N101" s="24"/>
+      <c r="L101" s="132"/>
+      <c r="M101" s="132"/>
+      <c r="N101" s="133"/>
       <c r="O101" s="129"/>
       <c r="S101" s="40"/>
     </row>
-    <row r="102" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="102" spans="2:19" ht="32.25" customHeight="1">
       <c r="B102" s="60"/>
       <c r="C102" s="67"/>
       <c r="D102" s="61"/>
@@ -37011,13 +37007,13 @@
       <c r="I102" s="24"/>
       <c r="J102" s="24"/>
       <c r="K102" s="24"/>
-      <c r="L102" s="130"/>
-      <c r="M102" s="130"/>
-      <c r="N102" s="24"/>
+      <c r="L102" s="132"/>
+      <c r="M102" s="132"/>
+      <c r="N102" s="133"/>
       <c r="O102" s="129"/>
       <c r="S102" s="40"/>
     </row>
-    <row r="103" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="103" spans="2:19" ht="32.25" customHeight="1">
       <c r="B103" s="60"/>
       <c r="C103" s="67"/>
       <c r="D103" s="61"/>
@@ -37028,13 +37024,13 @@
       <c r="I103" s="24"/>
       <c r="J103" s="24"/>
       <c r="K103" s="24"/>
-      <c r="L103" s="130"/>
-      <c r="M103" s="130"/>
-      <c r="N103" s="24"/>
+      <c r="L103" s="132"/>
+      <c r="M103" s="132"/>
+      <c r="N103" s="133"/>
       <c r="O103" s="129"/>
       <c r="S103" s="40"/>
     </row>
-    <row r="104" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="104" spans="2:19" ht="32.25" customHeight="1">
       <c r="B104" s="60"/>
       <c r="C104" s="67"/>
       <c r="D104" s="61"/>
@@ -37045,13 +37041,13 @@
       <c r="I104" s="24"/>
       <c r="J104" s="24"/>
       <c r="K104" s="24"/>
-      <c r="L104" s="130"/>
-      <c r="M104" s="130"/>
-      <c r="N104" s="24"/>
+      <c r="L104" s="132"/>
+      <c r="M104" s="132"/>
+      <c r="N104" s="133"/>
       <c r="O104" s="129"/>
       <c r="S104" s="40"/>
     </row>
-    <row r="105" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="105" spans="2:19" ht="32.25" customHeight="1">
       <c r="B105" s="60"/>
       <c r="C105" s="67"/>
       <c r="D105" s="61"/>
@@ -37062,13 +37058,13 @@
       <c r="I105" s="24"/>
       <c r="J105" s="24"/>
       <c r="K105" s="24"/>
-      <c r="L105" s="130"/>
-      <c r="M105" s="130"/>
-      <c r="N105" s="24"/>
+      <c r="L105" s="132"/>
+      <c r="M105" s="132"/>
+      <c r="N105" s="133"/>
       <c r="O105" s="129"/>
       <c r="S105" s="40"/>
     </row>
-    <row r="106" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="106" spans="2:19" ht="32.25" customHeight="1">
       <c r="B106" s="60"/>
       <c r="C106" s="67"/>
       <c r="D106" s="61"/>
@@ -37079,13 +37075,13 @@
       <c r="I106" s="24"/>
       <c r="J106" s="24"/>
       <c r="K106" s="24"/>
-      <c r="L106" s="130"/>
-      <c r="M106" s="130"/>
-      <c r="N106" s="24"/>
+      <c r="L106" s="132"/>
+      <c r="M106" s="132"/>
+      <c r="N106" s="133"/>
       <c r="O106" s="129"/>
       <c r="S106" s="40"/>
     </row>
-    <row r="107" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="107" spans="2:19" ht="32.25" customHeight="1">
       <c r="B107" s="60"/>
       <c r="C107" s="67"/>
       <c r="D107" s="61"/>
@@ -37096,13 +37092,13 @@
       <c r="I107" s="24"/>
       <c r="J107" s="24"/>
       <c r="K107" s="24"/>
-      <c r="L107" s="130"/>
-      <c r="M107" s="130"/>
-      <c r="N107" s="24"/>
+      <c r="L107" s="132"/>
+      <c r="M107" s="132"/>
+      <c r="N107" s="133"/>
       <c r="O107" s="129"/>
       <c r="S107" s="40"/>
     </row>
-    <row r="108" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="108" spans="2:19" ht="32.25" customHeight="1">
       <c r="B108" s="60"/>
       <c r="C108" s="67"/>
       <c r="D108" s="61"/>
@@ -37113,13 +37109,13 @@
       <c r="I108" s="24"/>
       <c r="J108" s="24"/>
       <c r="K108" s="24"/>
-      <c r="L108" s="130"/>
-      <c r="M108" s="130"/>
-      <c r="N108" s="24"/>
+      <c r="L108" s="132"/>
+      <c r="M108" s="132"/>
+      <c r="N108" s="133"/>
       <c r="O108" s="129"/>
       <c r="S108" s="40"/>
     </row>
-    <row r="109" spans="2:19" ht="32.25" hidden="1" customHeight="1">
+    <row r="109" spans="2:19" ht="32.25" customHeight="1">
       <c r="B109" s="102"/>
       <c r="C109" s="103"/>
       <c r="D109" s="104"/>
@@ -53638,9 +53634,9 @@
       <c r="I116" s="24"/>
       <c r="J116" s="24"/>
       <c r="K116" s="24"/>
-      <c r="L116" s="133"/>
-      <c r="M116" s="133"/>
-      <c r="N116" s="137"/>
+      <c r="L116" s="132"/>
+      <c r="M116" s="132"/>
+      <c r="N116" s="133"/>
       <c r="O116" s="117"/>
       <c r="S116" s="40"/>
     </row>
@@ -53655,9 +53651,9 @@
       <c r="I117" s="24"/>
       <c r="J117" s="24"/>
       <c r="K117" s="24"/>
-      <c r="L117" s="133"/>
-      <c r="M117" s="133"/>
-      <c r="N117" s="137"/>
+      <c r="L117" s="132"/>
+      <c r="M117" s="132"/>
+      <c r="N117" s="133"/>
       <c r="O117" s="117"/>
       <c r="S117" s="40"/>
     </row>
@@ -53672,9 +53668,9 @@
       <c r="I118" s="24"/>
       <c r="J118" s="24"/>
       <c r="K118" s="24"/>
-      <c r="L118" s="133"/>
-      <c r="M118" s="133"/>
-      <c r="N118" s="137"/>
+      <c r="L118" s="132"/>
+      <c r="M118" s="132"/>
+      <c r="N118" s="133"/>
       <c r="O118" s="117"/>
       <c r="S118" s="40"/>
     </row>
@@ -53689,9 +53685,9 @@
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
       <c r="K119" s="24"/>
-      <c r="L119" s="133"/>
-      <c r="M119" s="133"/>
-      <c r="N119" s="137"/>
+      <c r="L119" s="132"/>
+      <c r="M119" s="132"/>
+      <c r="N119" s="133"/>
       <c r="O119" s="117"/>
       <c r="S119" s="40"/>
     </row>
@@ -53706,9 +53702,9 @@
       <c r="I120" s="24"/>
       <c r="J120" s="24"/>
       <c r="K120" s="24"/>
-      <c r="L120" s="133"/>
-      <c r="M120" s="133"/>
-      <c r="N120" s="137"/>
+      <c r="L120" s="132"/>
+      <c r="M120" s="132"/>
+      <c r="N120" s="133"/>
       <c r="O120" s="117"/>
       <c r="S120" s="40"/>
     </row>
@@ -53723,9 +53719,9 @@
       <c r="I121" s="24"/>
       <c r="J121" s="24"/>
       <c r="K121" s="24"/>
-      <c r="L121" s="133"/>
-      <c r="M121" s="133"/>
-      <c r="N121" s="137"/>
+      <c r="L121" s="132"/>
+      <c r="M121" s="132"/>
+      <c r="N121" s="133"/>
       <c r="O121" s="117"/>
       <c r="S121" s="40"/>
     </row>
@@ -53740,9 +53736,9 @@
       <c r="I122" s="24"/>
       <c r="J122" s="24"/>
       <c r="K122" s="24"/>
-      <c r="L122" s="133"/>
-      <c r="M122" s="133"/>
-      <c r="N122" s="137"/>
+      <c r="L122" s="132"/>
+      <c r="M122" s="132"/>
+      <c r="N122" s="133"/>
       <c r="O122" s="117"/>
       <c r="S122" s="40"/>
     </row>
@@ -53757,9 +53753,9 @@
       <c r="I123" s="24"/>
       <c r="J123" s="24"/>
       <c r="K123" s="24"/>
-      <c r="L123" s="133"/>
-      <c r="M123" s="133"/>
-      <c r="N123" s="137"/>
+      <c r="L123" s="132"/>
+      <c r="M123" s="132"/>
+      <c r="N123" s="133"/>
       <c r="O123" s="25"/>
       <c r="S123" s="40"/>
     </row>
@@ -53774,9 +53770,9 @@
       <c r="I124" s="24"/>
       <c r="J124" s="24"/>
       <c r="K124" s="24"/>
-      <c r="L124" s="133"/>
-      <c r="M124" s="133"/>
-      <c r="N124" s="137"/>
+      <c r="L124" s="132"/>
+      <c r="M124" s="132"/>
+      <c r="N124" s="133"/>
       <c r="O124" s="25"/>
       <c r="S124" s="40"/>
     </row>
@@ -53791,9 +53787,9 @@
       <c r="I125" s="24"/>
       <c r="J125" s="24"/>
       <c r="K125" s="24"/>
-      <c r="L125" s="133"/>
-      <c r="M125" s="133"/>
-      <c r="N125" s="137"/>
+      <c r="L125" s="132"/>
+      <c r="M125" s="132"/>
+      <c r="N125" s="133"/>
       <c r="O125" s="25"/>
       <c r="S125" s="40"/>
     </row>
@@ -53808,9 +53804,9 @@
       <c r="I126" s="24"/>
       <c r="J126" s="24"/>
       <c r="K126" s="24"/>
-      <c r="L126" s="133"/>
-      <c r="M126" s="133"/>
-      <c r="N126" s="137"/>
+      <c r="L126" s="132"/>
+      <c r="M126" s="132"/>
+      <c r="N126" s="133"/>
       <c r="O126" s="25"/>
       <c r="S126" s="40"/>
     </row>
@@ -53825,9 +53821,9 @@
       <c r="I127" s="24"/>
       <c r="J127" s="24"/>
       <c r="K127" s="24"/>
-      <c r="L127" s="133"/>
-      <c r="M127" s="133"/>
-      <c r="N127" s="137"/>
+      <c r="L127" s="132"/>
+      <c r="M127" s="132"/>
+      <c r="N127" s="133"/>
       <c r="O127" s="25"/>
       <c r="S127" s="40"/>
     </row>
@@ -53842,9 +53838,9 @@
       <c r="I128" s="24"/>
       <c r="J128" s="24"/>
       <c r="K128" s="24"/>
-      <c r="L128" s="133"/>
-      <c r="M128" s="133"/>
-      <c r="N128" s="137"/>
+      <c r="L128" s="132"/>
+      <c r="M128" s="132"/>
+      <c r="N128" s="133"/>
       <c r="O128" s="25"/>
       <c r="S128" s="40"/>
     </row>
@@ -53859,9 +53855,9 @@
       <c r="I129" s="24"/>
       <c r="J129" s="24"/>
       <c r="K129" s="24"/>
-      <c r="L129" s="133"/>
-      <c r="M129" s="133"/>
-      <c r="N129" s="137"/>
+      <c r="L129" s="132"/>
+      <c r="M129" s="132"/>
+      <c r="N129" s="133"/>
       <c r="O129" s="25"/>
       <c r="S129" s="40"/>
     </row>
@@ -53876,9 +53872,9 @@
       <c r="I130" s="24"/>
       <c r="J130" s="24"/>
       <c r="K130" s="24"/>
-      <c r="L130" s="133"/>
-      <c r="M130" s="133"/>
-      <c r="N130" s="137"/>
+      <c r="L130" s="132"/>
+      <c r="M130" s="132"/>
+      <c r="N130" s="133"/>
       <c r="O130" s="25"/>
       <c r="S130" s="40"/>
     </row>
@@ -53893,9 +53889,9 @@
       <c r="I131" s="24"/>
       <c r="J131" s="24"/>
       <c r="K131" s="24"/>
-      <c r="L131" s="133"/>
-      <c r="M131" s="133"/>
-      <c r="N131" s="137"/>
+      <c r="L131" s="132"/>
+      <c r="M131" s="132"/>
+      <c r="N131" s="133"/>
       <c r="O131" s="25"/>
       <c r="S131" s="40"/>
     </row>
@@ -53910,9 +53906,9 @@
       <c r="I132" s="24"/>
       <c r="J132" s="24"/>
       <c r="K132" s="24"/>
-      <c r="L132" s="133"/>
-      <c r="M132" s="133"/>
-      <c r="N132" s="137"/>
+      <c r="L132" s="132"/>
+      <c r="M132" s="132"/>
+      <c r="N132" s="133"/>
       <c r="O132" s="25"/>
       <c r="S132" s="40"/>
     </row>
@@ -53927,9 +53923,9 @@
       <c r="I133" s="24"/>
       <c r="J133" s="24"/>
       <c r="K133" s="24"/>
-      <c r="L133" s="133"/>
-      <c r="M133" s="133"/>
-      <c r="N133" s="137"/>
+      <c r="L133" s="132"/>
+      <c r="M133" s="132"/>
+      <c r="N133" s="133"/>
       <c r="O133" s="25"/>
       <c r="S133" s="40"/>
     </row>
@@ -53944,9 +53940,9 @@
       <c r="I134" s="24"/>
       <c r="J134" s="24"/>
       <c r="K134" s="24"/>
-      <c r="L134" s="133"/>
-      <c r="M134" s="133"/>
-      <c r="N134" s="137"/>
+      <c r="L134" s="132"/>
+      <c r="M134" s="132"/>
+      <c r="N134" s="133"/>
       <c r="O134" s="25"/>
       <c r="S134" s="40"/>
     </row>
@@ -53961,9 +53957,9 @@
       <c r="I135" s="24"/>
       <c r="J135" s="24"/>
       <c r="K135" s="24"/>
-      <c r="L135" s="133"/>
-      <c r="M135" s="133"/>
-      <c r="N135" s="137"/>
+      <c r="L135" s="132"/>
+      <c r="M135" s="132"/>
+      <c r="N135" s="133"/>
       <c r="O135" s="25"/>
       <c r="S135" s="40"/>
     </row>
@@ -53978,9 +53974,9 @@
       <c r="I136" s="24"/>
       <c r="J136" s="24"/>
       <c r="K136" s="24"/>
-      <c r="L136" s="133"/>
-      <c r="M136" s="133"/>
-      <c r="N136" s="137"/>
+      <c r="L136" s="132"/>
+      <c r="M136" s="132"/>
+      <c r="N136" s="133"/>
       <c r="O136" s="25"/>
       <c r="S136" s="40"/>
     </row>
@@ -53995,9 +53991,9 @@
       <c r="I137" s="24"/>
       <c r="J137" s="24"/>
       <c r="K137" s="24"/>
-      <c r="L137" s="133"/>
-      <c r="M137" s="133"/>
-      <c r="N137" s="137"/>
+      <c r="L137" s="132"/>
+      <c r="M137" s="132"/>
+      <c r="N137" s="133"/>
       <c r="O137" s="25"/>
       <c r="S137" s="40"/>
     </row>
@@ -54012,9 +54008,9 @@
       <c r="I138" s="24"/>
       <c r="J138" s="24"/>
       <c r="K138" s="24"/>
-      <c r="L138" s="133"/>
-      <c r="M138" s="133"/>
-      <c r="N138" s="137"/>
+      <c r="L138" s="132"/>
+      <c r="M138" s="132"/>
+      <c r="N138" s="133"/>
       <c r="O138" s="25"/>
       <c r="S138" s="40"/>
     </row>
@@ -54029,9 +54025,9 @@
       <c r="I139" s="24"/>
       <c r="J139" s="24"/>
       <c r="K139" s="24"/>
-      <c r="L139" s="133"/>
-      <c r="M139" s="133"/>
-      <c r="N139" s="137"/>
+      <c r="L139" s="132"/>
+      <c r="M139" s="132"/>
+      <c r="N139" s="133"/>
       <c r="O139" s="25"/>
       <c r="S139" s="40"/>
     </row>
@@ -54046,9 +54042,9 @@
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
       <c r="K140" s="24"/>
-      <c r="L140" s="133"/>
-      <c r="M140" s="133"/>
-      <c r="N140" s="137"/>
+      <c r="L140" s="132"/>
+      <c r="M140" s="132"/>
+      <c r="N140" s="133"/>
       <c r="O140" s="25"/>
       <c r="S140" s="40"/>
     </row>
@@ -54063,9 +54059,9 @@
       <c r="I141" s="24"/>
       <c r="J141" s="24"/>
       <c r="K141" s="24"/>
-      <c r="L141" s="133"/>
-      <c r="M141" s="133"/>
-      <c r="N141" s="137"/>
+      <c r="L141" s="132"/>
+      <c r="M141" s="132"/>
+      <c r="N141" s="133"/>
       <c r="O141" s="25"/>
       <c r="S141" s="40"/>
     </row>
@@ -54080,9 +54076,9 @@
       <c r="I142" s="24"/>
       <c r="J142" s="24"/>
       <c r="K142" s="24"/>
-      <c r="L142" s="133"/>
-      <c r="M142" s="133"/>
-      <c r="N142" s="137"/>
+      <c r="L142" s="132"/>
+      <c r="M142" s="132"/>
+      <c r="N142" s="133"/>
       <c r="O142" s="25"/>
       <c r="S142" s="40"/>
     </row>
@@ -54097,9 +54093,9 @@
       <c r="I143" s="24"/>
       <c r="J143" s="24"/>
       <c r="K143" s="24"/>
-      <c r="L143" s="133"/>
-      <c r="M143" s="133"/>
-      <c r="N143" s="137"/>
+      <c r="L143" s="132"/>
+      <c r="M143" s="132"/>
+      <c r="N143" s="133"/>
       <c r="O143" s="25"/>
       <c r="S143" s="40"/>
     </row>
@@ -54114,9 +54110,9 @@
       <c r="I144" s="24"/>
       <c r="J144" s="24"/>
       <c r="K144" s="24"/>
-      <c r="L144" s="133"/>
-      <c r="M144" s="133"/>
-      <c r="N144" s="137"/>
+      <c r="L144" s="132"/>
+      <c r="M144" s="132"/>
+      <c r="N144" s="133"/>
       <c r="O144" s="25"/>
       <c r="S144" s="40"/>
     </row>
@@ -54131,9 +54127,9 @@
       <c r="I145" s="24"/>
       <c r="J145" s="24"/>
       <c r="K145" s="24"/>
-      <c r="L145" s="133"/>
-      <c r="M145" s="133"/>
-      <c r="N145" s="137"/>
+      <c r="L145" s="132"/>
+      <c r="M145" s="132"/>
+      <c r="N145" s="133"/>
       <c r="O145" s="25"/>
       <c r="S145" s="40"/>
     </row>
@@ -54243,7 +54239,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.35433070866141736" header="0.47244094488188981" footer="0"/>
-  <pageSetup paperSize="9" scale="21" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;C&amp;"標楷體,粗體"&amp;28股票期貨契約保證金狀況表
 標的證券為受益憑證&amp;R&amp;"標楷體,標準"&amp;16
@@ -54366,7 +54362,7 @@
       <c r="R2" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="131" t="s">
+      <c r="S2" s="130" t="s">
         <v>38</v>
       </c>
       <c r="T2" s="90" t="s">
@@ -54443,7 +54439,7 @@
       <c r="P3" s="78"/>
       <c r="Q3" s="78"/>
       <c r="R3" s="75"/>
-      <c r="S3" s="132"/>
+      <c r="S3" s="131"/>
       <c r="T3" s="79"/>
       <c r="U3" s="96"/>
       <c r="V3" s="97"/>
@@ -54482,7 +54478,7 @@
       <c r="P4" s="78"/>
       <c r="Q4" s="78"/>
       <c r="R4" s="75"/>
-      <c r="S4" s="132"/>
+      <c r="S4" s="131"/>
       <c r="T4" s="79"/>
       <c r="U4" s="96"/>
       <c r="V4" s="97"/>
@@ -54521,7 +54517,7 @@
       <c r="P5" s="78"/>
       <c r="Q5" s="78"/>
       <c r="R5" s="75"/>
-      <c r="S5" s="132"/>
+      <c r="S5" s="131"/>
       <c r="T5" s="79"/>
       <c r="U5" s="96"/>
       <c r="V5" s="97"/>
@@ -54560,7 +54556,7 @@
       <c r="P6" s="78"/>
       <c r="Q6" s="78"/>
       <c r="R6" s="75"/>
-      <c r="S6" s="132"/>
+      <c r="S6" s="131"/>
       <c r="T6" s="79"/>
       <c r="U6" s="96"/>
       <c r="V6" s="97"/>
@@ -54599,7 +54595,7 @@
       <c r="P7" s="78"/>
       <c r="Q7" s="78"/>
       <c r="R7" s="75"/>
-      <c r="S7" s="132"/>
+      <c r="S7" s="131"/>
       <c r="T7" s="79"/>
       <c r="U7" s="96"/>
       <c r="V7" s="97"/>
@@ -54638,7 +54634,7 @@
       <c r="P8" s="78"/>
       <c r="Q8" s="78"/>
       <c r="R8" s="75"/>
-      <c r="S8" s="132"/>
+      <c r="S8" s="131"/>
       <c r="T8" s="79"/>
       <c r="U8" s="96"/>
       <c r="V8" s="97"/>
@@ -54677,7 +54673,7 @@
       <c r="P9" s="78"/>
       <c r="Q9" s="78"/>
       <c r="R9" s="75"/>
-      <c r="S9" s="132"/>
+      <c r="S9" s="131"/>
       <c r="T9" s="79"/>
       <c r="U9" s="96"/>
       <c r="V9" s="97"/>
@@ -54716,7 +54712,7 @@
       <c r="P10" s="78"/>
       <c r="Q10" s="78"/>
       <c r="R10" s="75"/>
-      <c r="S10" s="132"/>
+      <c r="S10" s="131"/>
       <c r="T10" s="79"/>
       <c r="U10" s="96"/>
       <c r="V10" s="97"/>
@@ -54755,7 +54751,7 @@
       <c r="P11" s="78"/>
       <c r="Q11" s="78"/>
       <c r="R11" s="75"/>
-      <c r="S11" s="132"/>
+      <c r="S11" s="131"/>
       <c r="T11" s="79"/>
       <c r="U11" s="96"/>
       <c r="V11" s="97"/>
@@ -54794,7 +54790,7 @@
       <c r="P12" s="78"/>
       <c r="Q12" s="78"/>
       <c r="R12" s="75"/>
-      <c r="S12" s="132"/>
+      <c r="S12" s="131"/>
       <c r="T12" s="79"/>
       <c r="U12" s="96"/>
       <c r="V12" s="97"/>
@@ -54833,7 +54829,7 @@
       <c r="P13" s="78"/>
       <c r="Q13" s="78"/>
       <c r="R13" s="75"/>
-      <c r="S13" s="132"/>
+      <c r="S13" s="131"/>
       <c r="T13" s="79"/>
       <c r="U13" s="96"/>
       <c r="V13" s="97"/>
@@ -54872,7 +54868,7 @@
       <c r="P14" s="78"/>
       <c r="Q14" s="78"/>
       <c r="R14" s="75"/>
-      <c r="S14" s="132"/>
+      <c r="S14" s="131"/>
       <c r="T14" s="79"/>
       <c r="U14" s="96"/>
       <c r="V14" s="97"/>
@@ -54911,7 +54907,7 @@
       <c r="P15" s="78"/>
       <c r="Q15" s="78"/>
       <c r="R15" s="75"/>
-      <c r="S15" s="132"/>
+      <c r="S15" s="131"/>
       <c r="T15" s="79"/>
       <c r="U15" s="96"/>
       <c r="V15" s="97"/>
@@ -54950,7 +54946,7 @@
       <c r="P16" s="78"/>
       <c r="Q16" s="78"/>
       <c r="R16" s="75"/>
-      <c r="S16" s="132"/>
+      <c r="S16" s="131"/>
       <c r="T16" s="79"/>
       <c r="U16" s="96"/>
       <c r="V16" s="97"/>
@@ -54989,7 +54985,7 @@
       <c r="P17" s="78"/>
       <c r="Q17" s="78"/>
       <c r="R17" s="75"/>
-      <c r="S17" s="132"/>
+      <c r="S17" s="131"/>
       <c r="T17" s="79"/>
       <c r="U17" s="96"/>
       <c r="V17" s="97"/>
@@ -55028,7 +55024,7 @@
       <c r="P18" s="78"/>
       <c r="Q18" s="78"/>
       <c r="R18" s="75"/>
-      <c r="S18" s="132"/>
+      <c r="S18" s="131"/>
       <c r="T18" s="79"/>
       <c r="U18" s="96"/>
       <c r="V18" s="97"/>
@@ -55067,7 +55063,7 @@
       <c r="P19" s="78"/>
       <c r="Q19" s="78"/>
       <c r="R19" s="75"/>
-      <c r="S19" s="132"/>
+      <c r="S19" s="131"/>
       <c r="T19" s="79"/>
       <c r="U19" s="96"/>
       <c r="V19" s="97"/>
@@ -55106,7 +55102,7 @@
       <c r="P20" s="78"/>
       <c r="Q20" s="78"/>
       <c r="R20" s="75"/>
-      <c r="S20" s="132"/>
+      <c r="S20" s="131"/>
       <c r="T20" s="79"/>
       <c r="U20" s="96"/>
       <c r="V20" s="97"/>
@@ -55145,7 +55141,7 @@
       <c r="P21" s="78"/>
       <c r="Q21" s="78"/>
       <c r="R21" s="75"/>
-      <c r="S21" s="132"/>
+      <c r="S21" s="131"/>
       <c r="T21" s="79"/>
       <c r="U21" s="96"/>
       <c r="V21" s="97"/>
@@ -55184,7 +55180,7 @@
       <c r="P22" s="78"/>
       <c r="Q22" s="78"/>
       <c r="R22" s="75"/>
-      <c r="S22" s="132"/>
+      <c r="S22" s="131"/>
       <c r="T22" s="79"/>
       <c r="U22" s="96"/>
       <c r="V22" s="97"/>
@@ -55223,7 +55219,7 @@
       <c r="P23" s="78"/>
       <c r="Q23" s="78"/>
       <c r="R23" s="75"/>
-      <c r="S23" s="132"/>
+      <c r="S23" s="131"/>
       <c r="T23" s="79"/>
       <c r="U23" s="96"/>
       <c r="V23" s="97"/>
@@ -55262,7 +55258,7 @@
       <c r="P24" s="78"/>
       <c r="Q24" s="78"/>
       <c r="R24" s="75"/>
-      <c r="S24" s="132"/>
+      <c r="S24" s="131"/>
       <c r="T24" s="79"/>
       <c r="U24" s="96"/>
       <c r="V24" s="97"/>
@@ -55301,7 +55297,7 @@
       <c r="P25" s="78"/>
       <c r="Q25" s="78"/>
       <c r="R25" s="75"/>
-      <c r="S25" s="132"/>
+      <c r="S25" s="131"/>
       <c r="T25" s="79"/>
       <c r="U25" s="96"/>
       <c r="V25" s="97"/>
@@ -55340,7 +55336,7 @@
       <c r="P26" s="78"/>
       <c r="Q26" s="78"/>
       <c r="R26" s="75"/>
-      <c r="S26" s="132"/>
+      <c r="S26" s="131"/>
       <c r="T26" s="79"/>
       <c r="U26" s="96"/>
       <c r="V26" s="97"/>
@@ -55379,7 +55375,7 @@
       <c r="P27" s="78"/>
       <c r="Q27" s="78"/>
       <c r="R27" s="75"/>
-      <c r="S27" s="132"/>
+      <c r="S27" s="131"/>
       <c r="T27" s="79"/>
       <c r="U27" s="96"/>
       <c r="V27" s="97"/>
@@ -55418,7 +55414,7 @@
       <c r="P28" s="78"/>
       <c r="Q28" s="78"/>
       <c r="R28" s="75"/>
-      <c r="S28" s="132"/>
+      <c r="S28" s="131"/>
       <c r="T28" s="79"/>
       <c r="U28" s="96"/>
       <c r="V28" s="97"/>
@@ -55457,7 +55453,7 @@
       <c r="P29" s="78"/>
       <c r="Q29" s="78"/>
       <c r="R29" s="75"/>
-      <c r="S29" s="132"/>
+      <c r="S29" s="131"/>
       <c r="T29" s="79"/>
       <c r="U29" s="96"/>
       <c r="V29" s="97"/>
@@ -55496,7 +55492,7 @@
       <c r="P30" s="78"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="132"/>
+      <c r="S30" s="131"/>
       <c r="T30" s="79"/>
       <c r="U30" s="96"/>
       <c r="V30" s="97"/>

--- a/PhoenixCI/Excel_Template/43010.xlsx
+++ b/PhoenixCI/Excel_Template/43010.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>一、</t>
   </si>
@@ -960,160 +960,6 @@
   </si>
   <si>
     <r>
-      <t>註</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SMA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MAX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>計算之保證金變動幅度均未達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得調整標準，或雖達得調整標準但進位後金額不變，保證金維持現行收取標準。</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>註</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SMA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MAX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>計算之保證金變動幅度已達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得調整標準，且進位後金額改變，建議事項如「保證金調整審核會議紀錄」。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>結算保證金</t>
     </r>
     <r>
@@ -1189,6 +1035,92 @@
   </si>
   <si>
     <t>3.簡單移動平均法-日內變動(MAX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>註</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：以各項指標計算之保證金變動幅度均未達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準，或雖達得調整標準但進位後金額不變，保證金維持現行收取標準。</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>註</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：以各項指標計算之保證金變動幅度已達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>得調整標準，且進位後金額改變，詳如二、本日結算保證金各表所示。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2332,8 +2264,8 @@
   </sheetPr>
   <dimension ref="A1:XFD151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A99" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A139" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.7"/>
@@ -2411,13 +2343,13 @@
         <v>4</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M2" s="42"/>
       <c r="N2" s="42"/>
@@ -36602,7 +36534,9 @@
       <c r="N78" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="O78" s="129"/>
+      <c r="O78" s="116" t="s">
+        <v>30</v>
+      </c>
       <c r="S78" s="40"/>
     </row>
     <row r="79" spans="1:16384" ht="32.25" customHeight="1">
@@ -36619,7 +36553,7 @@
       <c r="L79" s="132"/>
       <c r="M79" s="132"/>
       <c r="N79" s="133"/>
-      <c r="O79" s="129"/>
+      <c r="O79" s="117"/>
       <c r="S79" s="40"/>
     </row>
     <row r="80" spans="1:16384" ht="32.25" customHeight="1">
@@ -36636,7 +36570,7 @@
       <c r="L80" s="132"/>
       <c r="M80" s="132"/>
       <c r="N80" s="133"/>
-      <c r="O80" s="129"/>
+      <c r="O80" s="117"/>
       <c r="S80" s="40"/>
     </row>
     <row r="81" spans="2:19" ht="32.25" customHeight="1">
@@ -36653,7 +36587,7 @@
       <c r="L81" s="132"/>
       <c r="M81" s="132"/>
       <c r="N81" s="133"/>
-      <c r="O81" s="129"/>
+      <c r="O81" s="117"/>
       <c r="S81" s="40"/>
     </row>
     <row r="82" spans="2:19" ht="32.25" customHeight="1">
@@ -36670,7 +36604,7 @@
       <c r="L82" s="132"/>
       <c r="M82" s="132"/>
       <c r="N82" s="133"/>
-      <c r="O82" s="129"/>
+      <c r="O82" s="117"/>
       <c r="S82" s="40"/>
     </row>
     <row r="83" spans="2:19" ht="32.25" customHeight="1">
@@ -36687,7 +36621,7 @@
       <c r="L83" s="132"/>
       <c r="M83" s="132"/>
       <c r="N83" s="133"/>
-      <c r="O83" s="129"/>
+      <c r="O83" s="117"/>
       <c r="S83" s="40"/>
     </row>
     <row r="84" spans="2:19" ht="32.25" customHeight="1">
@@ -36704,7 +36638,7 @@
       <c r="L84" s="132"/>
       <c r="M84" s="132"/>
       <c r="N84" s="133"/>
-      <c r="O84" s="129"/>
+      <c r="O84" s="117"/>
       <c r="S84" s="40"/>
     </row>
     <row r="85" spans="2:19" ht="32.25" customHeight="1">
@@ -36721,7 +36655,7 @@
       <c r="L85" s="132"/>
       <c r="M85" s="132"/>
       <c r="N85" s="133"/>
-      <c r="O85" s="129"/>
+      <c r="O85" s="117"/>
       <c r="S85" s="40"/>
     </row>
     <row r="86" spans="2:19" ht="32.25" customHeight="1">
@@ -36738,7 +36672,7 @@
       <c r="L86" s="132"/>
       <c r="M86" s="132"/>
       <c r="N86" s="133"/>
-      <c r="O86" s="129"/>
+      <c r="O86" s="25"/>
       <c r="S86" s="40"/>
     </row>
     <row r="87" spans="2:19" ht="32.25" customHeight="1">
@@ -36755,7 +36689,7 @@
       <c r="L87" s="132"/>
       <c r="M87" s="132"/>
       <c r="N87" s="133"/>
-      <c r="O87" s="129"/>
+      <c r="O87" s="25"/>
       <c r="S87" s="40"/>
     </row>
     <row r="88" spans="2:19" ht="32.25" customHeight="1">
@@ -36772,7 +36706,7 @@
       <c r="L88" s="132"/>
       <c r="M88" s="132"/>
       <c r="N88" s="133"/>
-      <c r="O88" s="129"/>
+      <c r="O88" s="25"/>
       <c r="S88" s="40"/>
     </row>
     <row r="89" spans="2:19" ht="32.25" customHeight="1">
@@ -36789,7 +36723,7 @@
       <c r="L89" s="132"/>
       <c r="M89" s="132"/>
       <c r="N89" s="133"/>
-      <c r="O89" s="129"/>
+      <c r="O89" s="25"/>
       <c r="S89" s="40"/>
     </row>
     <row r="90" spans="2:19" ht="32.25" customHeight="1">
@@ -36806,7 +36740,7 @@
       <c r="L90" s="132"/>
       <c r="M90" s="132"/>
       <c r="N90" s="133"/>
-      <c r="O90" s="129"/>
+      <c r="O90" s="25"/>
       <c r="S90" s="40"/>
     </row>
     <row r="91" spans="2:19" ht="32.25" customHeight="1">
@@ -36823,7 +36757,7 @@
       <c r="L91" s="132"/>
       <c r="M91" s="132"/>
       <c r="N91" s="133"/>
-      <c r="O91" s="129"/>
+      <c r="O91" s="25"/>
       <c r="S91" s="40"/>
     </row>
     <row r="92" spans="2:19" ht="32.25" customHeight="1">
@@ -36840,7 +36774,7 @@
       <c r="L92" s="132"/>
       <c r="M92" s="132"/>
       <c r="N92" s="133"/>
-      <c r="O92" s="129"/>
+      <c r="O92" s="25"/>
       <c r="S92" s="40"/>
     </row>
     <row r="93" spans="2:19" ht="32.25" customHeight="1">
@@ -36857,7 +36791,7 @@
       <c r="L93" s="132"/>
       <c r="M93" s="132"/>
       <c r="N93" s="133"/>
-      <c r="O93" s="129"/>
+      <c r="O93" s="25"/>
       <c r="S93" s="40"/>
     </row>
     <row r="94" spans="2:19" ht="32.25" customHeight="1">
@@ -36874,7 +36808,7 @@
       <c r="L94" s="132"/>
       <c r="M94" s="132"/>
       <c r="N94" s="133"/>
-      <c r="O94" s="129"/>
+      <c r="O94" s="25"/>
       <c r="S94" s="40"/>
     </row>
     <row r="95" spans="2:19" ht="32.25" customHeight="1">
@@ -36891,7 +36825,7 @@
       <c r="L95" s="132"/>
       <c r="M95" s="132"/>
       <c r="N95" s="133"/>
-      <c r="O95" s="129"/>
+      <c r="O95" s="25"/>
       <c r="S95" s="40"/>
     </row>
     <row r="96" spans="2:19" ht="32.25" customHeight="1">
@@ -36908,7 +36842,7 @@
       <c r="L96" s="132"/>
       <c r="M96" s="132"/>
       <c r="N96" s="133"/>
-      <c r="O96" s="129"/>
+      <c r="O96" s="25"/>
       <c r="S96" s="40"/>
     </row>
     <row r="97" spans="2:19" ht="32.25" customHeight="1">
@@ -36925,7 +36859,7 @@
       <c r="L97" s="132"/>
       <c r="M97" s="132"/>
       <c r="N97" s="133"/>
-      <c r="O97" s="129"/>
+      <c r="O97" s="25"/>
       <c r="S97" s="40"/>
     </row>
     <row r="98" spans="2:19" ht="32.25" customHeight="1">
@@ -36942,7 +36876,7 @@
       <c r="L98" s="132"/>
       <c r="M98" s="132"/>
       <c r="N98" s="133"/>
-      <c r="O98" s="129"/>
+      <c r="O98" s="25"/>
       <c r="S98" s="40"/>
     </row>
     <row r="99" spans="2:19" ht="32.25" customHeight="1">
@@ -36959,7 +36893,7 @@
       <c r="L99" s="132"/>
       <c r="M99" s="132"/>
       <c r="N99" s="133"/>
-      <c r="O99" s="129"/>
+      <c r="O99" s="25"/>
       <c r="S99" s="40"/>
     </row>
     <row r="100" spans="2:19" ht="32.25" customHeight="1">
@@ -36976,7 +36910,7 @@
       <c r="L100" s="132"/>
       <c r="M100" s="132"/>
       <c r="N100" s="133"/>
-      <c r="O100" s="129"/>
+      <c r="O100" s="25"/>
       <c r="S100" s="40"/>
     </row>
     <row r="101" spans="2:19" ht="32.25" customHeight="1">
@@ -36993,7 +36927,7 @@
       <c r="L101" s="132"/>
       <c r="M101" s="132"/>
       <c r="N101" s="133"/>
-      <c r="O101" s="129"/>
+      <c r="O101" s="25"/>
       <c r="S101" s="40"/>
     </row>
     <row r="102" spans="2:19" ht="32.25" customHeight="1">
@@ -37010,7 +36944,7 @@
       <c r="L102" s="132"/>
       <c r="M102" s="132"/>
       <c r="N102" s="133"/>
-      <c r="O102" s="129"/>
+      <c r="O102" s="25"/>
       <c r="S102" s="40"/>
     </row>
     <row r="103" spans="2:19" ht="32.25" customHeight="1">
@@ -37027,7 +36961,7 @@
       <c r="L103" s="132"/>
       <c r="M103" s="132"/>
       <c r="N103" s="133"/>
-      <c r="O103" s="129"/>
+      <c r="O103" s="25"/>
       <c r="S103" s="40"/>
     </row>
     <row r="104" spans="2:19" ht="32.25" customHeight="1">
@@ -37044,7 +36978,7 @@
       <c r="L104" s="132"/>
       <c r="M104" s="132"/>
       <c r="N104" s="133"/>
-      <c r="O104" s="129"/>
+      <c r="O104" s="25"/>
       <c r="S104" s="40"/>
     </row>
     <row r="105" spans="2:19" ht="32.25" customHeight="1">
@@ -37061,7 +36995,7 @@
       <c r="L105" s="132"/>
       <c r="M105" s="132"/>
       <c r="N105" s="133"/>
-      <c r="O105" s="129"/>
+      <c r="O105" s="25"/>
       <c r="S105" s="40"/>
     </row>
     <row r="106" spans="2:19" ht="32.25" customHeight="1">
@@ -37078,7 +37012,7 @@
       <c r="L106" s="132"/>
       <c r="M106" s="132"/>
       <c r="N106" s="133"/>
-      <c r="O106" s="129"/>
+      <c r="O106" s="25"/>
       <c r="S106" s="40"/>
     </row>
     <row r="107" spans="2:19" ht="32.25" customHeight="1">
@@ -37095,7 +37029,7 @@
       <c r="L107" s="132"/>
       <c r="M107" s="132"/>
       <c r="N107" s="133"/>
-      <c r="O107" s="129"/>
+      <c r="O107" s="25"/>
       <c r="S107" s="40"/>
     </row>
     <row r="108" spans="2:19" ht="32.25" customHeight="1">
@@ -37112,7 +37046,7 @@
       <c r="L108" s="132"/>
       <c r="M108" s="132"/>
       <c r="N108" s="133"/>
-      <c r="O108" s="129"/>
+      <c r="O108" s="25"/>
       <c r="S108" s="40"/>
     </row>
     <row r="109" spans="2:19" ht="32.25" customHeight="1">
@@ -37193,7 +37127,7 @@
     <row r="114" spans="1:16384" ht="26.3" customHeight="1">
       <c r="A114" s="115"/>
       <c r="B114" s="115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C114" s="115"/>
       <c r="D114" s="115"/>
@@ -54171,7 +54105,7 @@
     <row r="148" spans="1:21" s="27" customFormat="1" ht="30.05" customHeight="1">
       <c r="A148" s="28"/>
       <c r="B148" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C148" s="29"/>
       <c r="D148" s="29"/>
@@ -54195,7 +54129,7 @@
     <row r="149" spans="1:21" ht="23.5" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C149" s="56"/>
       <c r="D149" s="56"/>
